--- a/テスト仕様書/掲示板テスト仕様書(サンプル).xlsx
+++ b/テスト仕様書/掲示板テスト仕様書(サンプル).xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16520" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="掲示板機能テスト仕様書" sheetId="2" r:id="rId1"/>
-    <sheet name="記事投稿デシジョンテーブル - 記事投稿デシジョンテーブル" sheetId="3" r:id="rId2"/>
-    <sheet name="コメント投稿デシジョンテーブル" sheetId="4" r:id="rId3"/>
-    <sheet name="SQL" sheetId="5" r:id="rId4"/>
+    <sheet name="SQL" sheetId="5" r:id="rId1"/>
+    <sheet name="掲示板機能テスト仕様書" sheetId="2" r:id="rId2"/>
+    <sheet name="デシジョンテーブル" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,19 +26,6 @@
     <author>iga</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="ヒラギノ角ゴ ProN W3"/>
-          </rPr>
-          <t>iga:
-×の時は改行して履歴を残しておく</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G3" authorId="0">
       <text>
         <r>
@@ -66,12 +52,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="ヒラギノ角ゴ ProN W3"/>
+          </rPr>
+          <t>iga:
+×の時は改行して履歴を残しておく</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="126">
   <si>
     <t>表1</t>
   </si>
@@ -120,292 +119,18 @@
 （「SQL」シートのSQL1,SQL2,SQL3を実行）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t xml:space="preserve">・掲示板システムのトップページを表示させるURLを直書きする
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t>http://localhost:8080/joinedbbs/postarticle</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>・記事が1件も表示されないこと
-・コメント入力フォームが表示されていないこと
-・記事削除ボタンが表示されていないこと</t>
-  </si>
-  <si>
-    <t>・記事が1件の状態の表示画面の内容を確認する</t>
-  </si>
-  <si>
     <t>・1件の記事が投稿されていること
 （「SQL」シートのSQL1,SQL4を実行）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t xml:space="preserve">・以下の記事が1件表示されること
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t xml:space="preserve">　投稿ID： 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t xml:space="preserve">　投稿名： 伊賀
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t xml:space="preserve">　投稿内容： この掲示板について
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t xml:space="preserve">・コメント入力フォームが表示されること
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t>・記事削除ボタンが表示されていること</t>
-    </r>
-  </si>
-  <si>
-    <t>・投稿されている記事が全件表示されているか確認する
-・「投稿者名」と「投稿内容」が正常に表示されているか確認する</t>
-  </si>
-  <si>
     <t>・2件の記事が投稿されていること
 （「SQL」シートのSQL1を実行）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t xml:space="preserve">・投稿されている記事が2件以上表示されること
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t xml:space="preserve">・以下の2件の記事が表示されること
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t xml:space="preserve">　投稿ID： 2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t xml:space="preserve">　投稿名： 山田
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t xml:space="preserve">　投稿内容： 新たな投稿です。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t xml:space="preserve">　投稿ID： 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t xml:space="preserve">　投稿名： 伊賀
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t xml:space="preserve">　投稿内容： この掲示板について
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t xml:space="preserve">・コメント入力フォームが表示されること
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t>・2件以上の記事が投稿時間の降順で表示されていること</t>
-    </r>
-  </si>
-  <si>
     <t>記事を投稿する</t>
   </si>
   <si>
     <t>・記事が0件の状態から正しく投稿できるか確認する</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t xml:space="preserve">・以下の内容で記事を投稿する
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t xml:space="preserve">　投稿名： 佐藤
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t>　投稿内容： 投稿テストです。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t xml:space="preserve">・以下の記事が投稿されていること
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t xml:space="preserve">　投稿ID： ３
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t xml:space="preserve">　投稿名： 佐藤
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t>　投稿内容： 投稿テストです。</t>
-    </r>
   </si>
   <si>
     <t>・記事が2件以上ある状態から正しく投稿できるか確認する</t>
@@ -415,46 +140,6 @@
 (「SQL」シートのSQL1を実行)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t xml:space="preserve">・以下の記事が最も上に投稿されていること
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t xml:space="preserve">　投稿ID： 3
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t xml:space="preserve">　投稿名： 佐藤
-</t>
-    </r>
-    <r>
-      <rPr>
-        <outline/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ヒラギノ角ゴ ProN W3"/>
-      </rPr>
-      <t>　投稿内容： 投稿テストです。</t>
-    </r>
-  </si>
-  <si>
     <t>・正しい入力値チェックができるかを確認する</t>
   </si>
   <si>
@@ -490,10 +175,6 @@
   <si>
     <t>・2件以上のコメント付きの記事が投稿されていること
 （「SQL」シートのSQL1を実行）</t>
-  </si>
-  <si>
-    <t>・投稿されている記事別にコメントが表示されていること
-・コメントがIDの降順で表示されていること</t>
   </si>
   <si>
     <t>コメントを投稿する</t>
@@ -583,9 +264,6 @@
     <t>・1件の記事が削除されていること</t>
   </si>
   <si>
-    <t>記事投稿デシジョンテーブル</t>
-  </si>
-  <si>
     <t>記事投稿でデシジョンテーブル</t>
   </si>
   <si>
@@ -656,6 +334,264 @@
   </si>
   <si>
     <t>SQL1</t>
+  </si>
+  <si>
+    <t>テーブルの初期状態</t>
+  </si>
+  <si>
+    <t>SQL2</t>
+  </si>
+  <si>
+    <t>DELETE * FROM comments</t>
+  </si>
+  <si>
+    <t>コメントテーブルの全レコードを削除</t>
+  </si>
+  <si>
+    <t>SQL3</t>
+  </si>
+  <si>
+    <t>DELETE * FROM articles</t>
+  </si>
+  <si>
+    <t>記事テーブルのレコードを削除</t>
+  </si>
+  <si>
+    <t>SQL4</t>
+  </si>
+  <si>
+    <t>DELETE FROM comments WHERE article_id =2
+DELETE FROM articles WHERE id =2</t>
+  </si>
+  <si>
+    <t>記事ID2のコメント及び記事を削除</t>
+  </si>
+  <si>
+    <t>テストの観点</t>
+    <rPh sb="4" eb="6">
+      <t>カンテン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>画面の挙動
+正常系</t>
+  </si>
+  <si>
+    <t>画面の挙動
+正常系</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>画面の挙動
+正常系</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・記事入力フォームが表示されていること
+・記事が1件も表示されないこと
+・コメント入力フォームが表示されていないこと
+・記事削除ボタンが表示されていないこと</t>
+    <rPh sb="1" eb="3">
+      <t>キj</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="10" eb="19">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・投稿されている記事が全件表示されているか確認する
+・「投稿者名」と「投稿内容」が正常に表示されているか確認する</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・記事が1件の状態の表示画面の内容を確認する
+・「投稿者名」と「投稿内容」が正常に表示されているか確認する</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・ブラウザを起動しており画面に何も表示されていないこと
+・記事が0件であること
+（記事が投稿されていないこと）
+（「SQL」シートのSQL1,SQL2,SQL3を実行）</t>
+    <rPh sb="6" eb="12">
+      <t>キド</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="17" eb="27">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・ブラウザを起動しており画面に何も表示されていないこと
+・1件の記事が投稿されていること
+（「SQL」シートのSQL1,SQL4を実行）</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・ブラウザを起動しており画面に何も表示されていないこと
+・2件の記事が投稿されていること
+（「SQL」シートのSQL1を実行）</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・記事入力フォームが表示されていること
+・以下の記事が1件表示されること
+　投稿ID： 1
+　投稿名： 伊賀
+　投稿内容： この掲示板について
+・コメント入力フォームが表示されること
+・記事削除ボタンが表示されていること</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・投稿されている記事が2件以上表示されること
+・以下の2件の記事が表示されること
+　投稿ID： 2
+　投稿名： 山田
+　投稿内容： 新たな投稿です。
+　投稿ID： 1
+　投稿名： 伊賀
+　投稿内容： この掲示板について
+・コメント入力フォームが表示されること
+・2件以上の記事が投稿時間の降順で表示されていること</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>入力系画面
+正常系</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・以下の内容で記事を投稿する
+　投稿名： 佐藤
+　投稿内容： 投稿テストです。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・以下の記事が投稿されていること
+　投稿ID： ３
+　投稿名： 佐藤
+　投稿内容： 投稿テストです。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・以下の記事が最も上に投稿されていること
+　投稿ID： 3
+　投稿名： 佐藤
+　投稿内容： 投稿テストです。</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>入力系画面
+正常系</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>(参考)具体的入力値</t>
+  </si>
+  <si>
+    <t>対象コメント入力欄にエラーが出ている</t>
+    <rPh sb="0" eb="2">
+      <t>タイsy</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>デt</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>入力値</t>
+  </si>
+  <si>
+    <t>投稿者名の入力（正常系）</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>投稿者内容の入力（正常系）</t>
+  </si>
+  <si>
+    <t>投稿者名の入力(異常系：50字以上)</t>
+  </si>
+  <si>
+    <t>あいうえおかきくけこさしすせそたちつてとなにぬねのはひふへほあいうえおかきくけこさしすせそたちつてとなにぬねのはひふへほ</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>記事投稿太郎</t>
+    <rPh sb="0" eb="2">
+      <t>キj</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤm</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>記事投稿内容</t>
+    <rPh sb="0" eb="2">
+      <t>キj</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>トウコ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>コメント投稿太郎</t>
+    <rPh sb="4" eb="6">
+      <t>トウコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤm</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>コメント投稿内容</t>
+    <rPh sb="4" eb="8">
+      <t>トウコ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>・掲示板システムのトップページを表示させるURLを直書きする
+　http://localhost:8080/joinedbbs</t>
+    </r>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>名前の入力（正常系）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>コメントの入力（正常系）</t>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -2584,37 +2520,27 @@
       </rPr>
       <t>);</t>
     </r>
-  </si>
-  <si>
-    <t>テーブルの初期状態</t>
-  </si>
-  <si>
-    <t>SQL2</t>
-  </si>
-  <si>
-    <t>DELETE * FROM comments</t>
-  </si>
-  <si>
-    <t>コメントテーブルの全レコードを削除</t>
-  </si>
-  <si>
-    <t>SQL3</t>
-  </si>
-  <si>
-    <t>DELETE * FROM articles</t>
-  </si>
-  <si>
-    <t>記事テーブルのレコードを削除</t>
-  </si>
-  <si>
-    <t>SQL4</t>
-  </si>
-  <si>
-    <t>DELETE FROM comments WHERE article_id =2
-DELETE FROM articles WHERE id =2</t>
-  </si>
-  <si>
-    <t>記事ID2のコメント及び記事を削除</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・山田さんの記事に以下のコメントがついていること
+　コメント者名：吉田1
+　コメント内容：
+　山田さん書き込みのコメント1
+　コメント者名：吉田2
+　コメント内容：
+　山田さん書き込みのコメント2
+・伊賀さんの記事に以下のコメントがついていること
+　コメント者名：佐藤1
+　コメント内容：
+　伊賀さん書き込みのコメント1
+　コメント者名：佐藤2
+　コメント内容：
+　伊賀さん書き込みのコメント2
+　コメント者名：佐藤3
+　コメント内容：
+　伊賀さん書き込みのコメント3</t>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -2624,7 +2550,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2646,18 +2572,6 @@
       <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-    </font>
-    <font>
-      <outline/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
@@ -2693,6 +2607,43 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2715,12 +2666,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
@@ -2731,8 +2676,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2922,13 +2873,417 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2950,73 +3305,46 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3025,12 +3353,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3055,6 +3377,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3064,9 +3389,148 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="14">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -4215,474 +4679,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
-    <col min="9" max="256" width="9" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="14" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="78.25" customHeight="1">
-      <c r="A4" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="106.5" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="195" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="117" customHeight="1">
-      <c r="A7" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="67.5" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="55.5" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="78.75" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="50" customHeight="1">
-      <c r="A14" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="88.25" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="75.25" customHeight="1">
-      <c r="A20" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="60.25" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="64" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="64" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B16:B19"/>
-  </mergeCells>
-  <phoneticPr fontId="12"/>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="http://localhost:8080/joinedbbs/postarticle"/>
-    <hyperlink ref="D5" r:id="rId2" display="http://localhost:8080/joinedbbs/postarticle"/>
-    <hyperlink ref="D6" r:id="rId3" display="http://localhost:8080/joinedbbs/postarticle"/>
-    <hyperlink ref="D13" r:id="rId4" display="http://localhost:8080/joinedbbs/postarticle"/>
-  </hyperlinks>
-  <pageMargins left="0.78740200000000005" right="0.78740200000000005" top="0.98425200000000002" bottom="0.98425200000000002" header="0.51181100000000002" footer="0.51181100000000002"/>
-  <pageSetup scale="65" orientation="landscape"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ Ｐゴシック,Regular"&amp;11&amp;K000000&amp;P / &amp;N ページ</oddHeader>
-    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
@@ -4698,175 +4694,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.5" style="9" customWidth="1"/>
-    <col min="2" max="256" width="14" style="9" customWidth="1"/>
+    <col min="1" max="1" width="14" style="14" customWidth="1"/>
+    <col min="2" max="2" width="95" style="14" customWidth="1"/>
+    <col min="3" max="3" width="31" style="14" customWidth="1"/>
+    <col min="4" max="256" width="14" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+    <row r="1" spans="1:3" ht="17" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
-    <row r="2" spans="1:5" ht="15.5" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+    <row r="2" spans="1:3" ht="15.5" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>74</v>
+    <row r="3" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+    <row r="4" spans="1:3" ht="48.5" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>77</v>
+    <row r="5" spans="1:3" ht="15.25" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>79</v>
+    <row r="6" spans="1:3" ht="26" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>78</v>
-      </c>
+    <row r="7" spans="1:3" ht="15.25" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
     </row>
-    <row r="8" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+    <row r="8" spans="1:3" ht="15.25" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="21"/>
     </row>
-    <row r="9" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+    <row r="9" spans="1:3" ht="15.25" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A10" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>78</v>
-      </c>
+    <row r="10" spans="1:3" ht="15.25" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A11" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>78</v>
-      </c>
+    <row r="11" spans="1:3" ht="15.25" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="21"/>
     </row>
-    <row r="12" spans="1:5" ht="15.25" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>77</v>
-      </c>
+    <row r="12" spans="1:3" ht="15.25" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -4880,142 +4808,557 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IV10"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="22" customWidth="1"/>
-    <col min="2" max="256" width="14" style="22" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
+    <col min="10" max="257" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+    <row r="1" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="15.5" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+    <row r="2" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="15.5" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>73</v>
-      </c>
+    <row r="3" spans="1:10" ht="14" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="15.25" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+    <row r="4" spans="1:10" ht="78.25" customHeight="1">
+      <c r="A4" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="15.25" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>77</v>
-      </c>
+    <row r="5" spans="1:10" ht="123" customHeight="1">
+      <c r="A5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="15.25" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>78</v>
-      </c>
+    <row r="6" spans="1:10" ht="164" customHeight="1">
+      <c r="A6" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="15.25" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+    <row r="7" spans="1:10" ht="65" customHeight="1">
+      <c r="A7" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="15.25" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+    <row r="8" spans="1:10" ht="67.5" customHeight="1">
+      <c r="A8" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="15.25" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>78</v>
-      </c>
+    <row r="9" spans="1:10" ht="55.5" customHeight="1">
+      <c r="A9" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="15.25" customHeight="1">
-      <c r="A10" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>77</v>
-      </c>
+    <row r="10" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A10" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A11" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A12" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="251" customHeight="1">
+      <c r="A13" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="50" customHeight="1">
+      <c r="A14" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="88.25" customHeight="1">
+      <c r="A15" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="42" customHeight="1">
+      <c r="A16" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="42" customHeight="1">
+      <c r="A17" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="42" customHeight="1">
+      <c r="A18" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="42" customHeight="1">
+      <c r="A19" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="75.25" customHeight="1">
+      <c r="A20" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="60.25" customHeight="1">
+      <c r="A21" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="64" customHeight="1">
+      <c r="A22" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.78740200000000005" right="0.78740200000000005" top="0.98425200000000002" bottom="0.98425200000000002" header="0.51181100000000002" footer="0.51181100000000002"/>
+  <pageSetup scale="65" orientation="landscape"/>
   <headerFooter>
+    <oddHeader>&amp;L&amp;"ＭＳ Ｐゴシック,Regular"&amp;11&amp;K000000&amp;P / &amp;N ページ</oddHeader>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5024,123 +5367,2954 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV12"/>
+  <dimension ref="A1:IV40"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14" style="23" customWidth="1"/>
-    <col min="2" max="2" width="74.5" style="23" customWidth="1"/>
-    <col min="3" max="3" width="31" style="23" customWidth="1"/>
-    <col min="4" max="256" width="14" style="23" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" style="8" customWidth="1"/>
+    <col min="2" max="256" width="14" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+    <row r="1" spans="1:7" ht="14.75" customHeight="1">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
-    <row r="2" spans="1:3" ht="15.5" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>92</v>
-      </c>
+    <row r="2" spans="1:7" ht="15.5" customHeight="1">
+      <c r="A2" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
     </row>
-    <row r="3" spans="1:3" ht="409.5" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>95</v>
+    <row r="3" spans="1:7" ht="15.5" customHeight="1">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="48.5" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>98</v>
-      </c>
+    <row r="4" spans="1:7" ht="15.25" customHeight="1">
+      <c r="A4" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
     </row>
-    <row r="5" spans="1:3" ht="15.25" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>101</v>
+    <row r="5" spans="1:7" ht="15.25" customHeight="1">
+      <c r="A5" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>104</v>
+    <row r="6" spans="1:7" ht="15.25" customHeight="1">
+      <c r="A6" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.25" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
+    <row r="7" spans="1:7" ht="15.25" customHeight="1">
+      <c r="A7" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" ht="15.25" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="30"/>
+    <row r="8" spans="1:7" ht="15.25" customHeight="1">
+      <c r="A8" s="52"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
     </row>
-    <row r="9" spans="1:3" ht="15.25" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="30"/>
+    <row r="9" spans="1:7" ht="15.25" customHeight="1">
+      <c r="A9" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
     </row>
-    <row r="10" spans="1:3" ht="15.25" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="30"/>
+    <row r="10" spans="1:7" ht="15.25" customHeight="1">
+      <c r="A10" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" ht="15.25" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="30"/>
+    <row r="11" spans="1:7" ht="15.25" customHeight="1">
+      <c r="A11" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" ht="15.25" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="30"/>
+    <row r="12" spans="1:7" ht="15.25" customHeight="1">
+      <c r="A12" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13" customHeight="1" thickBot="1"/>
+    <row r="15" spans="1:7" ht="13" customHeight="1">
+      <c r="A15" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
+    </row>
+    <row r="16" spans="1:7" ht="13" customHeight="1">
+      <c r="A16" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="1:256" ht="13" customHeight="1">
+      <c r="A17" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="14"/>
+      <c r="BG17" s="14"/>
+      <c r="BH17" s="14"/>
+      <c r="BI17" s="14"/>
+      <c r="BJ17" s="14"/>
+      <c r="BK17" s="14"/>
+      <c r="BL17" s="14"/>
+      <c r="BM17" s="14"/>
+      <c r="BN17" s="14"/>
+      <c r="BO17" s="14"/>
+      <c r="BP17" s="14"/>
+      <c r="BQ17" s="14"/>
+      <c r="BR17" s="14"/>
+      <c r="BS17" s="14"/>
+      <c r="BT17" s="14"/>
+      <c r="BU17" s="14"/>
+      <c r="BV17" s="14"/>
+      <c r="BW17" s="14"/>
+      <c r="BX17" s="14"/>
+      <c r="BY17" s="14"/>
+      <c r="BZ17" s="14"/>
+      <c r="CA17" s="14"/>
+      <c r="CB17" s="14"/>
+      <c r="CC17" s="14"/>
+      <c r="CD17" s="14"/>
+      <c r="CE17" s="14"/>
+      <c r="CF17" s="14"/>
+      <c r="CG17" s="14"/>
+      <c r="CH17" s="14"/>
+      <c r="CI17" s="14"/>
+      <c r="CJ17" s="14"/>
+      <c r="CK17" s="14"/>
+      <c r="CL17" s="14"/>
+      <c r="CM17" s="14"/>
+      <c r="CN17" s="14"/>
+      <c r="CO17" s="14"/>
+      <c r="CP17" s="14"/>
+      <c r="CQ17" s="14"/>
+      <c r="CR17" s="14"/>
+      <c r="CS17" s="14"/>
+      <c r="CT17" s="14"/>
+      <c r="CU17" s="14"/>
+      <c r="CV17" s="14"/>
+      <c r="CW17" s="14"/>
+      <c r="CX17" s="14"/>
+      <c r="CY17" s="14"/>
+      <c r="CZ17" s="14"/>
+      <c r="DA17" s="14"/>
+      <c r="DB17" s="14"/>
+      <c r="DC17" s="14"/>
+      <c r="DD17" s="14"/>
+      <c r="DE17" s="14"/>
+      <c r="DF17" s="14"/>
+      <c r="DG17" s="14"/>
+      <c r="DH17" s="14"/>
+      <c r="DI17" s="14"/>
+      <c r="DJ17" s="14"/>
+      <c r="DK17" s="14"/>
+      <c r="DL17" s="14"/>
+      <c r="DM17" s="14"/>
+      <c r="DN17" s="14"/>
+      <c r="DO17" s="14"/>
+      <c r="DP17" s="14"/>
+      <c r="DQ17" s="14"/>
+      <c r="DR17" s="14"/>
+      <c r="DS17" s="14"/>
+      <c r="DT17" s="14"/>
+      <c r="DU17" s="14"/>
+      <c r="DV17" s="14"/>
+      <c r="DW17" s="14"/>
+      <c r="DX17" s="14"/>
+      <c r="DY17" s="14"/>
+      <c r="DZ17" s="14"/>
+      <c r="EA17" s="14"/>
+      <c r="EB17" s="14"/>
+      <c r="EC17" s="14"/>
+      <c r="ED17" s="14"/>
+      <c r="EE17" s="14"/>
+      <c r="EF17" s="14"/>
+      <c r="EG17" s="14"/>
+      <c r="EH17" s="14"/>
+      <c r="EI17" s="14"/>
+      <c r="EJ17" s="14"/>
+      <c r="EK17" s="14"/>
+      <c r="EL17" s="14"/>
+      <c r="EM17" s="14"/>
+      <c r="EN17" s="14"/>
+      <c r="EO17" s="14"/>
+      <c r="EP17" s="14"/>
+      <c r="EQ17" s="14"/>
+      <c r="ER17" s="14"/>
+      <c r="ES17" s="14"/>
+      <c r="ET17" s="14"/>
+      <c r="EU17" s="14"/>
+      <c r="EV17" s="14"/>
+      <c r="EW17" s="14"/>
+      <c r="EX17" s="14"/>
+      <c r="EY17" s="14"/>
+      <c r="EZ17" s="14"/>
+      <c r="FA17" s="14"/>
+      <c r="FB17" s="14"/>
+      <c r="FC17" s="14"/>
+      <c r="FD17" s="14"/>
+      <c r="FE17" s="14"/>
+      <c r="FF17" s="14"/>
+      <c r="FG17" s="14"/>
+      <c r="FH17" s="14"/>
+      <c r="FI17" s="14"/>
+      <c r="FJ17" s="14"/>
+      <c r="FK17" s="14"/>
+      <c r="FL17" s="14"/>
+      <c r="FM17" s="14"/>
+      <c r="FN17" s="14"/>
+      <c r="FO17" s="14"/>
+      <c r="FP17" s="14"/>
+      <c r="FQ17" s="14"/>
+      <c r="FR17" s="14"/>
+      <c r="FS17" s="14"/>
+      <c r="FT17" s="14"/>
+      <c r="FU17" s="14"/>
+      <c r="FV17" s="14"/>
+      <c r="FW17" s="14"/>
+      <c r="FX17" s="14"/>
+      <c r="FY17" s="14"/>
+      <c r="FZ17" s="14"/>
+      <c r="GA17" s="14"/>
+      <c r="GB17" s="14"/>
+      <c r="GC17" s="14"/>
+      <c r="GD17" s="14"/>
+      <c r="GE17" s="14"/>
+      <c r="GF17" s="14"/>
+      <c r="GG17" s="14"/>
+      <c r="GH17" s="14"/>
+      <c r="GI17" s="14"/>
+      <c r="GJ17" s="14"/>
+      <c r="GK17" s="14"/>
+      <c r="GL17" s="14"/>
+      <c r="GM17" s="14"/>
+      <c r="GN17" s="14"/>
+      <c r="GO17" s="14"/>
+      <c r="GP17" s="14"/>
+      <c r="GQ17" s="14"/>
+      <c r="GR17" s="14"/>
+      <c r="GS17" s="14"/>
+      <c r="GT17" s="14"/>
+      <c r="GU17" s="14"/>
+      <c r="GV17" s="14"/>
+      <c r="GW17" s="14"/>
+      <c r="GX17" s="14"/>
+      <c r="GY17" s="14"/>
+      <c r="GZ17" s="14"/>
+      <c r="HA17" s="14"/>
+      <c r="HB17" s="14"/>
+      <c r="HC17" s="14"/>
+      <c r="HD17" s="14"/>
+      <c r="HE17" s="14"/>
+      <c r="HF17" s="14"/>
+      <c r="HG17" s="14"/>
+      <c r="HH17" s="14"/>
+      <c r="HI17" s="14"/>
+      <c r="HJ17" s="14"/>
+      <c r="HK17" s="14"/>
+      <c r="HL17" s="14"/>
+      <c r="HM17" s="14"/>
+      <c r="HN17" s="14"/>
+      <c r="HO17" s="14"/>
+      <c r="HP17" s="14"/>
+      <c r="HQ17" s="14"/>
+      <c r="HR17" s="14"/>
+      <c r="HS17" s="14"/>
+      <c r="HT17" s="14"/>
+      <c r="HU17" s="14"/>
+      <c r="HV17" s="14"/>
+      <c r="HW17" s="14"/>
+      <c r="HX17" s="14"/>
+      <c r="HY17" s="14"/>
+      <c r="HZ17" s="14"/>
+      <c r="IA17" s="14"/>
+      <c r="IB17" s="14"/>
+      <c r="IC17" s="14"/>
+      <c r="ID17" s="14"/>
+      <c r="IE17" s="14"/>
+      <c r="IF17" s="14"/>
+      <c r="IG17" s="14"/>
+      <c r="IH17" s="14"/>
+      <c r="II17" s="14"/>
+      <c r="IJ17" s="14"/>
+      <c r="IK17" s="14"/>
+      <c r="IL17" s="14"/>
+      <c r="IM17" s="14"/>
+      <c r="IN17" s="14"/>
+      <c r="IO17" s="14"/>
+      <c r="IP17" s="14"/>
+      <c r="IQ17" s="14"/>
+      <c r="IR17" s="14"/>
+      <c r="IS17" s="14"/>
+      <c r="IT17" s="14"/>
+      <c r="IU17" s="14"/>
+      <c r="IV17" s="14"/>
+    </row>
+    <row r="18" spans="1:256" ht="32" customHeight="1" thickBot="1">
+      <c r="A18" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="14"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14"/>
+      <c r="BF18" s="14"/>
+      <c r="BG18" s="14"/>
+      <c r="BH18" s="14"/>
+      <c r="BI18" s="14"/>
+      <c r="BJ18" s="14"/>
+      <c r="BK18" s="14"/>
+      <c r="BL18" s="14"/>
+      <c r="BM18" s="14"/>
+      <c r="BN18" s="14"/>
+      <c r="BO18" s="14"/>
+      <c r="BP18" s="14"/>
+      <c r="BQ18" s="14"/>
+      <c r="BR18" s="14"/>
+      <c r="BS18" s="14"/>
+      <c r="BT18" s="14"/>
+      <c r="BU18" s="14"/>
+      <c r="BV18" s="14"/>
+      <c r="BW18" s="14"/>
+      <c r="BX18" s="14"/>
+      <c r="BY18" s="14"/>
+      <c r="BZ18" s="14"/>
+      <c r="CA18" s="14"/>
+      <c r="CB18" s="14"/>
+      <c r="CC18" s="14"/>
+      <c r="CD18" s="14"/>
+      <c r="CE18" s="14"/>
+      <c r="CF18" s="14"/>
+      <c r="CG18" s="14"/>
+      <c r="CH18" s="14"/>
+      <c r="CI18" s="14"/>
+      <c r="CJ18" s="14"/>
+      <c r="CK18" s="14"/>
+      <c r="CL18" s="14"/>
+      <c r="CM18" s="14"/>
+      <c r="CN18" s="14"/>
+      <c r="CO18" s="14"/>
+      <c r="CP18" s="14"/>
+      <c r="CQ18" s="14"/>
+      <c r="CR18" s="14"/>
+      <c r="CS18" s="14"/>
+      <c r="CT18" s="14"/>
+      <c r="CU18" s="14"/>
+      <c r="CV18" s="14"/>
+      <c r="CW18" s="14"/>
+      <c r="CX18" s="14"/>
+      <c r="CY18" s="14"/>
+      <c r="CZ18" s="14"/>
+      <c r="DA18" s="14"/>
+      <c r="DB18" s="14"/>
+      <c r="DC18" s="14"/>
+      <c r="DD18" s="14"/>
+      <c r="DE18" s="14"/>
+      <c r="DF18" s="14"/>
+      <c r="DG18" s="14"/>
+      <c r="DH18" s="14"/>
+      <c r="DI18" s="14"/>
+      <c r="DJ18" s="14"/>
+      <c r="DK18" s="14"/>
+      <c r="DL18" s="14"/>
+      <c r="DM18" s="14"/>
+      <c r="DN18" s="14"/>
+      <c r="DO18" s="14"/>
+      <c r="DP18" s="14"/>
+      <c r="DQ18" s="14"/>
+      <c r="DR18" s="14"/>
+      <c r="DS18" s="14"/>
+      <c r="DT18" s="14"/>
+      <c r="DU18" s="14"/>
+      <c r="DV18" s="14"/>
+      <c r="DW18" s="14"/>
+      <c r="DX18" s="14"/>
+      <c r="DY18" s="14"/>
+      <c r="DZ18" s="14"/>
+      <c r="EA18" s="14"/>
+      <c r="EB18" s="14"/>
+      <c r="EC18" s="14"/>
+      <c r="ED18" s="14"/>
+      <c r="EE18" s="14"/>
+      <c r="EF18" s="14"/>
+      <c r="EG18" s="14"/>
+      <c r="EH18" s="14"/>
+      <c r="EI18" s="14"/>
+      <c r="EJ18" s="14"/>
+      <c r="EK18" s="14"/>
+      <c r="EL18" s="14"/>
+      <c r="EM18" s="14"/>
+      <c r="EN18" s="14"/>
+      <c r="EO18" s="14"/>
+      <c r="EP18" s="14"/>
+      <c r="EQ18" s="14"/>
+      <c r="ER18" s="14"/>
+      <c r="ES18" s="14"/>
+      <c r="ET18" s="14"/>
+      <c r="EU18" s="14"/>
+      <c r="EV18" s="14"/>
+      <c r="EW18" s="14"/>
+      <c r="EX18" s="14"/>
+      <c r="EY18" s="14"/>
+      <c r="EZ18" s="14"/>
+      <c r="FA18" s="14"/>
+      <c r="FB18" s="14"/>
+      <c r="FC18" s="14"/>
+      <c r="FD18" s="14"/>
+      <c r="FE18" s="14"/>
+      <c r="FF18" s="14"/>
+      <c r="FG18" s="14"/>
+      <c r="FH18" s="14"/>
+      <c r="FI18" s="14"/>
+      <c r="FJ18" s="14"/>
+      <c r="FK18" s="14"/>
+      <c r="FL18" s="14"/>
+      <c r="FM18" s="14"/>
+      <c r="FN18" s="14"/>
+      <c r="FO18" s="14"/>
+      <c r="FP18" s="14"/>
+      <c r="FQ18" s="14"/>
+      <c r="FR18" s="14"/>
+      <c r="FS18" s="14"/>
+      <c r="FT18" s="14"/>
+      <c r="FU18" s="14"/>
+      <c r="FV18" s="14"/>
+      <c r="FW18" s="14"/>
+      <c r="FX18" s="14"/>
+      <c r="FY18" s="14"/>
+      <c r="FZ18" s="14"/>
+      <c r="GA18" s="14"/>
+      <c r="GB18" s="14"/>
+      <c r="GC18" s="14"/>
+      <c r="GD18" s="14"/>
+      <c r="GE18" s="14"/>
+      <c r="GF18" s="14"/>
+      <c r="GG18" s="14"/>
+      <c r="GH18" s="14"/>
+      <c r="GI18" s="14"/>
+      <c r="GJ18" s="14"/>
+      <c r="GK18" s="14"/>
+      <c r="GL18" s="14"/>
+      <c r="GM18" s="14"/>
+      <c r="GN18" s="14"/>
+      <c r="GO18" s="14"/>
+      <c r="GP18" s="14"/>
+      <c r="GQ18" s="14"/>
+      <c r="GR18" s="14"/>
+      <c r="GS18" s="14"/>
+      <c r="GT18" s="14"/>
+      <c r="GU18" s="14"/>
+      <c r="GV18" s="14"/>
+      <c r="GW18" s="14"/>
+      <c r="GX18" s="14"/>
+      <c r="GY18" s="14"/>
+      <c r="GZ18" s="14"/>
+      <c r="HA18" s="14"/>
+      <c r="HB18" s="14"/>
+      <c r="HC18" s="14"/>
+      <c r="HD18" s="14"/>
+      <c r="HE18" s="14"/>
+      <c r="HF18" s="14"/>
+      <c r="HG18" s="14"/>
+      <c r="HH18" s="14"/>
+      <c r="HI18" s="14"/>
+      <c r="HJ18" s="14"/>
+      <c r="HK18" s="14"/>
+      <c r="HL18" s="14"/>
+      <c r="HM18" s="14"/>
+      <c r="HN18" s="14"/>
+      <c r="HO18" s="14"/>
+      <c r="HP18" s="14"/>
+      <c r="HQ18" s="14"/>
+      <c r="HR18" s="14"/>
+      <c r="HS18" s="14"/>
+      <c r="HT18" s="14"/>
+      <c r="HU18" s="14"/>
+      <c r="HV18" s="14"/>
+      <c r="HW18" s="14"/>
+      <c r="HX18" s="14"/>
+      <c r="HY18" s="14"/>
+      <c r="HZ18" s="14"/>
+      <c r="IA18" s="14"/>
+      <c r="IB18" s="14"/>
+      <c r="IC18" s="14"/>
+      <c r="ID18" s="14"/>
+      <c r="IE18" s="14"/>
+      <c r="IF18" s="14"/>
+      <c r="IG18" s="14"/>
+      <c r="IH18" s="14"/>
+      <c r="II18" s="14"/>
+      <c r="IJ18" s="14"/>
+      <c r="IK18" s="14"/>
+      <c r="IL18" s="14"/>
+      <c r="IM18" s="14"/>
+      <c r="IN18" s="14"/>
+      <c r="IO18" s="14"/>
+      <c r="IP18" s="14"/>
+      <c r="IQ18" s="14"/>
+      <c r="IR18" s="14"/>
+      <c r="IS18" s="14"/>
+      <c r="IT18" s="14"/>
+      <c r="IU18" s="14"/>
+      <c r="IV18" s="14"/>
+    </row>
+    <row r="19" spans="1:256" ht="13" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="14"/>
+      <c r="BG19" s="14"/>
+      <c r="BH19" s="14"/>
+      <c r="BI19" s="14"/>
+      <c r="BJ19" s="14"/>
+      <c r="BK19" s="14"/>
+      <c r="BL19" s="14"/>
+      <c r="BM19" s="14"/>
+      <c r="BN19" s="14"/>
+      <c r="BO19" s="14"/>
+      <c r="BP19" s="14"/>
+      <c r="BQ19" s="14"/>
+      <c r="BR19" s="14"/>
+      <c r="BS19" s="14"/>
+      <c r="BT19" s="14"/>
+      <c r="BU19" s="14"/>
+      <c r="BV19" s="14"/>
+      <c r="BW19" s="14"/>
+      <c r="BX19" s="14"/>
+      <c r="BY19" s="14"/>
+      <c r="BZ19" s="14"/>
+      <c r="CA19" s="14"/>
+      <c r="CB19" s="14"/>
+      <c r="CC19" s="14"/>
+      <c r="CD19" s="14"/>
+      <c r="CE19" s="14"/>
+      <c r="CF19" s="14"/>
+      <c r="CG19" s="14"/>
+      <c r="CH19" s="14"/>
+      <c r="CI19" s="14"/>
+      <c r="CJ19" s="14"/>
+      <c r="CK19" s="14"/>
+      <c r="CL19" s="14"/>
+      <c r="CM19" s="14"/>
+      <c r="CN19" s="14"/>
+      <c r="CO19" s="14"/>
+      <c r="CP19" s="14"/>
+      <c r="CQ19" s="14"/>
+      <c r="CR19" s="14"/>
+      <c r="CS19" s="14"/>
+      <c r="CT19" s="14"/>
+      <c r="CU19" s="14"/>
+      <c r="CV19" s="14"/>
+      <c r="CW19" s="14"/>
+      <c r="CX19" s="14"/>
+      <c r="CY19" s="14"/>
+      <c r="CZ19" s="14"/>
+      <c r="DA19" s="14"/>
+      <c r="DB19" s="14"/>
+      <c r="DC19" s="14"/>
+      <c r="DD19" s="14"/>
+      <c r="DE19" s="14"/>
+      <c r="DF19" s="14"/>
+      <c r="DG19" s="14"/>
+      <c r="DH19" s="14"/>
+      <c r="DI19" s="14"/>
+      <c r="DJ19" s="14"/>
+      <c r="DK19" s="14"/>
+      <c r="DL19" s="14"/>
+      <c r="DM19" s="14"/>
+      <c r="DN19" s="14"/>
+      <c r="DO19" s="14"/>
+      <c r="DP19" s="14"/>
+      <c r="DQ19" s="14"/>
+      <c r="DR19" s="14"/>
+      <c r="DS19" s="14"/>
+      <c r="DT19" s="14"/>
+      <c r="DU19" s="14"/>
+      <c r="DV19" s="14"/>
+      <c r="DW19" s="14"/>
+      <c r="DX19" s="14"/>
+      <c r="DY19" s="14"/>
+      <c r="DZ19" s="14"/>
+      <c r="EA19" s="14"/>
+      <c r="EB19" s="14"/>
+      <c r="EC19" s="14"/>
+      <c r="ED19" s="14"/>
+      <c r="EE19" s="14"/>
+      <c r="EF19" s="14"/>
+      <c r="EG19" s="14"/>
+      <c r="EH19" s="14"/>
+      <c r="EI19" s="14"/>
+      <c r="EJ19" s="14"/>
+      <c r="EK19" s="14"/>
+      <c r="EL19" s="14"/>
+      <c r="EM19" s="14"/>
+      <c r="EN19" s="14"/>
+      <c r="EO19" s="14"/>
+      <c r="EP19" s="14"/>
+      <c r="EQ19" s="14"/>
+      <c r="ER19" s="14"/>
+      <c r="ES19" s="14"/>
+      <c r="ET19" s="14"/>
+      <c r="EU19" s="14"/>
+      <c r="EV19" s="14"/>
+      <c r="EW19" s="14"/>
+      <c r="EX19" s="14"/>
+      <c r="EY19" s="14"/>
+      <c r="EZ19" s="14"/>
+      <c r="FA19" s="14"/>
+      <c r="FB19" s="14"/>
+      <c r="FC19" s="14"/>
+      <c r="FD19" s="14"/>
+      <c r="FE19" s="14"/>
+      <c r="FF19" s="14"/>
+      <c r="FG19" s="14"/>
+      <c r="FH19" s="14"/>
+      <c r="FI19" s="14"/>
+      <c r="FJ19" s="14"/>
+      <c r="FK19" s="14"/>
+      <c r="FL19" s="14"/>
+      <c r="FM19" s="14"/>
+      <c r="FN19" s="14"/>
+      <c r="FO19" s="14"/>
+      <c r="FP19" s="14"/>
+      <c r="FQ19" s="14"/>
+      <c r="FR19" s="14"/>
+      <c r="FS19" s="14"/>
+      <c r="FT19" s="14"/>
+      <c r="FU19" s="14"/>
+      <c r="FV19" s="14"/>
+      <c r="FW19" s="14"/>
+      <c r="FX19" s="14"/>
+      <c r="FY19" s="14"/>
+      <c r="FZ19" s="14"/>
+      <c r="GA19" s="14"/>
+      <c r="GB19" s="14"/>
+      <c r="GC19" s="14"/>
+      <c r="GD19" s="14"/>
+      <c r="GE19" s="14"/>
+      <c r="GF19" s="14"/>
+      <c r="GG19" s="14"/>
+      <c r="GH19" s="14"/>
+      <c r="GI19" s="14"/>
+      <c r="GJ19" s="14"/>
+      <c r="GK19" s="14"/>
+      <c r="GL19" s="14"/>
+      <c r="GM19" s="14"/>
+      <c r="GN19" s="14"/>
+      <c r="GO19" s="14"/>
+      <c r="GP19" s="14"/>
+      <c r="GQ19" s="14"/>
+      <c r="GR19" s="14"/>
+      <c r="GS19" s="14"/>
+      <c r="GT19" s="14"/>
+      <c r="GU19" s="14"/>
+      <c r="GV19" s="14"/>
+      <c r="GW19" s="14"/>
+      <c r="GX19" s="14"/>
+      <c r="GY19" s="14"/>
+      <c r="GZ19" s="14"/>
+      <c r="HA19" s="14"/>
+      <c r="HB19" s="14"/>
+      <c r="HC19" s="14"/>
+      <c r="HD19" s="14"/>
+      <c r="HE19" s="14"/>
+      <c r="HF19" s="14"/>
+      <c r="HG19" s="14"/>
+      <c r="HH19" s="14"/>
+      <c r="HI19" s="14"/>
+      <c r="HJ19" s="14"/>
+      <c r="HK19" s="14"/>
+      <c r="HL19" s="14"/>
+      <c r="HM19" s="14"/>
+      <c r="HN19" s="14"/>
+      <c r="HO19" s="14"/>
+      <c r="HP19" s="14"/>
+      <c r="HQ19" s="14"/>
+      <c r="HR19" s="14"/>
+      <c r="HS19" s="14"/>
+      <c r="HT19" s="14"/>
+      <c r="HU19" s="14"/>
+      <c r="HV19" s="14"/>
+      <c r="HW19" s="14"/>
+      <c r="HX19" s="14"/>
+      <c r="HY19" s="14"/>
+      <c r="HZ19" s="14"/>
+      <c r="IA19" s="14"/>
+      <c r="IB19" s="14"/>
+      <c r="IC19" s="14"/>
+      <c r="ID19" s="14"/>
+      <c r="IE19" s="14"/>
+      <c r="IF19" s="14"/>
+      <c r="IG19" s="14"/>
+      <c r="IH19" s="14"/>
+      <c r="II19" s="14"/>
+      <c r="IJ19" s="14"/>
+      <c r="IK19" s="14"/>
+      <c r="IL19" s="14"/>
+      <c r="IM19" s="14"/>
+      <c r="IN19" s="14"/>
+      <c r="IO19" s="14"/>
+      <c r="IP19" s="14"/>
+      <c r="IQ19" s="14"/>
+      <c r="IR19" s="14"/>
+      <c r="IS19" s="14"/>
+      <c r="IT19" s="14"/>
+      <c r="IU19" s="14"/>
+      <c r="IV19" s="14"/>
+    </row>
+    <row r="20" spans="1:256" ht="13" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
+      <c r="BA20" s="14"/>
+      <c r="BB20" s="14"/>
+      <c r="BC20" s="14"/>
+      <c r="BD20" s="14"/>
+      <c r="BE20" s="14"/>
+      <c r="BF20" s="14"/>
+      <c r="BG20" s="14"/>
+      <c r="BH20" s="14"/>
+      <c r="BI20" s="14"/>
+      <c r="BJ20" s="14"/>
+      <c r="BK20" s="14"/>
+      <c r="BL20" s="14"/>
+      <c r="BM20" s="14"/>
+      <c r="BN20" s="14"/>
+      <c r="BO20" s="14"/>
+      <c r="BP20" s="14"/>
+      <c r="BQ20" s="14"/>
+      <c r="BR20" s="14"/>
+      <c r="BS20" s="14"/>
+      <c r="BT20" s="14"/>
+      <c r="BU20" s="14"/>
+      <c r="BV20" s="14"/>
+      <c r="BW20" s="14"/>
+      <c r="BX20" s="14"/>
+      <c r="BY20" s="14"/>
+      <c r="BZ20" s="14"/>
+      <c r="CA20" s="14"/>
+      <c r="CB20" s="14"/>
+      <c r="CC20" s="14"/>
+      <c r="CD20" s="14"/>
+      <c r="CE20" s="14"/>
+      <c r="CF20" s="14"/>
+      <c r="CG20" s="14"/>
+      <c r="CH20" s="14"/>
+      <c r="CI20" s="14"/>
+      <c r="CJ20" s="14"/>
+      <c r="CK20" s="14"/>
+      <c r="CL20" s="14"/>
+      <c r="CM20" s="14"/>
+      <c r="CN20" s="14"/>
+      <c r="CO20" s="14"/>
+      <c r="CP20" s="14"/>
+      <c r="CQ20" s="14"/>
+      <c r="CR20" s="14"/>
+      <c r="CS20" s="14"/>
+      <c r="CT20" s="14"/>
+      <c r="CU20" s="14"/>
+      <c r="CV20" s="14"/>
+      <c r="CW20" s="14"/>
+      <c r="CX20" s="14"/>
+      <c r="CY20" s="14"/>
+      <c r="CZ20" s="14"/>
+      <c r="DA20" s="14"/>
+      <c r="DB20" s="14"/>
+      <c r="DC20" s="14"/>
+      <c r="DD20" s="14"/>
+      <c r="DE20" s="14"/>
+      <c r="DF20" s="14"/>
+      <c r="DG20" s="14"/>
+      <c r="DH20" s="14"/>
+      <c r="DI20" s="14"/>
+      <c r="DJ20" s="14"/>
+      <c r="DK20" s="14"/>
+      <c r="DL20" s="14"/>
+      <c r="DM20" s="14"/>
+      <c r="DN20" s="14"/>
+      <c r="DO20" s="14"/>
+      <c r="DP20" s="14"/>
+      <c r="DQ20" s="14"/>
+      <c r="DR20" s="14"/>
+      <c r="DS20" s="14"/>
+      <c r="DT20" s="14"/>
+      <c r="DU20" s="14"/>
+      <c r="DV20" s="14"/>
+      <c r="DW20" s="14"/>
+      <c r="DX20" s="14"/>
+      <c r="DY20" s="14"/>
+      <c r="DZ20" s="14"/>
+      <c r="EA20" s="14"/>
+      <c r="EB20" s="14"/>
+      <c r="EC20" s="14"/>
+      <c r="ED20" s="14"/>
+      <c r="EE20" s="14"/>
+      <c r="EF20" s="14"/>
+      <c r="EG20" s="14"/>
+      <c r="EH20" s="14"/>
+      <c r="EI20" s="14"/>
+      <c r="EJ20" s="14"/>
+      <c r="EK20" s="14"/>
+      <c r="EL20" s="14"/>
+      <c r="EM20" s="14"/>
+      <c r="EN20" s="14"/>
+      <c r="EO20" s="14"/>
+      <c r="EP20" s="14"/>
+      <c r="EQ20" s="14"/>
+      <c r="ER20" s="14"/>
+      <c r="ES20" s="14"/>
+      <c r="ET20" s="14"/>
+      <c r="EU20" s="14"/>
+      <c r="EV20" s="14"/>
+      <c r="EW20" s="14"/>
+      <c r="EX20" s="14"/>
+      <c r="EY20" s="14"/>
+      <c r="EZ20" s="14"/>
+      <c r="FA20" s="14"/>
+      <c r="FB20" s="14"/>
+      <c r="FC20" s="14"/>
+      <c r="FD20" s="14"/>
+      <c r="FE20" s="14"/>
+      <c r="FF20" s="14"/>
+      <c r="FG20" s="14"/>
+      <c r="FH20" s="14"/>
+      <c r="FI20" s="14"/>
+      <c r="FJ20" s="14"/>
+      <c r="FK20" s="14"/>
+      <c r="FL20" s="14"/>
+      <c r="FM20" s="14"/>
+      <c r="FN20" s="14"/>
+      <c r="FO20" s="14"/>
+      <c r="FP20" s="14"/>
+      <c r="FQ20" s="14"/>
+      <c r="FR20" s="14"/>
+      <c r="FS20" s="14"/>
+      <c r="FT20" s="14"/>
+      <c r="FU20" s="14"/>
+      <c r="FV20" s="14"/>
+      <c r="FW20" s="14"/>
+      <c r="FX20" s="14"/>
+      <c r="FY20" s="14"/>
+      <c r="FZ20" s="14"/>
+      <c r="GA20" s="14"/>
+      <c r="GB20" s="14"/>
+      <c r="GC20" s="14"/>
+      <c r="GD20" s="14"/>
+      <c r="GE20" s="14"/>
+      <c r="GF20" s="14"/>
+      <c r="GG20" s="14"/>
+      <c r="GH20" s="14"/>
+      <c r="GI20" s="14"/>
+      <c r="GJ20" s="14"/>
+      <c r="GK20" s="14"/>
+      <c r="GL20" s="14"/>
+      <c r="GM20" s="14"/>
+      <c r="GN20" s="14"/>
+      <c r="GO20" s="14"/>
+      <c r="GP20" s="14"/>
+      <c r="GQ20" s="14"/>
+      <c r="GR20" s="14"/>
+      <c r="GS20" s="14"/>
+      <c r="GT20" s="14"/>
+      <c r="GU20" s="14"/>
+      <c r="GV20" s="14"/>
+      <c r="GW20" s="14"/>
+      <c r="GX20" s="14"/>
+      <c r="GY20" s="14"/>
+      <c r="GZ20" s="14"/>
+      <c r="HA20" s="14"/>
+      <c r="HB20" s="14"/>
+      <c r="HC20" s="14"/>
+      <c r="HD20" s="14"/>
+      <c r="HE20" s="14"/>
+      <c r="HF20" s="14"/>
+      <c r="HG20" s="14"/>
+      <c r="HH20" s="14"/>
+      <c r="HI20" s="14"/>
+      <c r="HJ20" s="14"/>
+      <c r="HK20" s="14"/>
+      <c r="HL20" s="14"/>
+      <c r="HM20" s="14"/>
+      <c r="HN20" s="14"/>
+      <c r="HO20" s="14"/>
+      <c r="HP20" s="14"/>
+      <c r="HQ20" s="14"/>
+      <c r="HR20" s="14"/>
+      <c r="HS20" s="14"/>
+      <c r="HT20" s="14"/>
+      <c r="HU20" s="14"/>
+      <c r="HV20" s="14"/>
+      <c r="HW20" s="14"/>
+      <c r="HX20" s="14"/>
+      <c r="HY20" s="14"/>
+      <c r="HZ20" s="14"/>
+      <c r="IA20" s="14"/>
+      <c r="IB20" s="14"/>
+      <c r="IC20" s="14"/>
+      <c r="ID20" s="14"/>
+      <c r="IE20" s="14"/>
+      <c r="IF20" s="14"/>
+      <c r="IG20" s="14"/>
+      <c r="IH20" s="14"/>
+      <c r="II20" s="14"/>
+      <c r="IJ20" s="14"/>
+      <c r="IK20" s="14"/>
+      <c r="IL20" s="14"/>
+      <c r="IM20" s="14"/>
+      <c r="IN20" s="14"/>
+      <c r="IO20" s="14"/>
+      <c r="IP20" s="14"/>
+      <c r="IQ20" s="14"/>
+      <c r="IR20" s="14"/>
+      <c r="IS20" s="14"/>
+      <c r="IT20" s="14"/>
+      <c r="IU20" s="14"/>
+      <c r="IV20" s="14"/>
+    </row>
+    <row r="21" spans="1:256" ht="13" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21" s="14"/>
+      <c r="BA21" s="14"/>
+      <c r="BB21" s="14"/>
+      <c r="BC21" s="14"/>
+      <c r="BD21" s="14"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="14"/>
+      <c r="BG21" s="14"/>
+      <c r="BH21" s="14"/>
+      <c r="BI21" s="14"/>
+      <c r="BJ21" s="14"/>
+      <c r="BK21" s="14"/>
+      <c r="BL21" s="14"/>
+      <c r="BM21" s="14"/>
+      <c r="BN21" s="14"/>
+      <c r="BO21" s="14"/>
+      <c r="BP21" s="14"/>
+      <c r="BQ21" s="14"/>
+      <c r="BR21" s="14"/>
+      <c r="BS21" s="14"/>
+      <c r="BT21" s="14"/>
+      <c r="BU21" s="14"/>
+      <c r="BV21" s="14"/>
+      <c r="BW21" s="14"/>
+      <c r="BX21" s="14"/>
+      <c r="BY21" s="14"/>
+      <c r="BZ21" s="14"/>
+      <c r="CA21" s="14"/>
+      <c r="CB21" s="14"/>
+      <c r="CC21" s="14"/>
+      <c r="CD21" s="14"/>
+      <c r="CE21" s="14"/>
+      <c r="CF21" s="14"/>
+      <c r="CG21" s="14"/>
+      <c r="CH21" s="14"/>
+      <c r="CI21" s="14"/>
+      <c r="CJ21" s="14"/>
+      <c r="CK21" s="14"/>
+      <c r="CL21" s="14"/>
+      <c r="CM21" s="14"/>
+      <c r="CN21" s="14"/>
+      <c r="CO21" s="14"/>
+      <c r="CP21" s="14"/>
+      <c r="CQ21" s="14"/>
+      <c r="CR21" s="14"/>
+      <c r="CS21" s="14"/>
+      <c r="CT21" s="14"/>
+      <c r="CU21" s="14"/>
+      <c r="CV21" s="14"/>
+      <c r="CW21" s="14"/>
+      <c r="CX21" s="14"/>
+      <c r="CY21" s="14"/>
+      <c r="CZ21" s="14"/>
+      <c r="DA21" s="14"/>
+      <c r="DB21" s="14"/>
+      <c r="DC21" s="14"/>
+      <c r="DD21" s="14"/>
+      <c r="DE21" s="14"/>
+      <c r="DF21" s="14"/>
+      <c r="DG21" s="14"/>
+      <c r="DH21" s="14"/>
+      <c r="DI21" s="14"/>
+      <c r="DJ21" s="14"/>
+      <c r="DK21" s="14"/>
+      <c r="DL21" s="14"/>
+      <c r="DM21" s="14"/>
+      <c r="DN21" s="14"/>
+      <c r="DO21" s="14"/>
+      <c r="DP21" s="14"/>
+      <c r="DQ21" s="14"/>
+      <c r="DR21" s="14"/>
+      <c r="DS21" s="14"/>
+      <c r="DT21" s="14"/>
+      <c r="DU21" s="14"/>
+      <c r="DV21" s="14"/>
+      <c r="DW21" s="14"/>
+      <c r="DX21" s="14"/>
+      <c r="DY21" s="14"/>
+      <c r="DZ21" s="14"/>
+      <c r="EA21" s="14"/>
+      <c r="EB21" s="14"/>
+      <c r="EC21" s="14"/>
+      <c r="ED21" s="14"/>
+      <c r="EE21" s="14"/>
+      <c r="EF21" s="14"/>
+      <c r="EG21" s="14"/>
+      <c r="EH21" s="14"/>
+      <c r="EI21" s="14"/>
+      <c r="EJ21" s="14"/>
+      <c r="EK21" s="14"/>
+      <c r="EL21" s="14"/>
+      <c r="EM21" s="14"/>
+      <c r="EN21" s="14"/>
+      <c r="EO21" s="14"/>
+      <c r="EP21" s="14"/>
+      <c r="EQ21" s="14"/>
+      <c r="ER21" s="14"/>
+      <c r="ES21" s="14"/>
+      <c r="ET21" s="14"/>
+      <c r="EU21" s="14"/>
+      <c r="EV21" s="14"/>
+      <c r="EW21" s="14"/>
+      <c r="EX21" s="14"/>
+      <c r="EY21" s="14"/>
+      <c r="EZ21" s="14"/>
+      <c r="FA21" s="14"/>
+      <c r="FB21" s="14"/>
+      <c r="FC21" s="14"/>
+      <c r="FD21" s="14"/>
+      <c r="FE21" s="14"/>
+      <c r="FF21" s="14"/>
+      <c r="FG21" s="14"/>
+      <c r="FH21" s="14"/>
+      <c r="FI21" s="14"/>
+      <c r="FJ21" s="14"/>
+      <c r="FK21" s="14"/>
+      <c r="FL21" s="14"/>
+      <c r="FM21" s="14"/>
+      <c r="FN21" s="14"/>
+      <c r="FO21" s="14"/>
+      <c r="FP21" s="14"/>
+      <c r="FQ21" s="14"/>
+      <c r="FR21" s="14"/>
+      <c r="FS21" s="14"/>
+      <c r="FT21" s="14"/>
+      <c r="FU21" s="14"/>
+      <c r="FV21" s="14"/>
+      <c r="FW21" s="14"/>
+      <c r="FX21" s="14"/>
+      <c r="FY21" s="14"/>
+      <c r="FZ21" s="14"/>
+      <c r="GA21" s="14"/>
+      <c r="GB21" s="14"/>
+      <c r="GC21" s="14"/>
+      <c r="GD21" s="14"/>
+      <c r="GE21" s="14"/>
+      <c r="GF21" s="14"/>
+      <c r="GG21" s="14"/>
+      <c r="GH21" s="14"/>
+      <c r="GI21" s="14"/>
+      <c r="GJ21" s="14"/>
+      <c r="GK21" s="14"/>
+      <c r="GL21" s="14"/>
+      <c r="GM21" s="14"/>
+      <c r="GN21" s="14"/>
+      <c r="GO21" s="14"/>
+      <c r="GP21" s="14"/>
+      <c r="GQ21" s="14"/>
+      <c r="GR21" s="14"/>
+      <c r="GS21" s="14"/>
+      <c r="GT21" s="14"/>
+      <c r="GU21" s="14"/>
+      <c r="GV21" s="14"/>
+      <c r="GW21" s="14"/>
+      <c r="GX21" s="14"/>
+      <c r="GY21" s="14"/>
+      <c r="GZ21" s="14"/>
+      <c r="HA21" s="14"/>
+      <c r="HB21" s="14"/>
+      <c r="HC21" s="14"/>
+      <c r="HD21" s="14"/>
+      <c r="HE21" s="14"/>
+      <c r="HF21" s="14"/>
+      <c r="HG21" s="14"/>
+      <c r="HH21" s="14"/>
+      <c r="HI21" s="14"/>
+      <c r="HJ21" s="14"/>
+      <c r="HK21" s="14"/>
+      <c r="HL21" s="14"/>
+      <c r="HM21" s="14"/>
+      <c r="HN21" s="14"/>
+      <c r="HO21" s="14"/>
+      <c r="HP21" s="14"/>
+      <c r="HQ21" s="14"/>
+      <c r="HR21" s="14"/>
+      <c r="HS21" s="14"/>
+      <c r="HT21" s="14"/>
+      <c r="HU21" s="14"/>
+      <c r="HV21" s="14"/>
+      <c r="HW21" s="14"/>
+      <c r="HX21" s="14"/>
+      <c r="HY21" s="14"/>
+      <c r="HZ21" s="14"/>
+      <c r="IA21" s="14"/>
+      <c r="IB21" s="14"/>
+      <c r="IC21" s="14"/>
+      <c r="ID21" s="14"/>
+      <c r="IE21" s="14"/>
+      <c r="IF21" s="14"/>
+      <c r="IG21" s="14"/>
+      <c r="IH21" s="14"/>
+      <c r="II21" s="14"/>
+      <c r="IJ21" s="14"/>
+      <c r="IK21" s="14"/>
+      <c r="IL21" s="14"/>
+      <c r="IM21" s="14"/>
+      <c r="IN21" s="14"/>
+      <c r="IO21" s="14"/>
+      <c r="IP21" s="14"/>
+      <c r="IQ21" s="14"/>
+      <c r="IR21" s="14"/>
+      <c r="IS21" s="14"/>
+      <c r="IT21" s="14"/>
+      <c r="IU21" s="14"/>
+      <c r="IV21" s="14"/>
+    </row>
+    <row r="22" spans="1:256" ht="13" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="14"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="14"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="14"/>
+      <c r="BB22" s="14"/>
+      <c r="BC22" s="14"/>
+      <c r="BD22" s="14"/>
+      <c r="BE22" s="14"/>
+      <c r="BF22" s="14"/>
+      <c r="BG22" s="14"/>
+      <c r="BH22" s="14"/>
+      <c r="BI22" s="14"/>
+      <c r="BJ22" s="14"/>
+      <c r="BK22" s="14"/>
+      <c r="BL22" s="14"/>
+      <c r="BM22" s="14"/>
+      <c r="BN22" s="14"/>
+      <c r="BO22" s="14"/>
+      <c r="BP22" s="14"/>
+      <c r="BQ22" s="14"/>
+      <c r="BR22" s="14"/>
+      <c r="BS22" s="14"/>
+      <c r="BT22" s="14"/>
+      <c r="BU22" s="14"/>
+      <c r="BV22" s="14"/>
+      <c r="BW22" s="14"/>
+      <c r="BX22" s="14"/>
+      <c r="BY22" s="14"/>
+      <c r="BZ22" s="14"/>
+      <c r="CA22" s="14"/>
+      <c r="CB22" s="14"/>
+      <c r="CC22" s="14"/>
+      <c r="CD22" s="14"/>
+      <c r="CE22" s="14"/>
+      <c r="CF22" s="14"/>
+      <c r="CG22" s="14"/>
+      <c r="CH22" s="14"/>
+      <c r="CI22" s="14"/>
+      <c r="CJ22" s="14"/>
+      <c r="CK22" s="14"/>
+      <c r="CL22" s="14"/>
+      <c r="CM22" s="14"/>
+      <c r="CN22" s="14"/>
+      <c r="CO22" s="14"/>
+      <c r="CP22" s="14"/>
+      <c r="CQ22" s="14"/>
+      <c r="CR22" s="14"/>
+      <c r="CS22" s="14"/>
+      <c r="CT22" s="14"/>
+      <c r="CU22" s="14"/>
+      <c r="CV22" s="14"/>
+      <c r="CW22" s="14"/>
+      <c r="CX22" s="14"/>
+      <c r="CY22" s="14"/>
+      <c r="CZ22" s="14"/>
+      <c r="DA22" s="14"/>
+      <c r="DB22" s="14"/>
+      <c r="DC22" s="14"/>
+      <c r="DD22" s="14"/>
+      <c r="DE22" s="14"/>
+      <c r="DF22" s="14"/>
+      <c r="DG22" s="14"/>
+      <c r="DH22" s="14"/>
+      <c r="DI22" s="14"/>
+      <c r="DJ22" s="14"/>
+      <c r="DK22" s="14"/>
+      <c r="DL22" s="14"/>
+      <c r="DM22" s="14"/>
+      <c r="DN22" s="14"/>
+      <c r="DO22" s="14"/>
+      <c r="DP22" s="14"/>
+      <c r="DQ22" s="14"/>
+      <c r="DR22" s="14"/>
+      <c r="DS22" s="14"/>
+      <c r="DT22" s="14"/>
+      <c r="DU22" s="14"/>
+      <c r="DV22" s="14"/>
+      <c r="DW22" s="14"/>
+      <c r="DX22" s="14"/>
+      <c r="DY22" s="14"/>
+      <c r="DZ22" s="14"/>
+      <c r="EA22" s="14"/>
+      <c r="EB22" s="14"/>
+      <c r="EC22" s="14"/>
+      <c r="ED22" s="14"/>
+      <c r="EE22" s="14"/>
+      <c r="EF22" s="14"/>
+      <c r="EG22" s="14"/>
+      <c r="EH22" s="14"/>
+      <c r="EI22" s="14"/>
+      <c r="EJ22" s="14"/>
+      <c r="EK22" s="14"/>
+      <c r="EL22" s="14"/>
+      <c r="EM22" s="14"/>
+      <c r="EN22" s="14"/>
+      <c r="EO22" s="14"/>
+      <c r="EP22" s="14"/>
+      <c r="EQ22" s="14"/>
+      <c r="ER22" s="14"/>
+      <c r="ES22" s="14"/>
+      <c r="ET22" s="14"/>
+      <c r="EU22" s="14"/>
+      <c r="EV22" s="14"/>
+      <c r="EW22" s="14"/>
+      <c r="EX22" s="14"/>
+      <c r="EY22" s="14"/>
+      <c r="EZ22" s="14"/>
+      <c r="FA22" s="14"/>
+      <c r="FB22" s="14"/>
+      <c r="FC22" s="14"/>
+      <c r="FD22" s="14"/>
+      <c r="FE22" s="14"/>
+      <c r="FF22" s="14"/>
+      <c r="FG22" s="14"/>
+      <c r="FH22" s="14"/>
+      <c r="FI22" s="14"/>
+      <c r="FJ22" s="14"/>
+      <c r="FK22" s="14"/>
+      <c r="FL22" s="14"/>
+      <c r="FM22" s="14"/>
+      <c r="FN22" s="14"/>
+      <c r="FO22" s="14"/>
+      <c r="FP22" s="14"/>
+      <c r="FQ22" s="14"/>
+      <c r="FR22" s="14"/>
+      <c r="FS22" s="14"/>
+      <c r="FT22" s="14"/>
+      <c r="FU22" s="14"/>
+      <c r="FV22" s="14"/>
+      <c r="FW22" s="14"/>
+      <c r="FX22" s="14"/>
+      <c r="FY22" s="14"/>
+      <c r="FZ22" s="14"/>
+      <c r="GA22" s="14"/>
+      <c r="GB22" s="14"/>
+      <c r="GC22" s="14"/>
+      <c r="GD22" s="14"/>
+      <c r="GE22" s="14"/>
+      <c r="GF22" s="14"/>
+      <c r="GG22" s="14"/>
+      <c r="GH22" s="14"/>
+      <c r="GI22" s="14"/>
+      <c r="GJ22" s="14"/>
+      <c r="GK22" s="14"/>
+      <c r="GL22" s="14"/>
+      <c r="GM22" s="14"/>
+      <c r="GN22" s="14"/>
+      <c r="GO22" s="14"/>
+      <c r="GP22" s="14"/>
+      <c r="GQ22" s="14"/>
+      <c r="GR22" s="14"/>
+      <c r="GS22" s="14"/>
+      <c r="GT22" s="14"/>
+      <c r="GU22" s="14"/>
+      <c r="GV22" s="14"/>
+      <c r="GW22" s="14"/>
+      <c r="GX22" s="14"/>
+      <c r="GY22" s="14"/>
+      <c r="GZ22" s="14"/>
+      <c r="HA22" s="14"/>
+      <c r="HB22" s="14"/>
+      <c r="HC22" s="14"/>
+      <c r="HD22" s="14"/>
+      <c r="HE22" s="14"/>
+      <c r="HF22" s="14"/>
+      <c r="HG22" s="14"/>
+      <c r="HH22" s="14"/>
+      <c r="HI22" s="14"/>
+      <c r="HJ22" s="14"/>
+      <c r="HK22" s="14"/>
+      <c r="HL22" s="14"/>
+      <c r="HM22" s="14"/>
+      <c r="HN22" s="14"/>
+      <c r="HO22" s="14"/>
+      <c r="HP22" s="14"/>
+      <c r="HQ22" s="14"/>
+      <c r="HR22" s="14"/>
+      <c r="HS22" s="14"/>
+      <c r="HT22" s="14"/>
+      <c r="HU22" s="14"/>
+      <c r="HV22" s="14"/>
+      <c r="HW22" s="14"/>
+      <c r="HX22" s="14"/>
+      <c r="HY22" s="14"/>
+      <c r="HZ22" s="14"/>
+      <c r="IA22" s="14"/>
+      <c r="IB22" s="14"/>
+      <c r="IC22" s="14"/>
+      <c r="ID22" s="14"/>
+      <c r="IE22" s="14"/>
+      <c r="IF22" s="14"/>
+      <c r="IG22" s="14"/>
+      <c r="IH22" s="14"/>
+      <c r="II22" s="14"/>
+      <c r="IJ22" s="14"/>
+      <c r="IK22" s="14"/>
+      <c r="IL22" s="14"/>
+      <c r="IM22" s="14"/>
+      <c r="IN22" s="14"/>
+      <c r="IO22" s="14"/>
+      <c r="IP22" s="14"/>
+      <c r="IQ22" s="14"/>
+      <c r="IR22" s="14"/>
+      <c r="IS22" s="14"/>
+      <c r="IT22" s="14"/>
+      <c r="IU22" s="14"/>
+      <c r="IV22" s="14"/>
+    </row>
+    <row r="23" spans="1:256" ht="13" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23" s="14"/>
+      <c r="BA23" s="14"/>
+      <c r="BB23" s="14"/>
+      <c r="BC23" s="14"/>
+      <c r="BD23" s="14"/>
+      <c r="BE23" s="14"/>
+      <c r="BF23" s="14"/>
+      <c r="BG23" s="14"/>
+      <c r="BH23" s="14"/>
+      <c r="BI23" s="14"/>
+      <c r="BJ23" s="14"/>
+      <c r="BK23" s="14"/>
+      <c r="BL23" s="14"/>
+      <c r="BM23" s="14"/>
+      <c r="BN23" s="14"/>
+      <c r="BO23" s="14"/>
+      <c r="BP23" s="14"/>
+      <c r="BQ23" s="14"/>
+      <c r="BR23" s="14"/>
+      <c r="BS23" s="14"/>
+      <c r="BT23" s="14"/>
+      <c r="BU23" s="14"/>
+      <c r="BV23" s="14"/>
+      <c r="BW23" s="14"/>
+      <c r="BX23" s="14"/>
+      <c r="BY23" s="14"/>
+      <c r="BZ23" s="14"/>
+      <c r="CA23" s="14"/>
+      <c r="CB23" s="14"/>
+      <c r="CC23" s="14"/>
+      <c r="CD23" s="14"/>
+      <c r="CE23" s="14"/>
+      <c r="CF23" s="14"/>
+      <c r="CG23" s="14"/>
+      <c r="CH23" s="14"/>
+      <c r="CI23" s="14"/>
+      <c r="CJ23" s="14"/>
+      <c r="CK23" s="14"/>
+      <c r="CL23" s="14"/>
+      <c r="CM23" s="14"/>
+      <c r="CN23" s="14"/>
+      <c r="CO23" s="14"/>
+      <c r="CP23" s="14"/>
+      <c r="CQ23" s="14"/>
+      <c r="CR23" s="14"/>
+      <c r="CS23" s="14"/>
+      <c r="CT23" s="14"/>
+      <c r="CU23" s="14"/>
+      <c r="CV23" s="14"/>
+      <c r="CW23" s="14"/>
+      <c r="CX23" s="14"/>
+      <c r="CY23" s="14"/>
+      <c r="CZ23" s="14"/>
+      <c r="DA23" s="14"/>
+      <c r="DB23" s="14"/>
+      <c r="DC23" s="14"/>
+      <c r="DD23" s="14"/>
+      <c r="DE23" s="14"/>
+      <c r="DF23" s="14"/>
+      <c r="DG23" s="14"/>
+      <c r="DH23" s="14"/>
+      <c r="DI23" s="14"/>
+      <c r="DJ23" s="14"/>
+      <c r="DK23" s="14"/>
+      <c r="DL23" s="14"/>
+      <c r="DM23" s="14"/>
+      <c r="DN23" s="14"/>
+      <c r="DO23" s="14"/>
+      <c r="DP23" s="14"/>
+      <c r="DQ23" s="14"/>
+      <c r="DR23" s="14"/>
+      <c r="DS23" s="14"/>
+      <c r="DT23" s="14"/>
+      <c r="DU23" s="14"/>
+      <c r="DV23" s="14"/>
+      <c r="DW23" s="14"/>
+      <c r="DX23" s="14"/>
+      <c r="DY23" s="14"/>
+      <c r="DZ23" s="14"/>
+      <c r="EA23" s="14"/>
+      <c r="EB23" s="14"/>
+      <c r="EC23" s="14"/>
+      <c r="ED23" s="14"/>
+      <c r="EE23" s="14"/>
+      <c r="EF23" s="14"/>
+      <c r="EG23" s="14"/>
+      <c r="EH23" s="14"/>
+      <c r="EI23" s="14"/>
+      <c r="EJ23" s="14"/>
+      <c r="EK23" s="14"/>
+      <c r="EL23" s="14"/>
+      <c r="EM23" s="14"/>
+      <c r="EN23" s="14"/>
+      <c r="EO23" s="14"/>
+      <c r="EP23" s="14"/>
+      <c r="EQ23" s="14"/>
+      <c r="ER23" s="14"/>
+      <c r="ES23" s="14"/>
+      <c r="ET23" s="14"/>
+      <c r="EU23" s="14"/>
+      <c r="EV23" s="14"/>
+      <c r="EW23" s="14"/>
+      <c r="EX23" s="14"/>
+      <c r="EY23" s="14"/>
+      <c r="EZ23" s="14"/>
+      <c r="FA23" s="14"/>
+      <c r="FB23" s="14"/>
+      <c r="FC23" s="14"/>
+      <c r="FD23" s="14"/>
+      <c r="FE23" s="14"/>
+      <c r="FF23" s="14"/>
+      <c r="FG23" s="14"/>
+      <c r="FH23" s="14"/>
+      <c r="FI23" s="14"/>
+      <c r="FJ23" s="14"/>
+      <c r="FK23" s="14"/>
+      <c r="FL23" s="14"/>
+      <c r="FM23" s="14"/>
+      <c r="FN23" s="14"/>
+      <c r="FO23" s="14"/>
+      <c r="FP23" s="14"/>
+      <c r="FQ23" s="14"/>
+      <c r="FR23" s="14"/>
+      <c r="FS23" s="14"/>
+      <c r="FT23" s="14"/>
+      <c r="FU23" s="14"/>
+      <c r="FV23" s="14"/>
+      <c r="FW23" s="14"/>
+      <c r="FX23" s="14"/>
+      <c r="FY23" s="14"/>
+      <c r="FZ23" s="14"/>
+      <c r="GA23" s="14"/>
+      <c r="GB23" s="14"/>
+      <c r="GC23" s="14"/>
+      <c r="GD23" s="14"/>
+      <c r="GE23" s="14"/>
+      <c r="GF23" s="14"/>
+      <c r="GG23" s="14"/>
+      <c r="GH23" s="14"/>
+      <c r="GI23" s="14"/>
+      <c r="GJ23" s="14"/>
+      <c r="GK23" s="14"/>
+      <c r="GL23" s="14"/>
+      <c r="GM23" s="14"/>
+      <c r="GN23" s="14"/>
+      <c r="GO23" s="14"/>
+      <c r="GP23" s="14"/>
+      <c r="GQ23" s="14"/>
+      <c r="GR23" s="14"/>
+      <c r="GS23" s="14"/>
+      <c r="GT23" s="14"/>
+      <c r="GU23" s="14"/>
+      <c r="GV23" s="14"/>
+      <c r="GW23" s="14"/>
+      <c r="GX23" s="14"/>
+      <c r="GY23" s="14"/>
+      <c r="GZ23" s="14"/>
+      <c r="HA23" s="14"/>
+      <c r="HB23" s="14"/>
+      <c r="HC23" s="14"/>
+      <c r="HD23" s="14"/>
+      <c r="HE23" s="14"/>
+      <c r="HF23" s="14"/>
+      <c r="HG23" s="14"/>
+      <c r="HH23" s="14"/>
+      <c r="HI23" s="14"/>
+      <c r="HJ23" s="14"/>
+      <c r="HK23" s="14"/>
+      <c r="HL23" s="14"/>
+      <c r="HM23" s="14"/>
+      <c r="HN23" s="14"/>
+      <c r="HO23" s="14"/>
+      <c r="HP23" s="14"/>
+      <c r="HQ23" s="14"/>
+      <c r="HR23" s="14"/>
+      <c r="HS23" s="14"/>
+      <c r="HT23" s="14"/>
+      <c r="HU23" s="14"/>
+      <c r="HV23" s="14"/>
+      <c r="HW23" s="14"/>
+      <c r="HX23" s="14"/>
+      <c r="HY23" s="14"/>
+      <c r="HZ23" s="14"/>
+      <c r="IA23" s="14"/>
+      <c r="IB23" s="14"/>
+      <c r="IC23" s="14"/>
+      <c r="ID23" s="14"/>
+      <c r="IE23" s="14"/>
+      <c r="IF23" s="14"/>
+      <c r="IG23" s="14"/>
+      <c r="IH23" s="14"/>
+      <c r="II23" s="14"/>
+      <c r="IJ23" s="14"/>
+      <c r="IK23" s="14"/>
+      <c r="IL23" s="14"/>
+      <c r="IM23" s="14"/>
+      <c r="IN23" s="14"/>
+      <c r="IO23" s="14"/>
+      <c r="IP23" s="14"/>
+      <c r="IQ23" s="14"/>
+      <c r="IR23" s="14"/>
+      <c r="IS23" s="14"/>
+      <c r="IT23" s="14"/>
+      <c r="IU23" s="14"/>
+      <c r="IV23" s="14"/>
+    </row>
+    <row r="24" spans="1:256" ht="13" customHeight="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="14"/>
+      <c r="BB24" s="14"/>
+      <c r="BC24" s="14"/>
+      <c r="BD24" s="14"/>
+      <c r="BE24" s="14"/>
+      <c r="BF24" s="14"/>
+      <c r="BG24" s="14"/>
+      <c r="BH24" s="14"/>
+      <c r="BI24" s="14"/>
+      <c r="BJ24" s="14"/>
+      <c r="BK24" s="14"/>
+      <c r="BL24" s="14"/>
+      <c r="BM24" s="14"/>
+      <c r="BN24" s="14"/>
+      <c r="BO24" s="14"/>
+      <c r="BP24" s="14"/>
+      <c r="BQ24" s="14"/>
+      <c r="BR24" s="14"/>
+      <c r="BS24" s="14"/>
+      <c r="BT24" s="14"/>
+      <c r="BU24" s="14"/>
+      <c r="BV24" s="14"/>
+      <c r="BW24" s="14"/>
+      <c r="BX24" s="14"/>
+      <c r="BY24" s="14"/>
+      <c r="BZ24" s="14"/>
+      <c r="CA24" s="14"/>
+      <c r="CB24" s="14"/>
+      <c r="CC24" s="14"/>
+      <c r="CD24" s="14"/>
+      <c r="CE24" s="14"/>
+      <c r="CF24" s="14"/>
+      <c r="CG24" s="14"/>
+      <c r="CH24" s="14"/>
+      <c r="CI24" s="14"/>
+      <c r="CJ24" s="14"/>
+      <c r="CK24" s="14"/>
+      <c r="CL24" s="14"/>
+      <c r="CM24" s="14"/>
+      <c r="CN24" s="14"/>
+      <c r="CO24" s="14"/>
+      <c r="CP24" s="14"/>
+      <c r="CQ24" s="14"/>
+      <c r="CR24" s="14"/>
+      <c r="CS24" s="14"/>
+      <c r="CT24" s="14"/>
+      <c r="CU24" s="14"/>
+      <c r="CV24" s="14"/>
+      <c r="CW24" s="14"/>
+      <c r="CX24" s="14"/>
+      <c r="CY24" s="14"/>
+      <c r="CZ24" s="14"/>
+      <c r="DA24" s="14"/>
+      <c r="DB24" s="14"/>
+      <c r="DC24" s="14"/>
+      <c r="DD24" s="14"/>
+      <c r="DE24" s="14"/>
+      <c r="DF24" s="14"/>
+      <c r="DG24" s="14"/>
+      <c r="DH24" s="14"/>
+      <c r="DI24" s="14"/>
+      <c r="DJ24" s="14"/>
+      <c r="DK24" s="14"/>
+      <c r="DL24" s="14"/>
+      <c r="DM24" s="14"/>
+      <c r="DN24" s="14"/>
+      <c r="DO24" s="14"/>
+      <c r="DP24" s="14"/>
+      <c r="DQ24" s="14"/>
+      <c r="DR24" s="14"/>
+      <c r="DS24" s="14"/>
+      <c r="DT24" s="14"/>
+      <c r="DU24" s="14"/>
+      <c r="DV24" s="14"/>
+      <c r="DW24" s="14"/>
+      <c r="DX24" s="14"/>
+      <c r="DY24" s="14"/>
+      <c r="DZ24" s="14"/>
+      <c r="EA24" s="14"/>
+      <c r="EB24" s="14"/>
+      <c r="EC24" s="14"/>
+      <c r="ED24" s="14"/>
+      <c r="EE24" s="14"/>
+      <c r="EF24" s="14"/>
+      <c r="EG24" s="14"/>
+      <c r="EH24" s="14"/>
+      <c r="EI24" s="14"/>
+      <c r="EJ24" s="14"/>
+      <c r="EK24" s="14"/>
+      <c r="EL24" s="14"/>
+      <c r="EM24" s="14"/>
+      <c r="EN24" s="14"/>
+      <c r="EO24" s="14"/>
+      <c r="EP24" s="14"/>
+      <c r="EQ24" s="14"/>
+      <c r="ER24" s="14"/>
+      <c r="ES24" s="14"/>
+      <c r="ET24" s="14"/>
+      <c r="EU24" s="14"/>
+      <c r="EV24" s="14"/>
+      <c r="EW24" s="14"/>
+      <c r="EX24" s="14"/>
+      <c r="EY24" s="14"/>
+      <c r="EZ24" s="14"/>
+      <c r="FA24" s="14"/>
+      <c r="FB24" s="14"/>
+      <c r="FC24" s="14"/>
+      <c r="FD24" s="14"/>
+      <c r="FE24" s="14"/>
+      <c r="FF24" s="14"/>
+      <c r="FG24" s="14"/>
+      <c r="FH24" s="14"/>
+      <c r="FI24" s="14"/>
+      <c r="FJ24" s="14"/>
+      <c r="FK24" s="14"/>
+      <c r="FL24" s="14"/>
+      <c r="FM24" s="14"/>
+      <c r="FN24" s="14"/>
+      <c r="FO24" s="14"/>
+      <c r="FP24" s="14"/>
+      <c r="FQ24" s="14"/>
+      <c r="FR24" s="14"/>
+      <c r="FS24" s="14"/>
+      <c r="FT24" s="14"/>
+      <c r="FU24" s="14"/>
+      <c r="FV24" s="14"/>
+      <c r="FW24" s="14"/>
+      <c r="FX24" s="14"/>
+      <c r="FY24" s="14"/>
+      <c r="FZ24" s="14"/>
+      <c r="GA24" s="14"/>
+      <c r="GB24" s="14"/>
+      <c r="GC24" s="14"/>
+      <c r="GD24" s="14"/>
+      <c r="GE24" s="14"/>
+      <c r="GF24" s="14"/>
+      <c r="GG24" s="14"/>
+      <c r="GH24" s="14"/>
+      <c r="GI24" s="14"/>
+      <c r="GJ24" s="14"/>
+      <c r="GK24" s="14"/>
+      <c r="GL24" s="14"/>
+      <c r="GM24" s="14"/>
+      <c r="GN24" s="14"/>
+      <c r="GO24" s="14"/>
+      <c r="GP24" s="14"/>
+      <c r="GQ24" s="14"/>
+      <c r="GR24" s="14"/>
+      <c r="GS24" s="14"/>
+      <c r="GT24" s="14"/>
+      <c r="GU24" s="14"/>
+      <c r="GV24" s="14"/>
+      <c r="GW24" s="14"/>
+      <c r="GX24" s="14"/>
+      <c r="GY24" s="14"/>
+      <c r="GZ24" s="14"/>
+      <c r="HA24" s="14"/>
+      <c r="HB24" s="14"/>
+      <c r="HC24" s="14"/>
+      <c r="HD24" s="14"/>
+      <c r="HE24" s="14"/>
+      <c r="HF24" s="14"/>
+      <c r="HG24" s="14"/>
+      <c r="HH24" s="14"/>
+      <c r="HI24" s="14"/>
+      <c r="HJ24" s="14"/>
+      <c r="HK24" s="14"/>
+      <c r="HL24" s="14"/>
+      <c r="HM24" s="14"/>
+      <c r="HN24" s="14"/>
+      <c r="HO24" s="14"/>
+      <c r="HP24" s="14"/>
+      <c r="HQ24" s="14"/>
+      <c r="HR24" s="14"/>
+      <c r="HS24" s="14"/>
+      <c r="HT24" s="14"/>
+      <c r="HU24" s="14"/>
+      <c r="HV24" s="14"/>
+      <c r="HW24" s="14"/>
+      <c r="HX24" s="14"/>
+      <c r="HY24" s="14"/>
+      <c r="HZ24" s="14"/>
+      <c r="IA24" s="14"/>
+      <c r="IB24" s="14"/>
+      <c r="IC24" s="14"/>
+      <c r="ID24" s="14"/>
+      <c r="IE24" s="14"/>
+      <c r="IF24" s="14"/>
+      <c r="IG24" s="14"/>
+      <c r="IH24" s="14"/>
+      <c r="II24" s="14"/>
+      <c r="IJ24" s="14"/>
+      <c r="IK24" s="14"/>
+      <c r="IL24" s="14"/>
+      <c r="IM24" s="14"/>
+      <c r="IN24" s="14"/>
+      <c r="IO24" s="14"/>
+      <c r="IP24" s="14"/>
+      <c r="IQ24" s="14"/>
+      <c r="IR24" s="14"/>
+      <c r="IS24" s="14"/>
+      <c r="IT24" s="14"/>
+      <c r="IU24" s="14"/>
+      <c r="IV24" s="14"/>
+    </row>
+    <row r="25" spans="1:256" ht="13" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="14"/>
+      <c r="BB25" s="14"/>
+      <c r="BC25" s="14"/>
+      <c r="BD25" s="14"/>
+      <c r="BE25" s="14"/>
+      <c r="BF25" s="14"/>
+      <c r="BG25" s="14"/>
+      <c r="BH25" s="14"/>
+      <c r="BI25" s="14"/>
+      <c r="BJ25" s="14"/>
+      <c r="BK25" s="14"/>
+      <c r="BL25" s="14"/>
+      <c r="BM25" s="14"/>
+      <c r="BN25" s="14"/>
+      <c r="BO25" s="14"/>
+      <c r="BP25" s="14"/>
+      <c r="BQ25" s="14"/>
+      <c r="BR25" s="14"/>
+      <c r="BS25" s="14"/>
+      <c r="BT25" s="14"/>
+      <c r="BU25" s="14"/>
+      <c r="BV25" s="14"/>
+      <c r="BW25" s="14"/>
+      <c r="BX25" s="14"/>
+      <c r="BY25" s="14"/>
+      <c r="BZ25" s="14"/>
+      <c r="CA25" s="14"/>
+      <c r="CB25" s="14"/>
+      <c r="CC25" s="14"/>
+      <c r="CD25" s="14"/>
+      <c r="CE25" s="14"/>
+      <c r="CF25" s="14"/>
+      <c r="CG25" s="14"/>
+      <c r="CH25" s="14"/>
+      <c r="CI25" s="14"/>
+      <c r="CJ25" s="14"/>
+      <c r="CK25" s="14"/>
+      <c r="CL25" s="14"/>
+      <c r="CM25" s="14"/>
+      <c r="CN25" s="14"/>
+      <c r="CO25" s="14"/>
+      <c r="CP25" s="14"/>
+      <c r="CQ25" s="14"/>
+      <c r="CR25" s="14"/>
+      <c r="CS25" s="14"/>
+      <c r="CT25" s="14"/>
+      <c r="CU25" s="14"/>
+      <c r="CV25" s="14"/>
+      <c r="CW25" s="14"/>
+      <c r="CX25" s="14"/>
+      <c r="CY25" s="14"/>
+      <c r="CZ25" s="14"/>
+      <c r="DA25" s="14"/>
+      <c r="DB25" s="14"/>
+      <c r="DC25" s="14"/>
+      <c r="DD25" s="14"/>
+      <c r="DE25" s="14"/>
+      <c r="DF25" s="14"/>
+      <c r="DG25" s="14"/>
+      <c r="DH25" s="14"/>
+      <c r="DI25" s="14"/>
+      <c r="DJ25" s="14"/>
+      <c r="DK25" s="14"/>
+      <c r="DL25" s="14"/>
+      <c r="DM25" s="14"/>
+      <c r="DN25" s="14"/>
+      <c r="DO25" s="14"/>
+      <c r="DP25" s="14"/>
+      <c r="DQ25" s="14"/>
+      <c r="DR25" s="14"/>
+      <c r="DS25" s="14"/>
+      <c r="DT25" s="14"/>
+      <c r="DU25" s="14"/>
+      <c r="DV25" s="14"/>
+      <c r="DW25" s="14"/>
+      <c r="DX25" s="14"/>
+      <c r="DY25" s="14"/>
+      <c r="DZ25" s="14"/>
+      <c r="EA25" s="14"/>
+      <c r="EB25" s="14"/>
+      <c r="EC25" s="14"/>
+      <c r="ED25" s="14"/>
+      <c r="EE25" s="14"/>
+      <c r="EF25" s="14"/>
+      <c r="EG25" s="14"/>
+      <c r="EH25" s="14"/>
+      <c r="EI25" s="14"/>
+      <c r="EJ25" s="14"/>
+      <c r="EK25" s="14"/>
+      <c r="EL25" s="14"/>
+      <c r="EM25" s="14"/>
+      <c r="EN25" s="14"/>
+      <c r="EO25" s="14"/>
+      <c r="EP25" s="14"/>
+      <c r="EQ25" s="14"/>
+      <c r="ER25" s="14"/>
+      <c r="ES25" s="14"/>
+      <c r="ET25" s="14"/>
+      <c r="EU25" s="14"/>
+      <c r="EV25" s="14"/>
+      <c r="EW25" s="14"/>
+      <c r="EX25" s="14"/>
+      <c r="EY25" s="14"/>
+      <c r="EZ25" s="14"/>
+      <c r="FA25" s="14"/>
+      <c r="FB25" s="14"/>
+      <c r="FC25" s="14"/>
+      <c r="FD25" s="14"/>
+      <c r="FE25" s="14"/>
+      <c r="FF25" s="14"/>
+      <c r="FG25" s="14"/>
+      <c r="FH25" s="14"/>
+      <c r="FI25" s="14"/>
+      <c r="FJ25" s="14"/>
+      <c r="FK25" s="14"/>
+      <c r="FL25" s="14"/>
+      <c r="FM25" s="14"/>
+      <c r="FN25" s="14"/>
+      <c r="FO25" s="14"/>
+      <c r="FP25" s="14"/>
+      <c r="FQ25" s="14"/>
+      <c r="FR25" s="14"/>
+      <c r="FS25" s="14"/>
+      <c r="FT25" s="14"/>
+      <c r="FU25" s="14"/>
+      <c r="FV25" s="14"/>
+      <c r="FW25" s="14"/>
+      <c r="FX25" s="14"/>
+      <c r="FY25" s="14"/>
+      <c r="FZ25" s="14"/>
+      <c r="GA25" s="14"/>
+      <c r="GB25" s="14"/>
+      <c r="GC25" s="14"/>
+      <c r="GD25" s="14"/>
+      <c r="GE25" s="14"/>
+      <c r="GF25" s="14"/>
+      <c r="GG25" s="14"/>
+      <c r="GH25" s="14"/>
+      <c r="GI25" s="14"/>
+      <c r="GJ25" s="14"/>
+      <c r="GK25" s="14"/>
+      <c r="GL25" s="14"/>
+      <c r="GM25" s="14"/>
+      <c r="GN25" s="14"/>
+      <c r="GO25" s="14"/>
+      <c r="GP25" s="14"/>
+      <c r="GQ25" s="14"/>
+      <c r="GR25" s="14"/>
+      <c r="GS25" s="14"/>
+      <c r="GT25" s="14"/>
+      <c r="GU25" s="14"/>
+      <c r="GV25" s="14"/>
+      <c r="GW25" s="14"/>
+      <c r="GX25" s="14"/>
+      <c r="GY25" s="14"/>
+      <c r="GZ25" s="14"/>
+      <c r="HA25" s="14"/>
+      <c r="HB25" s="14"/>
+      <c r="HC25" s="14"/>
+      <c r="HD25" s="14"/>
+      <c r="HE25" s="14"/>
+      <c r="HF25" s="14"/>
+      <c r="HG25" s="14"/>
+      <c r="HH25" s="14"/>
+      <c r="HI25" s="14"/>
+      <c r="HJ25" s="14"/>
+      <c r="HK25" s="14"/>
+      <c r="HL25" s="14"/>
+      <c r="HM25" s="14"/>
+      <c r="HN25" s="14"/>
+      <c r="HO25" s="14"/>
+      <c r="HP25" s="14"/>
+      <c r="HQ25" s="14"/>
+      <c r="HR25" s="14"/>
+      <c r="HS25" s="14"/>
+      <c r="HT25" s="14"/>
+      <c r="HU25" s="14"/>
+      <c r="HV25" s="14"/>
+      <c r="HW25" s="14"/>
+      <c r="HX25" s="14"/>
+      <c r="HY25" s="14"/>
+      <c r="HZ25" s="14"/>
+      <c r="IA25" s="14"/>
+      <c r="IB25" s="14"/>
+      <c r="IC25" s="14"/>
+      <c r="ID25" s="14"/>
+      <c r="IE25" s="14"/>
+      <c r="IF25" s="14"/>
+      <c r="IG25" s="14"/>
+      <c r="IH25" s="14"/>
+      <c r="II25" s="14"/>
+      <c r="IJ25" s="14"/>
+      <c r="IK25" s="14"/>
+      <c r="IL25" s="14"/>
+      <c r="IM25" s="14"/>
+      <c r="IN25" s="14"/>
+      <c r="IO25" s="14"/>
+      <c r="IP25" s="14"/>
+      <c r="IQ25" s="14"/>
+      <c r="IR25" s="14"/>
+      <c r="IS25" s="14"/>
+      <c r="IT25" s="14"/>
+      <c r="IU25" s="14"/>
+      <c r="IV25" s="14"/>
+    </row>
+    <row r="26" spans="1:256" ht="13" customHeight="1">
+      <c r="A26" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+    </row>
+    <row r="27" spans="1:256" ht="13" customHeight="1">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:256" ht="13" customHeight="1">
+      <c r="A28" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
+    </row>
+    <row r="29" spans="1:256" ht="13" customHeight="1">
+      <c r="A29" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:256" ht="13" customHeight="1">
+      <c r="A30" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:256" ht="13" customHeight="1">
+      <c r="A31" s="52"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
+    </row>
+    <row r="32" spans="1:256" ht="13" customHeight="1">
+      <c r="A32" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="57"/>
+    </row>
+    <row r="33" spans="1:256" ht="13" customHeight="1">
+      <c r="A33" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:256" ht="13" customHeight="1">
+      <c r="A34" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:256" ht="13" customHeight="1">
+      <c r="A35" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="14"/>
+      <c r="AO35" s="14"/>
+      <c r="AP35" s="14"/>
+      <c r="AQ35" s="14"/>
+      <c r="AR35" s="14"/>
+      <c r="AS35" s="14"/>
+      <c r="AT35" s="14"/>
+      <c r="AU35" s="14"/>
+      <c r="AV35" s="14"/>
+      <c r="AW35" s="14"/>
+      <c r="AX35" s="14"/>
+      <c r="AY35" s="14"/>
+      <c r="AZ35" s="14"/>
+      <c r="BA35" s="14"/>
+      <c r="BB35" s="14"/>
+      <c r="BC35" s="14"/>
+      <c r="BD35" s="14"/>
+      <c r="BE35" s="14"/>
+      <c r="BF35" s="14"/>
+      <c r="BG35" s="14"/>
+      <c r="BH35" s="14"/>
+      <c r="BI35" s="14"/>
+      <c r="BJ35" s="14"/>
+      <c r="BK35" s="14"/>
+      <c r="BL35" s="14"/>
+      <c r="BM35" s="14"/>
+      <c r="BN35" s="14"/>
+      <c r="BO35" s="14"/>
+      <c r="BP35" s="14"/>
+      <c r="BQ35" s="14"/>
+      <c r="BR35" s="14"/>
+      <c r="BS35" s="14"/>
+      <c r="BT35" s="14"/>
+      <c r="BU35" s="14"/>
+      <c r="BV35" s="14"/>
+      <c r="BW35" s="14"/>
+      <c r="BX35" s="14"/>
+      <c r="BY35" s="14"/>
+      <c r="BZ35" s="14"/>
+      <c r="CA35" s="14"/>
+      <c r="CB35" s="14"/>
+      <c r="CC35" s="14"/>
+      <c r="CD35" s="14"/>
+      <c r="CE35" s="14"/>
+      <c r="CF35" s="14"/>
+      <c r="CG35" s="14"/>
+      <c r="CH35" s="14"/>
+      <c r="CI35" s="14"/>
+      <c r="CJ35" s="14"/>
+      <c r="CK35" s="14"/>
+      <c r="CL35" s="14"/>
+      <c r="CM35" s="14"/>
+      <c r="CN35" s="14"/>
+      <c r="CO35" s="14"/>
+      <c r="CP35" s="14"/>
+      <c r="CQ35" s="14"/>
+      <c r="CR35" s="14"/>
+      <c r="CS35" s="14"/>
+      <c r="CT35" s="14"/>
+      <c r="CU35" s="14"/>
+      <c r="CV35" s="14"/>
+      <c r="CW35" s="14"/>
+      <c r="CX35" s="14"/>
+      <c r="CY35" s="14"/>
+      <c r="CZ35" s="14"/>
+      <c r="DA35" s="14"/>
+      <c r="DB35" s="14"/>
+      <c r="DC35" s="14"/>
+      <c r="DD35" s="14"/>
+      <c r="DE35" s="14"/>
+      <c r="DF35" s="14"/>
+      <c r="DG35" s="14"/>
+      <c r="DH35" s="14"/>
+      <c r="DI35" s="14"/>
+      <c r="DJ35" s="14"/>
+      <c r="DK35" s="14"/>
+      <c r="DL35" s="14"/>
+      <c r="DM35" s="14"/>
+      <c r="DN35" s="14"/>
+      <c r="DO35" s="14"/>
+      <c r="DP35" s="14"/>
+      <c r="DQ35" s="14"/>
+      <c r="DR35" s="14"/>
+      <c r="DS35" s="14"/>
+      <c r="DT35" s="14"/>
+      <c r="DU35" s="14"/>
+      <c r="DV35" s="14"/>
+      <c r="DW35" s="14"/>
+      <c r="DX35" s="14"/>
+      <c r="DY35" s="14"/>
+      <c r="DZ35" s="14"/>
+      <c r="EA35" s="14"/>
+      <c r="EB35" s="14"/>
+      <c r="EC35" s="14"/>
+      <c r="ED35" s="14"/>
+      <c r="EE35" s="14"/>
+      <c r="EF35" s="14"/>
+      <c r="EG35" s="14"/>
+      <c r="EH35" s="14"/>
+      <c r="EI35" s="14"/>
+      <c r="EJ35" s="14"/>
+      <c r="EK35" s="14"/>
+      <c r="EL35" s="14"/>
+      <c r="EM35" s="14"/>
+      <c r="EN35" s="14"/>
+      <c r="EO35" s="14"/>
+      <c r="EP35" s="14"/>
+      <c r="EQ35" s="14"/>
+      <c r="ER35" s="14"/>
+      <c r="ES35" s="14"/>
+      <c r="ET35" s="14"/>
+      <c r="EU35" s="14"/>
+      <c r="EV35" s="14"/>
+      <c r="EW35" s="14"/>
+      <c r="EX35" s="14"/>
+      <c r="EY35" s="14"/>
+      <c r="EZ35" s="14"/>
+      <c r="FA35" s="14"/>
+      <c r="FB35" s="14"/>
+      <c r="FC35" s="14"/>
+      <c r="FD35" s="14"/>
+      <c r="FE35" s="14"/>
+      <c r="FF35" s="14"/>
+      <c r="FG35" s="14"/>
+      <c r="FH35" s="14"/>
+      <c r="FI35" s="14"/>
+      <c r="FJ35" s="14"/>
+      <c r="FK35" s="14"/>
+      <c r="FL35" s="14"/>
+      <c r="FM35" s="14"/>
+      <c r="FN35" s="14"/>
+      <c r="FO35" s="14"/>
+      <c r="FP35" s="14"/>
+      <c r="FQ35" s="14"/>
+      <c r="FR35" s="14"/>
+      <c r="FS35" s="14"/>
+      <c r="FT35" s="14"/>
+      <c r="FU35" s="14"/>
+      <c r="FV35" s="14"/>
+      <c r="FW35" s="14"/>
+      <c r="FX35" s="14"/>
+      <c r="FY35" s="14"/>
+      <c r="FZ35" s="14"/>
+      <c r="GA35" s="14"/>
+      <c r="GB35" s="14"/>
+      <c r="GC35" s="14"/>
+      <c r="GD35" s="14"/>
+      <c r="GE35" s="14"/>
+      <c r="GF35" s="14"/>
+      <c r="GG35" s="14"/>
+      <c r="GH35" s="14"/>
+      <c r="GI35" s="14"/>
+      <c r="GJ35" s="14"/>
+      <c r="GK35" s="14"/>
+      <c r="GL35" s="14"/>
+      <c r="GM35" s="14"/>
+      <c r="GN35" s="14"/>
+      <c r="GO35" s="14"/>
+      <c r="GP35" s="14"/>
+      <c r="GQ35" s="14"/>
+      <c r="GR35" s="14"/>
+      <c r="GS35" s="14"/>
+      <c r="GT35" s="14"/>
+      <c r="GU35" s="14"/>
+      <c r="GV35" s="14"/>
+      <c r="GW35" s="14"/>
+      <c r="GX35" s="14"/>
+      <c r="GY35" s="14"/>
+      <c r="GZ35" s="14"/>
+      <c r="HA35" s="14"/>
+      <c r="HB35" s="14"/>
+      <c r="HC35" s="14"/>
+      <c r="HD35" s="14"/>
+      <c r="HE35" s="14"/>
+      <c r="HF35" s="14"/>
+      <c r="HG35" s="14"/>
+      <c r="HH35" s="14"/>
+      <c r="HI35" s="14"/>
+      <c r="HJ35" s="14"/>
+      <c r="HK35" s="14"/>
+      <c r="HL35" s="14"/>
+      <c r="HM35" s="14"/>
+      <c r="HN35" s="14"/>
+      <c r="HO35" s="14"/>
+      <c r="HP35" s="14"/>
+      <c r="HQ35" s="14"/>
+      <c r="HR35" s="14"/>
+      <c r="HS35" s="14"/>
+      <c r="HT35" s="14"/>
+      <c r="HU35" s="14"/>
+      <c r="HV35" s="14"/>
+      <c r="HW35" s="14"/>
+      <c r="HX35" s="14"/>
+      <c r="HY35" s="14"/>
+      <c r="HZ35" s="14"/>
+      <c r="IA35" s="14"/>
+      <c r="IB35" s="14"/>
+      <c r="IC35" s="14"/>
+      <c r="ID35" s="14"/>
+      <c r="IE35" s="14"/>
+      <c r="IF35" s="14"/>
+      <c r="IG35" s="14"/>
+      <c r="IH35" s="14"/>
+      <c r="II35" s="14"/>
+      <c r="IJ35" s="14"/>
+      <c r="IK35" s="14"/>
+      <c r="IL35" s="14"/>
+      <c r="IM35" s="14"/>
+      <c r="IN35" s="14"/>
+      <c r="IO35" s="14"/>
+      <c r="IP35" s="14"/>
+      <c r="IQ35" s="14"/>
+      <c r="IR35" s="14"/>
+      <c r="IS35" s="14"/>
+      <c r="IT35" s="14"/>
+      <c r="IU35" s="14"/>
+      <c r="IV35" s="14"/>
+    </row>
+    <row r="37" spans="1:256" ht="13" customHeight="1" thickBot="1"/>
+    <row r="38" spans="1:256" ht="13" customHeight="1">
+      <c r="A38" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="66"/>
+    </row>
+    <row r="39" spans="1:256" ht="13" customHeight="1">
+      <c r="A39" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
+    </row>
+    <row r="40" spans="1:256" ht="13" customHeight="1">
+      <c r="A40" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="8">
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/テスト仕様書/掲示板テスト仕様書(サンプル).xlsx
+++ b/テスト仕様書/掲示板テスト仕様書(サンプル).xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EB9A15-87E4-9C42-91A1-F21589A48E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
     <sheet name="掲示板機能テスト仕様書" sheetId="2" r:id="rId2"/>
     <sheet name="デシジョンテーブル" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,44 +27,50 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>iga</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="ヒラギノ角ゴ ProN W3"/>
+            <family val="2"/>
+            <charset val="128"/>
           </rPr>
           <t>iga:
 ×の時は改行して履歴を残しておく</t>
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="ヒラギノ角ゴ ProN W3"/>
+            <family val="2"/>
+            <charset val="128"/>
           </rPr>
           <t>iga:
 ×の時は改行して履歴を残しておく</t>
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="ヒラギノ角ゴ ProN W3"/>
+            <family val="2"/>
+            <charset val="128"/>
           </rPr>
           <t>iga:
 ×の時は改行して履歴を残しておく</t>
@@ -70,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="124">
   <si>
     <t>表1</t>
   </si>
@@ -291,9 +303,6 @@
     <t>×</t>
   </si>
   <si>
-    <t>投稿内容の入力</t>
-  </si>
-  <si>
     <t>投稿者名の文字列が50文字以内</t>
   </si>
   <si>
@@ -306,19 +315,10 @@
     <t>投稿者名を入力してください</t>
   </si>
   <si>
-    <t>投稿内容を入力してください</t>
-  </si>
-  <si>
     <t>投稿者名は50文字以内で入力してください</t>
   </si>
   <si>
     <t>コメント投稿のデシジョンテーブル</t>
-  </si>
-  <si>
-    <t>名前の入力</t>
-  </si>
-  <si>
-    <t>コメントの入力</t>
   </si>
   <si>
     <t>名前を入力してください</t>
@@ -521,61 +521,13 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>投稿者内容の入力（正常系）</t>
-  </si>
-  <si>
-    <t>投稿者名の入力(異常系：50字以上)</t>
-  </si>
-  <si>
-    <t>あいうえおかきくけこさしすせそたちつてとなにぬねのはひふへほあいうえおかきくけこさしすせそたちつてとなにぬねのはひふへほ</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>記事投稿太郎</t>
-    <rPh sb="0" eb="2">
-      <t>キj</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウコ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヤm</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>記事投稿内容</t>
-    <rPh sb="0" eb="2">
-      <t>キj</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>トウコ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>コメント投稿太郎</t>
-    <rPh sb="4" eb="6">
-      <t>トウコ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヤm</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>コメント投稿内容</t>
-    <rPh sb="4" eb="8">
-      <t>トウコ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
       <t>・掲示板システムのトップページを表示させるURLを直書きする
 　http://localhost:8080/joinedbbs</t>
@@ -583,23 +535,13 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>名前の入力（正常系）</t>
-    <rPh sb="0" eb="2">
-      <t>ナマ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>コメントの入力（正常系）</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>DROP TABLE IF EXISTS comments</t>
     </r>
@@ -609,6 +551,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>;</t>
     </r>
@@ -617,6 +560,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -627,6 +571,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>DROP TABLE IF EXISTS articles</t>
     </r>
@@ -636,6 +581,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>;</t>
     </r>
@@ -644,6 +590,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -653,6 +600,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -663,6 +611,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>CREATE TABLE articles</t>
     </r>
@@ -671,6 +620,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -681,6 +631,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -689,6 +640,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -699,6 +651,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  id serial NOT NULL</t>
     </r>
@@ -708,6 +661,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -717,6 +671,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> -- </t>
     </r>
@@ -726,6 +681,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>投稿</t>
     </r>
@@ -735,6 +691,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -743,6 +700,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -753,6 +711,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  name text NOT NULL</t>
     </r>
@@ -762,6 +721,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -771,6 +731,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> -- </t>
     </r>
@@ -780,6 +741,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>名前</t>
     </r>
@@ -788,6 +750,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -798,6 +761,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  content text NOT NULL</t>
     </r>
@@ -807,6 +771,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -816,6 +781,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> -- </t>
     </r>
@@ -825,6 +791,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>コンテント</t>
     </r>
@@ -833,6 +800,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -843,6 +811,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  CONSTRAINT articles_pkey PRIMARY KEY </t>
     </r>
@@ -852,6 +821,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -861,6 +831,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -870,6 +841,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -878,6 +850,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -888,6 +861,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>);</t>
     </r>
@@ -896,6 +870,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -905,6 +880,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -915,6 +891,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>CREATE TABLE comments</t>
     </r>
@@ -923,6 +900,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -933,6 +911,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -941,6 +920,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -951,6 +931,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  id serial NOT NULL</t>
     </r>
@@ -960,6 +941,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -969,6 +951,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> -- </t>
     </r>
@@ -978,6 +961,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>コメント</t>
     </r>
@@ -987,6 +971,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -995,6 +980,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1005,6 +991,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  name text NOT NULL</t>
     </r>
@@ -1014,6 +1001,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1023,6 +1011,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> -- </t>
     </r>
@@ -1032,6 +1021,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>名前</t>
     </r>
@@ -1040,6 +1030,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1050,6 +1041,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  content text NOT NULL</t>
     </r>
@@ -1059,6 +1051,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1068,6 +1061,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> -- </t>
     </r>
@@ -1077,6 +1071,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>コメント</t>
     </r>
@@ -1085,6 +1080,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1095,6 +1091,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  article_id integer NOT NULL</t>
     </r>
@@ -1104,6 +1101,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1113,6 +1111,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> -- article_id</t>
     </r>
@@ -1121,6 +1120,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1131,6 +1131,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  CONSTRAINT comments_pkey PRIMARY KEY </t>
     </r>
@@ -1140,6 +1141,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1149,6 +1151,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -1158,6 +1161,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>),</t>
     </r>
@@ -1166,6 +1170,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1176,6 +1181,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  FOREIGN KEY </t>
     </r>
@@ -1185,6 +1191,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1194,6 +1201,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>article_id</t>
     </r>
@@ -1203,6 +1211,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1212,6 +1221,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> REFERENCES articles </t>
     </r>
@@ -1221,6 +1231,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1230,6 +1241,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>id</t>
     </r>
@@ -1239,6 +1251,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1247,6 +1260,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1257,6 +1271,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>);</t>
     </r>
@@ -1265,6 +1280,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1274,6 +1290,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1284,6 +1301,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>INSERT INTO articles</t>
     </r>
@@ -1293,6 +1311,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1302,6 +1321,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>name</t>
     </r>
@@ -1311,6 +1331,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1320,6 +1341,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> content</t>
     </r>
@@ -1329,6 +1351,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1338,6 +1361,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> VALUES</t>
     </r>
@@ -1347,6 +1371,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1356,6 +1381,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>'</t>
     </r>
@@ -1365,6 +1391,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>伊賀</t>
     </r>
@@ -1374,6 +1401,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>'</t>
     </r>
@@ -1383,6 +1411,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1392,6 +1421,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> '</t>
     </r>
@@ -1401,6 +1431,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>この掲示板について</t>
     </r>
@@ -1410,6 +1441,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>'</t>
     </r>
@@ -1419,6 +1451,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>);</t>
     </r>
@@ -1427,6 +1460,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1437,6 +1471,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>INSERT INTO articles</t>
     </r>
@@ -1446,6 +1481,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1455,6 +1491,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>name</t>
     </r>
@@ -1464,6 +1501,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1473,6 +1511,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> content</t>
     </r>
@@ -1482,6 +1521,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1491,6 +1531,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> VALUES</t>
     </r>
@@ -1500,6 +1541,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1509,6 +1551,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>'</t>
     </r>
@@ -1518,6 +1561,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>山田</t>
     </r>
@@ -1527,6 +1571,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>'</t>
     </r>
@@ -1536,6 +1581,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1545,6 +1591,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> '</t>
     </r>
@@ -1554,6 +1601,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>新たな投稿です。</t>
     </r>
@@ -1563,6 +1611,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>'</t>
     </r>
@@ -1572,6 +1621,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>);</t>
     </r>
@@ -1580,6 +1630,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1590,6 +1641,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>INSERT INTO comments</t>
     </r>
@@ -1599,6 +1651,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1608,6 +1661,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>name</t>
     </r>
@@ -1617,6 +1671,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1626,6 +1681,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> content</t>
     </r>
@@ -1635,6 +1691,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1644,6 +1701,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> article_id</t>
     </r>
@@ -1653,6 +1711,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1662,6 +1721,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> VALUES</t>
     </r>
@@ -1671,6 +1731,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1680,6 +1741,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>'</t>
     </r>
@@ -1689,6 +1751,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>佐藤</t>
     </r>
@@ -1698,6 +1761,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>1'</t>
     </r>
@@ -1707,6 +1771,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1716,6 +1781,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> '</t>
     </r>
@@ -1725,6 +1791,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>伊賀さん書き込みのコメント</t>
     </r>
@@ -1734,6 +1801,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>1'</t>
     </r>
@@ -1743,6 +1811,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1752,6 +1821,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1761,6 +1831,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>);</t>
     </r>
@@ -1769,6 +1840,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1779,6 +1851,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>INSERT INTO comments</t>
     </r>
@@ -1788,6 +1861,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1797,6 +1871,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>name</t>
     </r>
@@ -1806,6 +1881,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1815,6 +1891,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> content</t>
     </r>
@@ -1824,6 +1901,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1833,6 +1911,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> article_id</t>
     </r>
@@ -1842,6 +1921,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1851,6 +1931,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> VALUES</t>
     </r>
@@ -1860,6 +1941,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1869,6 +1951,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>'</t>
     </r>
@@ -1878,6 +1961,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>佐藤</t>
     </r>
@@ -1887,6 +1971,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>2'</t>
     </r>
@@ -1896,6 +1981,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1905,6 +1991,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> '</t>
     </r>
@@ -1914,6 +2001,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>伊賀さん書き込みのコメント</t>
     </r>
@@ -1923,6 +2011,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>2'</t>
     </r>
@@ -1932,6 +2021,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1941,6 +2031,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1950,6 +2041,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>);</t>
     </r>
@@ -1958,6 +2050,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1968,6 +2061,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>INSERT INTO comments</t>
     </r>
@@ -1977,6 +2071,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1986,6 +2081,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>name</t>
     </r>
@@ -1995,6 +2091,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2004,6 +2101,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> content</t>
     </r>
@@ -2013,6 +2111,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2022,6 +2121,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> article_id</t>
     </r>
@@ -2031,6 +2131,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2040,6 +2141,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> VALUES</t>
     </r>
@@ -2049,6 +2151,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2058,6 +2161,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>'</t>
     </r>
@@ -2067,6 +2171,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>佐藤</t>
     </r>
@@ -2076,6 +2181,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>3'</t>
     </r>
@@ -2085,6 +2191,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2094,6 +2201,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> '</t>
     </r>
@@ -2103,6 +2211,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>伊賀さん書き込みのコメント</t>
     </r>
@@ -2112,6 +2221,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>3'</t>
     </r>
@@ -2121,6 +2231,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2130,6 +2241,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -2139,6 +2251,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>);</t>
     </r>
@@ -2147,6 +2260,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2157,6 +2271,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>INSERT INTO comments</t>
     </r>
@@ -2166,6 +2281,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2175,6 +2291,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>name</t>
     </r>
@@ -2184,6 +2301,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2193,6 +2311,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> content</t>
     </r>
@@ -2202,6 +2321,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2211,6 +2331,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> article_id</t>
     </r>
@@ -2220,6 +2341,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2229,6 +2351,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> VALUES</t>
     </r>
@@ -2238,6 +2361,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2247,6 +2371,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>'</t>
     </r>
@@ -2256,6 +2381,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>吉田</t>
     </r>
@@ -2265,6 +2391,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>1'</t>
     </r>
@@ -2274,6 +2401,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2283,6 +2411,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> '</t>
     </r>
@@ -2292,6 +2421,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>山田さん書き込みのコメント</t>
     </r>
@@ -2301,6 +2431,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>1'</t>
     </r>
@@ -2310,6 +2441,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2319,6 +2451,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -2328,6 +2461,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>);</t>
     </r>
@@ -2336,6 +2470,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2346,6 +2481,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>INSERT INTO comments</t>
     </r>
@@ -2355,6 +2491,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2364,6 +2501,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>name</t>
     </r>
@@ -2373,6 +2511,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2382,6 +2521,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> content</t>
     </r>
@@ -2391,6 +2531,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2400,6 +2541,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> article_id</t>
     </r>
@@ -2409,6 +2551,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2418,6 +2561,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> VALUES</t>
     </r>
@@ -2427,6 +2571,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2436,6 +2581,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>'</t>
     </r>
@@ -2445,6 +2591,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>吉田</t>
     </r>
@@ -2454,6 +2601,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>2'</t>
     </r>
@@ -2463,6 +2611,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2472,6 +2621,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> '</t>
     </r>
@@ -2481,6 +2631,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>山田さん書き込みのコメント</t>
     </r>
@@ -2490,6 +2641,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>2'</t>
     </r>
@@ -2499,6 +2651,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2508,6 +2661,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -2517,6 +2671,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>);</t>
     </r>
@@ -2542,15 +2697,95 @@
 　伊賀さん書き込みのコメント3</t>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>投稿者名の入力(異常系：5１字以上)</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>あいうえおかきくけこさしすせそたちつてとなにぬねのはひふへほあいうえおかきくけこさしすせそたちつてとな(←51文字)</t>
+    <rPh sb="55" eb="57">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>あいうえおかきくけこさしすせそたちつてとなにぬねのはひふへほあいうえおかきくけこさしすせそたちつてと(←50文字)</t>
+    <rPh sb="54" eb="56">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>記事内容の入力</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>記事内容を入力してください</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>記事内容の入力（正常系）</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>コメント内容の入力</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>コメント者名の入力</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>コメント内容の入力（正常系）</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>コメント者名の入力（正常系）</t>
+    <rPh sb="5" eb="6">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>コメント者名の入力（異常系：５１文字以上）</t>
+    <rPh sb="5" eb="6">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>モジイジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2560,81 +2795,105 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="20"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="12"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="19"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="11"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -2642,6 +2901,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2683,7 +2943,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2988,246 +3248,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3283,7 +3303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3356,7 +3376,67 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3386,134 +3466,47 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -3602,6 +3595,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4679,8 +4680,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV12"/>
@@ -4692,7 +4693,7 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" style="14" customWidth="1"/>
     <col min="2" max="2" width="95" style="14" customWidth="1"/>
@@ -4701,63 +4702,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" ht="15.5" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="409.5" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="48.5" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.25" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.25" customHeight="1">
@@ -4809,14 +4810,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IW22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="14" customWidth="1"/>
@@ -4830,33 +4831,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="47"/>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="14" customHeight="1">
@@ -4864,7 +4865,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -4890,23 +4891,23 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="78.25" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="71" t="s">
-        <v>121</v>
+        <v>96</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>110</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="7"/>
@@ -4914,23 +4915,23 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="123" customHeight="1">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="D5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="7"/>
@@ -4938,23 +4939,23 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="164" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>121</v>
+      <c r="E6" s="36" t="s">
+        <v>110</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="7"/>
@@ -4962,23 +4963,23 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="65" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
@@ -4986,23 +4987,23 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="67.5" customHeight="1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="7"/>
@@ -5010,16 +5011,16 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="55.5" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="43" t="s">
+      <c r="B9" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -5034,16 +5035,16 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -5058,16 +5059,16 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -5082,16 +5083,16 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="43" t="s">
+      <c r="B12" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -5106,23 +5107,23 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="251" customHeight="1">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="37" t="s">
+      <c r="B13" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="73" t="s">
-        <v>121</v>
+      <c r="E13" s="38" t="s">
+        <v>110</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="7"/>
@@ -5130,19 +5131,19 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="50" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="42" t="s">
+      <c r="B14" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="39" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -5154,19 +5155,19 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="88.25" customHeight="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="42" t="s">
+      <c r="B15" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="39" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -5178,19 +5179,19 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="42" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -5202,19 +5203,19 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="42" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="42" t="s">
+      <c r="B17" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="39" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -5226,19 +5227,19 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="42" customHeight="1">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="42" t="s">
+      <c r="B18" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="39" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -5250,19 +5251,19 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="42" customHeight="1">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="42" t="s">
+      <c r="B19" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="76" t="s">
+      <c r="E19" s="41" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -5274,13 +5275,13 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="75.25" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="36" t="s">
+      <c r="B20" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -5298,13 +5299,13 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="60.25" customHeight="1">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="36" t="s">
+      <c r="B21" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -5322,13 +5323,13 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="64" customHeight="1">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="36" t="s">
+      <c r="B22" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -5368,219 +5369,218 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV40"/>
+  <dimension ref="A1:IV41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="14" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="8" customWidth="1"/>
     <col min="2" max="256" width="14" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.75" customHeight="1">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="15.5" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="15.5" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="33" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A6" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="59" t="s">
+      <c r="A6" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="D7" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A8" s="52"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A9" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
+      <c r="A9" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A10" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="59" t="s">
+      <c r="A10" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A11" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A12" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13" customHeight="1" thickBot="1"/>
     <row r="15" spans="1:7" ht="13" customHeight="1">
-      <c r="A15" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
+      <c r="A15" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
     </row>
-    <row r="16" spans="1:7" ht="13" customHeight="1">
-      <c r="A16" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
+    <row r="16" spans="1:7" ht="36" customHeight="1">
+      <c r="A16" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
     </row>
-    <row r="17" spans="1:256" ht="13" customHeight="1">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:256" ht="33" customHeight="1">
+      <c r="A17" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -5831,18 +5831,18 @@
       <c r="IU17" s="14"/>
       <c r="IV17" s="14"/>
     </row>
-    <row r="18" spans="1:256" ht="32" customHeight="1" thickBot="1">
-      <c r="A18" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
+    <row r="18" spans="1:256" ht="32" customHeight="1">
+      <c r="A18" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -7642,10 +7642,10 @@
       <c r="IV24" s="14"/>
     </row>
     <row r="25" spans="1:256" ht="13" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -7900,114 +7900,114 @@
       <c r="IV25" s="14"/>
     </row>
     <row r="26" spans="1:256" ht="13" customHeight="1">
-      <c r="A26" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
+      <c r="A26" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
     </row>
     <row r="27" spans="1:256" ht="13" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="63"/>
+      <c r="B27" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="33" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:256" ht="13" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:256" ht="13" customHeight="1">
-      <c r="A29" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="59" t="s">
+      <c r="A29" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:256" ht="13" customHeight="1">
-      <c r="A30" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="59" t="s">
+      <c r="A30" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:256" ht="13" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:256" ht="13" customHeight="1">
-      <c r="A32" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
+      <c r="A32" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:256" ht="13" customHeight="1">
-      <c r="A33" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="59" t="s">
+      <c r="A33" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:256" ht="13" customHeight="1">
-      <c r="A34" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="59" t="s">
+      <c r="A34" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="35" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:256" ht="13" customHeight="1">
-      <c r="A35" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="62" t="s">
+      <c r="A35" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E35" s="14"/>
@@ -8263,48 +8263,310 @@
       <c r="IU35" s="14"/>
       <c r="IV35" s="14"/>
     </row>
-    <row r="37" spans="1:256" ht="13" customHeight="1" thickBot="1"/>
     <row r="38" spans="1:256" ht="13" customHeight="1">
-      <c r="A38" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="66"/>
+      <c r="A38" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
     </row>
-    <row r="39" spans="1:256" ht="13" customHeight="1">
-      <c r="A39" s="45" t="s">
+    <row r="39" spans="1:256" ht="39" customHeight="1">
+      <c r="A39" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
+      <c r="B39" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
     </row>
-    <row r="40" spans="1:256" ht="13" customHeight="1">
-      <c r="A40" s="48" t="s">
+    <row r="40" spans="1:256" ht="39" customHeight="1">
+      <c r="A40" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+    </row>
+    <row r="41" spans="1:256" ht="39" customHeight="1">
+      <c r="A41" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="47"/>
+      <c r="B41" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="14"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="14"/>
+      <c r="AP41" s="14"/>
+      <c r="AQ41" s="14"/>
+      <c r="AR41" s="14"/>
+      <c r="AS41" s="14"/>
+      <c r="AT41" s="14"/>
+      <c r="AU41" s="14"/>
+      <c r="AV41" s="14"/>
+      <c r="AW41" s="14"/>
+      <c r="AX41" s="14"/>
+      <c r="AY41" s="14"/>
+      <c r="AZ41" s="14"/>
+      <c r="BA41" s="14"/>
+      <c r="BB41" s="14"/>
+      <c r="BC41" s="14"/>
+      <c r="BD41" s="14"/>
+      <c r="BE41" s="14"/>
+      <c r="BF41" s="14"/>
+      <c r="BG41" s="14"/>
+      <c r="BH41" s="14"/>
+      <c r="BI41" s="14"/>
+      <c r="BJ41" s="14"/>
+      <c r="BK41" s="14"/>
+      <c r="BL41" s="14"/>
+      <c r="BM41" s="14"/>
+      <c r="BN41" s="14"/>
+      <c r="BO41" s="14"/>
+      <c r="BP41" s="14"/>
+      <c r="BQ41" s="14"/>
+      <c r="BR41" s="14"/>
+      <c r="BS41" s="14"/>
+      <c r="BT41" s="14"/>
+      <c r="BU41" s="14"/>
+      <c r="BV41" s="14"/>
+      <c r="BW41" s="14"/>
+      <c r="BX41" s="14"/>
+      <c r="BY41" s="14"/>
+      <c r="BZ41" s="14"/>
+      <c r="CA41" s="14"/>
+      <c r="CB41" s="14"/>
+      <c r="CC41" s="14"/>
+      <c r="CD41" s="14"/>
+      <c r="CE41" s="14"/>
+      <c r="CF41" s="14"/>
+      <c r="CG41" s="14"/>
+      <c r="CH41" s="14"/>
+      <c r="CI41" s="14"/>
+      <c r="CJ41" s="14"/>
+      <c r="CK41" s="14"/>
+      <c r="CL41" s="14"/>
+      <c r="CM41" s="14"/>
+      <c r="CN41" s="14"/>
+      <c r="CO41" s="14"/>
+      <c r="CP41" s="14"/>
+      <c r="CQ41" s="14"/>
+      <c r="CR41" s="14"/>
+      <c r="CS41" s="14"/>
+      <c r="CT41" s="14"/>
+      <c r="CU41" s="14"/>
+      <c r="CV41" s="14"/>
+      <c r="CW41" s="14"/>
+      <c r="CX41" s="14"/>
+      <c r="CY41" s="14"/>
+      <c r="CZ41" s="14"/>
+      <c r="DA41" s="14"/>
+      <c r="DB41" s="14"/>
+      <c r="DC41" s="14"/>
+      <c r="DD41" s="14"/>
+      <c r="DE41" s="14"/>
+      <c r="DF41" s="14"/>
+      <c r="DG41" s="14"/>
+      <c r="DH41" s="14"/>
+      <c r="DI41" s="14"/>
+      <c r="DJ41" s="14"/>
+      <c r="DK41" s="14"/>
+      <c r="DL41" s="14"/>
+      <c r="DM41" s="14"/>
+      <c r="DN41" s="14"/>
+      <c r="DO41" s="14"/>
+      <c r="DP41" s="14"/>
+      <c r="DQ41" s="14"/>
+      <c r="DR41" s="14"/>
+      <c r="DS41" s="14"/>
+      <c r="DT41" s="14"/>
+      <c r="DU41" s="14"/>
+      <c r="DV41" s="14"/>
+      <c r="DW41" s="14"/>
+      <c r="DX41" s="14"/>
+      <c r="DY41" s="14"/>
+      <c r="DZ41" s="14"/>
+      <c r="EA41" s="14"/>
+      <c r="EB41" s="14"/>
+      <c r="EC41" s="14"/>
+      <c r="ED41" s="14"/>
+      <c r="EE41" s="14"/>
+      <c r="EF41" s="14"/>
+      <c r="EG41" s="14"/>
+      <c r="EH41" s="14"/>
+      <c r="EI41" s="14"/>
+      <c r="EJ41" s="14"/>
+      <c r="EK41" s="14"/>
+      <c r="EL41" s="14"/>
+      <c r="EM41" s="14"/>
+      <c r="EN41" s="14"/>
+      <c r="EO41" s="14"/>
+      <c r="EP41" s="14"/>
+      <c r="EQ41" s="14"/>
+      <c r="ER41" s="14"/>
+      <c r="ES41" s="14"/>
+      <c r="ET41" s="14"/>
+      <c r="EU41" s="14"/>
+      <c r="EV41" s="14"/>
+      <c r="EW41" s="14"/>
+      <c r="EX41" s="14"/>
+      <c r="EY41" s="14"/>
+      <c r="EZ41" s="14"/>
+      <c r="FA41" s="14"/>
+      <c r="FB41" s="14"/>
+      <c r="FC41" s="14"/>
+      <c r="FD41" s="14"/>
+      <c r="FE41" s="14"/>
+      <c r="FF41" s="14"/>
+      <c r="FG41" s="14"/>
+      <c r="FH41" s="14"/>
+      <c r="FI41" s="14"/>
+      <c r="FJ41" s="14"/>
+      <c r="FK41" s="14"/>
+      <c r="FL41" s="14"/>
+      <c r="FM41" s="14"/>
+      <c r="FN41" s="14"/>
+      <c r="FO41" s="14"/>
+      <c r="FP41" s="14"/>
+      <c r="FQ41" s="14"/>
+      <c r="FR41" s="14"/>
+      <c r="FS41" s="14"/>
+      <c r="FT41" s="14"/>
+      <c r="FU41" s="14"/>
+      <c r="FV41" s="14"/>
+      <c r="FW41" s="14"/>
+      <c r="FX41" s="14"/>
+      <c r="FY41" s="14"/>
+      <c r="FZ41" s="14"/>
+      <c r="GA41" s="14"/>
+      <c r="GB41" s="14"/>
+      <c r="GC41" s="14"/>
+      <c r="GD41" s="14"/>
+      <c r="GE41" s="14"/>
+      <c r="GF41" s="14"/>
+      <c r="GG41" s="14"/>
+      <c r="GH41" s="14"/>
+      <c r="GI41" s="14"/>
+      <c r="GJ41" s="14"/>
+      <c r="GK41" s="14"/>
+      <c r="GL41" s="14"/>
+      <c r="GM41" s="14"/>
+      <c r="GN41" s="14"/>
+      <c r="GO41" s="14"/>
+      <c r="GP41" s="14"/>
+      <c r="GQ41" s="14"/>
+      <c r="GR41" s="14"/>
+      <c r="GS41" s="14"/>
+      <c r="GT41" s="14"/>
+      <c r="GU41" s="14"/>
+      <c r="GV41" s="14"/>
+      <c r="GW41" s="14"/>
+      <c r="GX41" s="14"/>
+      <c r="GY41" s="14"/>
+      <c r="GZ41" s="14"/>
+      <c r="HA41" s="14"/>
+      <c r="HB41" s="14"/>
+      <c r="HC41" s="14"/>
+      <c r="HD41" s="14"/>
+      <c r="HE41" s="14"/>
+      <c r="HF41" s="14"/>
+      <c r="HG41" s="14"/>
+      <c r="HH41" s="14"/>
+      <c r="HI41" s="14"/>
+      <c r="HJ41" s="14"/>
+      <c r="HK41" s="14"/>
+      <c r="HL41" s="14"/>
+      <c r="HM41" s="14"/>
+      <c r="HN41" s="14"/>
+      <c r="HO41" s="14"/>
+      <c r="HP41" s="14"/>
+      <c r="HQ41" s="14"/>
+      <c r="HR41" s="14"/>
+      <c r="HS41" s="14"/>
+      <c r="HT41" s="14"/>
+      <c r="HU41" s="14"/>
+      <c r="HV41" s="14"/>
+      <c r="HW41" s="14"/>
+      <c r="HX41" s="14"/>
+      <c r="HY41" s="14"/>
+      <c r="HZ41" s="14"/>
+      <c r="IA41" s="14"/>
+      <c r="IB41" s="14"/>
+      <c r="IC41" s="14"/>
+      <c r="ID41" s="14"/>
+      <c r="IE41" s="14"/>
+      <c r="IF41" s="14"/>
+      <c r="IG41" s="14"/>
+      <c r="IH41" s="14"/>
+      <c r="II41" s="14"/>
+      <c r="IJ41" s="14"/>
+      <c r="IK41" s="14"/>
+      <c r="IL41" s="14"/>
+      <c r="IM41" s="14"/>
+      <c r="IN41" s="14"/>
+      <c r="IO41" s="14"/>
+      <c r="IP41" s="14"/>
+      <c r="IQ41" s="14"/>
+      <c r="IR41" s="14"/>
+      <c r="IS41" s="14"/>
+      <c r="IT41" s="14"/>
+      <c r="IU41" s="14"/>
+      <c r="IV41" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B41:G41"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="B40:G40"/>

--- a/テスト仕様書/掲示板テスト仕様書(サンプル).xlsx
+++ b/テスト仕様書/掲示板テスト仕様書(サンプル).xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2021/sample-bbs-springboot2-thymeleaf3/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EB9A15-87E4-9C42-91A1-F21589A48E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB1C480-4B13-6140-A9FC-74320D03DB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="129">
   <si>
     <t>表1</t>
   </si>
@@ -155,25 +155,13 @@
     <t>・正しい入力値チェックができるかを確認する</t>
   </si>
   <si>
-    <t>・「記事投稿デシジョンテーブル」シートのTC1の入力を実施する</t>
-  </si>
-  <si>
     <t>・「記事投稿デシジョンテーブル」シートのTC1の期待される効果になること</t>
   </si>
   <si>
-    <t>・「記事投稿デシジョンテーブル」シートのTC2の入力を実施する</t>
-  </si>
-  <si>
     <t>・「記事投稿デシジョンテーブル」シートのTC2の期待される効果になること</t>
   </si>
   <si>
-    <t>・「記事投稿デシジョンテーブル」シートのTC3の入力を実施する</t>
-  </si>
-  <si>
     <t>・「記事投稿デシジョンテーブル」シートのTC3の期待される効果になること</t>
-  </si>
-  <si>
-    <t>・「記事投稿デシジョンテーブル」シートのTC4の入力を実施する</t>
   </si>
   <si>
     <t>・「記事投稿デシジョンテーブル」シートのTC4の期待される効果になること</t>
@@ -197,11 +185,6 @@
   <si>
     <t>・コメントのない記事が2件以上投稿されていること
 （「SQL」シートのSQL1,SQL2を実行）</t>
-  </si>
-  <si>
-    <t>・記事ID1に下記のコメントを投稿する
-　名前：山岡三郎
-　コメント：コメントテストです。</t>
   </si>
   <si>
     <t>・投稿されたコメントが対象の記事に表示されること（他の記事にコメントされてないか確認する）</t>
@@ -223,28 +206,13 @@
 （「SQL」シートのSQL1を実行）</t>
   </si>
   <si>
-    <t>・「コメント投稿デシジョンテーブル」シートのTC1の入力を実施する</t>
-  </si>
-  <si>
     <t>・「コメント投稿デシジョンテーブル」シートのTC1の期待される効果になること</t>
   </si>
   <si>
-    <t>・「コメント投稿デシジョンテーブル」シートのTC2の入力を実施する</t>
-  </si>
-  <si>
     <t>・「コメント投稿デシジョンテーブル」シートのTC2の期待される効果になること</t>
   </si>
   <si>
-    <t>・「コメント投稿デシジョンテーブル」シートのTC3の入力を実施する</t>
-  </si>
-  <si>
     <t>・「コメント投稿デシジョンテーブル」シートのTC3の期待される効果になること</t>
-  </si>
-  <si>
-    <t>・「コメント投稿デシジョンテーブル」シートのTC4の入力を実施する</t>
-  </si>
-  <si>
-    <t>・「コメント投稿デシジョンテーブル」シートのTC4の期待される効果になること</t>
   </si>
   <si>
     <t>記事とコメントを削除する</t>
@@ -470,12 +438,6 @@
   <si>
     <t>入力系画面
 正常系</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>・以下の内容で記事を投稿する
-　投稿名： 佐藤
-　投稿内容： 投稿テストです。</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
@@ -2776,6 +2738,157 @@
       <t>イジョウ</t>
     </rPh>
     <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>入力系画面
+異常系</t>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・デベロッパーツールで記事IDを書き換えられた場合にエラーになるかを確認する</t>
+    <rPh sb="11" eb="13">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニn</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・デベロッパーツールで投稿するコメントの記事IDを1000に書き換える。
+・コメント投稿ボタンを押下する</t>
+    <rPh sb="11" eb="13">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・「コメント投稿デシジョンテーブル」シートのTC3の入力を実施する
+・コメント投稿ボタンを押下する</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・「コメント投稿デシジョンテーブル」シートのTC2の入力を実施する
+・コメント投稿ボタンを押下する</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・「コメント投稿デシジョンテーブル」シートのTC1の入力を実施する
+・コメント投稿ボタンを押下する</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・記事ID1に下記のコメントを入力する
+　名前：山岡三郎
+　コメント：コメントテストです。
+・記事投稿ボタンを押下する</t>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・掲示板システムのトップページを表示させるURLを直書きする
+　http://localhost:8080/joinedbbs</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・「記事投稿デシジョンテーブル」シートのTC4の入力を実施する
+・記事投稿ボタンを押下する</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・「記事投稿デシジョンテーブル」シートのTC3の入力を実施する
+・記事投稿ボタンを押下する</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・「記事投稿デシジョンテーブル」シートのTC2の入力を実施する
+・記事投稿ボタンを押下する</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・「記事投稿デシジョンテーブル」シートのTC1の入力を実施する
+・記事投稿ボタンを押下する</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・以下の内容で記事を入力する
+　投稿名： 佐藤
+　投稿内容： 投稿テストです。
+・記事投稿ボタンを押下する</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>画面の挙動
+異常系</t>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・デベロッパーツールで削除する記事の記事IDを1000に書き換える。
+・削除ボタンを押下する</t>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・不正な操作が行われましたというエラー画面に遷移する</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナワレ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セn</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
@@ -3303,7 +3416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3373,9 +3486,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3418,17 +3528,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3467,46 +3607,34 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -4702,63 +4830,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:3" ht="15.5" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="409.5" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="48.5" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.25" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.25" customHeight="1">
@@ -4811,7 +4939,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IW22"/>
+  <dimension ref="A1:IW23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F2"/>
@@ -4831,33 +4959,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="14" customHeight="1">
@@ -4865,7 +4993,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -4891,23 +5019,23 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="78.25" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>110</v>
+        <v>86</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>99</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="7"/>
@@ -4915,23 +5043,23 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="123" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>95</v>
+      <c r="B5" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>110</v>
+        <v>87</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>99</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="7"/>
@@ -4939,23 +5067,23 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="164" customHeight="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>94</v>
+      <c r="B6" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>110</v>
+        <v>88</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>99</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="7"/>
@@ -4963,23 +5091,23 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="65" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>102</v>
+      <c r="E7" s="70" t="s">
+        <v>125</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
@@ -4987,119 +5115,119 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="67.5" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>102</v>
+      <c r="E8" s="70" t="s">
+        <v>125</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="7"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="55.5" customHeight="1">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:10" ht="51" customHeight="1">
+      <c r="A9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="7"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:10" ht="51" customHeight="1">
+      <c r="A10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
+      <c r="E10" s="70" t="s">
+        <v>123</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="7"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:10" ht="51" customHeight="1">
+      <c r="A11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
+      <c r="E11" s="70" t="s">
+        <v>122</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="7"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="33.75" customHeight="1">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:10" ht="51" customHeight="1">
+      <c r="A12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
+      <c r="E12" s="70" t="s">
+        <v>121</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
@@ -5107,47 +5235,47 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="251" customHeight="1">
-      <c r="A13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>110</v>
+      <c r="A13" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>120</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="7"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="50" customHeight="1">
-      <c r="A14" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>36</v>
+    <row r="14" spans="1:10" ht="69" customHeight="1">
+      <c r="A14" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>119</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="7"/>
@@ -5155,23 +5283,23 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="88.25" customHeight="1">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>36</v>
+      <c r="D15" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>119</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="7"/>
@@ -5179,172 +5307,443 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="42" customHeight="1">
-      <c r="A16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="A16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>42</v>
+      <c r="D16" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>118</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="7"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="42" customHeight="1">
-      <c r="A17" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="30" t="s">
+    <row r="17" spans="1:257" ht="42" customHeight="1">
+      <c r="A17" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>44</v>
+      <c r="D17" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>117</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="42" customHeight="1">
-      <c r="A18" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="30" t="s">
+    <row r="18" spans="1:257" ht="42" customHeight="1">
+      <c r="A18" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>46</v>
+      <c r="D18" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>116</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="42" customHeight="1">
-      <c r="A19" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>49</v>
+    <row r="19" spans="1:257" ht="42" customHeight="1">
+      <c r="A19" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>128</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="7"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="75.25" customHeight="1">
-      <c r="A20" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>51</v>
+    <row r="20" spans="1:257" ht="75.25" customHeight="1">
+      <c r="A20" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="60.25" customHeight="1">
-      <c r="A21" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>51</v>
+    <row r="21" spans="1:257" ht="60.25" customHeight="1">
+      <c r="A21" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="7"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="64" customHeight="1">
-      <c r="A22" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>56</v>
+    <row r="22" spans="1:257" ht="64" customHeight="1">
+      <c r="A22" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:257" ht="42" customHeight="1">
+      <c r="A23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23" s="14"/>
+      <c r="BA23" s="14"/>
+      <c r="BB23" s="14"/>
+      <c r="BC23" s="14"/>
+      <c r="BD23" s="14"/>
+      <c r="BE23" s="14"/>
+      <c r="BF23" s="14"/>
+      <c r="BG23" s="14"/>
+      <c r="BH23" s="14"/>
+      <c r="BI23" s="14"/>
+      <c r="BJ23" s="14"/>
+      <c r="BK23" s="14"/>
+      <c r="BL23" s="14"/>
+      <c r="BM23" s="14"/>
+      <c r="BN23" s="14"/>
+      <c r="BO23" s="14"/>
+      <c r="BP23" s="14"/>
+      <c r="BQ23" s="14"/>
+      <c r="BR23" s="14"/>
+      <c r="BS23" s="14"/>
+      <c r="BT23" s="14"/>
+      <c r="BU23" s="14"/>
+      <c r="BV23" s="14"/>
+      <c r="BW23" s="14"/>
+      <c r="BX23" s="14"/>
+      <c r="BY23" s="14"/>
+      <c r="BZ23" s="14"/>
+      <c r="CA23" s="14"/>
+      <c r="CB23" s="14"/>
+      <c r="CC23" s="14"/>
+      <c r="CD23" s="14"/>
+      <c r="CE23" s="14"/>
+      <c r="CF23" s="14"/>
+      <c r="CG23" s="14"/>
+      <c r="CH23" s="14"/>
+      <c r="CI23" s="14"/>
+      <c r="CJ23" s="14"/>
+      <c r="CK23" s="14"/>
+      <c r="CL23" s="14"/>
+      <c r="CM23" s="14"/>
+      <c r="CN23" s="14"/>
+      <c r="CO23" s="14"/>
+      <c r="CP23" s="14"/>
+      <c r="CQ23" s="14"/>
+      <c r="CR23" s="14"/>
+      <c r="CS23" s="14"/>
+      <c r="CT23" s="14"/>
+      <c r="CU23" s="14"/>
+      <c r="CV23" s="14"/>
+      <c r="CW23" s="14"/>
+      <c r="CX23" s="14"/>
+      <c r="CY23" s="14"/>
+      <c r="CZ23" s="14"/>
+      <c r="DA23" s="14"/>
+      <c r="DB23" s="14"/>
+      <c r="DC23" s="14"/>
+      <c r="DD23" s="14"/>
+      <c r="DE23" s="14"/>
+      <c r="DF23" s="14"/>
+      <c r="DG23" s="14"/>
+      <c r="DH23" s="14"/>
+      <c r="DI23" s="14"/>
+      <c r="DJ23" s="14"/>
+      <c r="DK23" s="14"/>
+      <c r="DL23" s="14"/>
+      <c r="DM23" s="14"/>
+      <c r="DN23" s="14"/>
+      <c r="DO23" s="14"/>
+      <c r="DP23" s="14"/>
+      <c r="DQ23" s="14"/>
+      <c r="DR23" s="14"/>
+      <c r="DS23" s="14"/>
+      <c r="DT23" s="14"/>
+      <c r="DU23" s="14"/>
+      <c r="DV23" s="14"/>
+      <c r="DW23" s="14"/>
+      <c r="DX23" s="14"/>
+      <c r="DY23" s="14"/>
+      <c r="DZ23" s="14"/>
+      <c r="EA23" s="14"/>
+      <c r="EB23" s="14"/>
+      <c r="EC23" s="14"/>
+      <c r="ED23" s="14"/>
+      <c r="EE23" s="14"/>
+      <c r="EF23" s="14"/>
+      <c r="EG23" s="14"/>
+      <c r="EH23" s="14"/>
+      <c r="EI23" s="14"/>
+      <c r="EJ23" s="14"/>
+      <c r="EK23" s="14"/>
+      <c r="EL23" s="14"/>
+      <c r="EM23" s="14"/>
+      <c r="EN23" s="14"/>
+      <c r="EO23" s="14"/>
+      <c r="EP23" s="14"/>
+      <c r="EQ23" s="14"/>
+      <c r="ER23" s="14"/>
+      <c r="ES23" s="14"/>
+      <c r="ET23" s="14"/>
+      <c r="EU23" s="14"/>
+      <c r="EV23" s="14"/>
+      <c r="EW23" s="14"/>
+      <c r="EX23" s="14"/>
+      <c r="EY23" s="14"/>
+      <c r="EZ23" s="14"/>
+      <c r="FA23" s="14"/>
+      <c r="FB23" s="14"/>
+      <c r="FC23" s="14"/>
+      <c r="FD23" s="14"/>
+      <c r="FE23" s="14"/>
+      <c r="FF23" s="14"/>
+      <c r="FG23" s="14"/>
+      <c r="FH23" s="14"/>
+      <c r="FI23" s="14"/>
+      <c r="FJ23" s="14"/>
+      <c r="FK23" s="14"/>
+      <c r="FL23" s="14"/>
+      <c r="FM23" s="14"/>
+      <c r="FN23" s="14"/>
+      <c r="FO23" s="14"/>
+      <c r="FP23" s="14"/>
+      <c r="FQ23" s="14"/>
+      <c r="FR23" s="14"/>
+      <c r="FS23" s="14"/>
+      <c r="FT23" s="14"/>
+      <c r="FU23" s="14"/>
+      <c r="FV23" s="14"/>
+      <c r="FW23" s="14"/>
+      <c r="FX23" s="14"/>
+      <c r="FY23" s="14"/>
+      <c r="FZ23" s="14"/>
+      <c r="GA23" s="14"/>
+      <c r="GB23" s="14"/>
+      <c r="GC23" s="14"/>
+      <c r="GD23" s="14"/>
+      <c r="GE23" s="14"/>
+      <c r="GF23" s="14"/>
+      <c r="GG23" s="14"/>
+      <c r="GH23" s="14"/>
+      <c r="GI23" s="14"/>
+      <c r="GJ23" s="14"/>
+      <c r="GK23" s="14"/>
+      <c r="GL23" s="14"/>
+      <c r="GM23" s="14"/>
+      <c r="GN23" s="14"/>
+      <c r="GO23" s="14"/>
+      <c r="GP23" s="14"/>
+      <c r="GQ23" s="14"/>
+      <c r="GR23" s="14"/>
+      <c r="GS23" s="14"/>
+      <c r="GT23" s="14"/>
+      <c r="GU23" s="14"/>
+      <c r="GV23" s="14"/>
+      <c r="GW23" s="14"/>
+      <c r="GX23" s="14"/>
+      <c r="GY23" s="14"/>
+      <c r="GZ23" s="14"/>
+      <c r="HA23" s="14"/>
+      <c r="HB23" s="14"/>
+      <c r="HC23" s="14"/>
+      <c r="HD23" s="14"/>
+      <c r="HE23" s="14"/>
+      <c r="HF23" s="14"/>
+      <c r="HG23" s="14"/>
+      <c r="HH23" s="14"/>
+      <c r="HI23" s="14"/>
+      <c r="HJ23" s="14"/>
+      <c r="HK23" s="14"/>
+      <c r="HL23" s="14"/>
+      <c r="HM23" s="14"/>
+      <c r="HN23" s="14"/>
+      <c r="HO23" s="14"/>
+      <c r="HP23" s="14"/>
+      <c r="HQ23" s="14"/>
+      <c r="HR23" s="14"/>
+      <c r="HS23" s="14"/>
+      <c r="HT23" s="14"/>
+      <c r="HU23" s="14"/>
+      <c r="HV23" s="14"/>
+      <c r="HW23" s="14"/>
+      <c r="HX23" s="14"/>
+      <c r="HY23" s="14"/>
+      <c r="HZ23" s="14"/>
+      <c r="IA23" s="14"/>
+      <c r="IB23" s="14"/>
+      <c r="IC23" s="14"/>
+      <c r="ID23" s="14"/>
+      <c r="IE23" s="14"/>
+      <c r="IF23" s="14"/>
+      <c r="IG23" s="14"/>
+      <c r="IH23" s="14"/>
+      <c r="II23" s="14"/>
+      <c r="IJ23" s="14"/>
+      <c r="IK23" s="14"/>
+      <c r="IL23" s="14"/>
+      <c r="IM23" s="14"/>
+      <c r="IN23" s="14"/>
+      <c r="IO23" s="14"/>
+      <c r="IP23" s="14"/>
+      <c r="IQ23" s="14"/>
+      <c r="IR23" s="14"/>
+      <c r="IS23" s="14"/>
+      <c r="IT23" s="14"/>
+      <c r="IU23" s="14"/>
+      <c r="IV23" s="14"/>
+      <c r="IW23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5386,201 +5785,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.75" customHeight="1">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:7" ht="15.5" customHeight="1">
-      <c r="A2" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="A2" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:7" ht="15.5" customHeight="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>63</v>
+      <c r="A3" s="46"/>
+      <c r="B3" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A4" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A5" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>66</v>
+      <c r="A5" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A6" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>66</v>
+      <c r="A6" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A7" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>67</v>
+      <c r="A7" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A9" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="A9" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A10" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>67</v>
+      <c r="A10" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A11" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>67</v>
+      <c r="A11" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A12" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>66</v>
+      <c r="A12" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13" customHeight="1">
-      <c r="A15" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="A15" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1">
-      <c r="A16" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
+      <c r="A16" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:256" ht="33" customHeight="1">
-      <c r="A17" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
+      <c r="A17" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -5832,17 +6231,17 @@
       <c r="IV17" s="14"/>
     </row>
     <row r="18" spans="1:256" ht="32" customHeight="1">
-      <c r="A18" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
+      <c r="A18" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -7642,10 +8041,10 @@
       <c r="IV24" s="14"/>
     </row>
     <row r="25" spans="1:256" ht="13" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -7900,115 +8299,115 @@
       <c r="IV25" s="14"/>
     </row>
     <row r="26" spans="1:256" ht="13" customHeight="1">
-      <c r="A26" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
+      <c r="A26" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
     </row>
     <row r="27" spans="1:256" ht="13" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>62</v>
+      <c r="A27" s="46"/>
+      <c r="B27" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:256" ht="13" customHeight="1">
-      <c r="A28" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="A28" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:256" ht="13" customHeight="1">
-      <c r="A29" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>66</v>
+      <c r="A29" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:256" ht="13" customHeight="1">
-      <c r="A30" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>67</v>
+      <c r="A30" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:256" ht="13" customHeight="1">
-      <c r="A31" s="63"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:256" ht="13" customHeight="1">
-      <c r="A32" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="A32" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:256" ht="13" customHeight="1">
-      <c r="A33" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>67</v>
+      <c r="A33" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:256" ht="13" customHeight="1">
-      <c r="A34" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>66</v>
+      <c r="A34" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:256" ht="13" customHeight="1">
-      <c r="A35" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>66</v>
+      <c r="A35" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -8264,56 +8663,56 @@
       <c r="IV35" s="14"/>
     </row>
     <row r="38" spans="1:256" ht="13" customHeight="1">
-      <c r="A38" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
+      <c r="A38" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
     </row>
     <row r="39" spans="1:256" ht="39" customHeight="1">
-      <c r="A39" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
+      <c r="A39" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
     </row>
     <row r="40" spans="1:256" ht="39" customHeight="1">
-      <c r="A40" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
+      <c r="A40" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
     </row>
     <row r="41" spans="1:256" ht="39" customHeight="1">
-      <c r="A41" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
+      <c r="A41" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>

--- a/テスト仕様書/掲示板テスト仕様書(サンプル).xlsx
+++ b/テスト仕様書/掲示板テスト仕様書(サンプル).xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2021/sample-bbs-springboot2-thymeleaf3/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB1C480-4B13-6140-A9FC-74320D03DB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C25D3D-A8C3-444D-AA4F-42F87063E66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="5" r:id="rId1"/>
     <sheet name="掲示板機能テスト仕様書" sheetId="2" r:id="rId2"/>
     <sheet name="デシジョンテーブル" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -82,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="133">
   <si>
     <t>表1</t>
   </si>
@@ -242,9 +249,6 @@
   </si>
   <si>
     <t>・1件の記事が削除されていること</t>
-  </si>
-  <si>
-    <t>記事投稿でデシジョンテーブル</t>
   </si>
   <si>
     <t>TC1</t>
@@ -2888,6 +2892,33 @@
     <rPh sb="22" eb="24">
       <t>セn</t>
     </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>記事投稿のデシジョンテーブル</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>コメント者名の文字列が50文字以内</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>名前は50文字以内で入力してください</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・「コメント投稿デシジョンテーブル」シートのTC4の入力を実施する
+・コメント投稿ボタンを押下する</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・「コメント投稿デシジョンテーブル」シートのTC4の期待される効果になること</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -3546,9 +3577,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3569,6 +3597,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3614,27 +3666,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -4830,63 +4861,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15.5" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="409.5" customHeight="1">
       <c r="A3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="48.5" customHeight="1">
       <c r="A4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.25" customHeight="1">
       <c r="A5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26" customHeight="1">
       <c r="A6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.25" customHeight="1">
@@ -4939,10 +4970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IW23"/>
+  <dimension ref="A1:IW24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
@@ -4959,33 +4990,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="63"/>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="14" customHeight="1">
@@ -4993,7 +5024,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -5023,19 +5054,19 @@
         <v>12</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="7"/>
@@ -5047,19 +5078,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="7"/>
@@ -5071,19 +5102,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="7"/>
@@ -5095,7 +5126,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>18</v>
@@ -5103,11 +5134,11 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="70" t="s">
-        <v>125</v>
+      <c r="E7" s="55" t="s">
+        <v>124</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
@@ -5119,7 +5150,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>19</v>
@@ -5127,11 +5158,11 @@
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="70" t="s">
-        <v>125</v>
+      <c r="E8" s="55" t="s">
+        <v>124</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="7"/>
@@ -5143,7 +5174,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>21</v>
@@ -5151,8 +5182,8 @@
       <c r="D9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="70" t="s">
-        <v>124</v>
+      <c r="E9" s="55" t="s">
+        <v>123</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
@@ -5166,8 +5197,8 @@
       <c r="A10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="66" t="s">
-        <v>113</v>
+      <c r="B10" s="51" t="s">
+        <v>112</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>21</v>
@@ -5175,8 +5206,8 @@
       <c r="D10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="70" t="s">
-        <v>123</v>
+      <c r="E10" s="55" t="s">
+        <v>122</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -5190,8 +5221,8 @@
       <c r="A11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>113</v>
+      <c r="B11" s="51" t="s">
+        <v>112</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>21</v>
@@ -5199,8 +5230,8 @@
       <c r="D11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="70" t="s">
-        <v>122</v>
+      <c r="E11" s="55" t="s">
+        <v>121</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>24</v>
@@ -5214,8 +5245,8 @@
       <c r="A12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="66" t="s">
-        <v>113</v>
+      <c r="B12" s="51" t="s">
+        <v>112</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>21</v>
@@ -5223,8 +5254,8 @@
       <c r="D12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="70" t="s">
-        <v>121</v>
+      <c r="E12" s="55" t="s">
+        <v>120</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>25</v>
@@ -5239,7 +5270,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>27</v>
@@ -5247,11 +5278,11 @@
       <c r="D13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="71" t="s">
-        <v>120</v>
+      <c r="E13" s="56" t="s">
+        <v>119</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="7"/>
@@ -5263,7 +5294,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>30</v>
@@ -5271,8 +5302,8 @@
       <c r="D14" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="69" t="s">
-        <v>119</v>
+      <c r="E14" s="54" t="s">
+        <v>118</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>32</v>
@@ -5287,7 +5318,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>33</v>
@@ -5295,8 +5326,8 @@
       <c r="D15" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="69" t="s">
-        <v>119</v>
+      <c r="E15" s="54" t="s">
+        <v>118</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>35</v>
@@ -5311,7 +5342,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>21</v>
@@ -5319,8 +5350,8 @@
       <c r="D16" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="69" t="s">
-        <v>118</v>
+      <c r="E16" s="54" t="s">
+        <v>117</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>37</v>
@@ -5334,8 +5365,8 @@
       <c r="A17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="67" t="s">
-        <v>113</v>
+      <c r="B17" s="52" t="s">
+        <v>112</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>21</v>
@@ -5343,8 +5374,8 @@
       <c r="D17" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="69" t="s">
-        <v>117</v>
+      <c r="E17" s="54" t="s">
+        <v>116</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>38</v>
@@ -5358,8 +5389,8 @@
       <c r="A18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="67" t="s">
-        <v>113</v>
+      <c r="B18" s="52" t="s">
+        <v>112</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>21</v>
@@ -5367,8 +5398,8 @@
       <c r="D18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="69" t="s">
-        <v>116</v>
+      <c r="E18" s="54" t="s">
+        <v>115</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>39</v>
@@ -5382,368 +5413,639 @@
       <c r="A19" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>114</v>
+      <c r="B19" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="4"/>
+      <c r="E19" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="50"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="14"/>
+      <c r="BG19" s="14"/>
+      <c r="BH19" s="14"/>
+      <c r="BI19" s="14"/>
+      <c r="BJ19" s="14"/>
+      <c r="BK19" s="14"/>
+      <c r="BL19" s="14"/>
+      <c r="BM19" s="14"/>
+      <c r="BN19" s="14"/>
+      <c r="BO19" s="14"/>
+      <c r="BP19" s="14"/>
+      <c r="BQ19" s="14"/>
+      <c r="BR19" s="14"/>
+      <c r="BS19" s="14"/>
+      <c r="BT19" s="14"/>
+      <c r="BU19" s="14"/>
+      <c r="BV19" s="14"/>
+      <c r="BW19" s="14"/>
+      <c r="BX19" s="14"/>
+      <c r="BY19" s="14"/>
+      <c r="BZ19" s="14"/>
+      <c r="CA19" s="14"/>
+      <c r="CB19" s="14"/>
+      <c r="CC19" s="14"/>
+      <c r="CD19" s="14"/>
+      <c r="CE19" s="14"/>
+      <c r="CF19" s="14"/>
+      <c r="CG19" s="14"/>
+      <c r="CH19" s="14"/>
+      <c r="CI19" s="14"/>
+      <c r="CJ19" s="14"/>
+      <c r="CK19" s="14"/>
+      <c r="CL19" s="14"/>
+      <c r="CM19" s="14"/>
+      <c r="CN19" s="14"/>
+      <c r="CO19" s="14"/>
+      <c r="CP19" s="14"/>
+      <c r="CQ19" s="14"/>
+      <c r="CR19" s="14"/>
+      <c r="CS19" s="14"/>
+      <c r="CT19" s="14"/>
+      <c r="CU19" s="14"/>
+      <c r="CV19" s="14"/>
+      <c r="CW19" s="14"/>
+      <c r="CX19" s="14"/>
+      <c r="CY19" s="14"/>
+      <c r="CZ19" s="14"/>
+      <c r="DA19" s="14"/>
+      <c r="DB19" s="14"/>
+      <c r="DC19" s="14"/>
+      <c r="DD19" s="14"/>
+      <c r="DE19" s="14"/>
+      <c r="DF19" s="14"/>
+      <c r="DG19" s="14"/>
+      <c r="DH19" s="14"/>
+      <c r="DI19" s="14"/>
+      <c r="DJ19" s="14"/>
+      <c r="DK19" s="14"/>
+      <c r="DL19" s="14"/>
+      <c r="DM19" s="14"/>
+      <c r="DN19" s="14"/>
+      <c r="DO19" s="14"/>
+      <c r="DP19" s="14"/>
+      <c r="DQ19" s="14"/>
+      <c r="DR19" s="14"/>
+      <c r="DS19" s="14"/>
+      <c r="DT19" s="14"/>
+      <c r="DU19" s="14"/>
+      <c r="DV19" s="14"/>
+      <c r="DW19" s="14"/>
+      <c r="DX19" s="14"/>
+      <c r="DY19" s="14"/>
+      <c r="DZ19" s="14"/>
+      <c r="EA19" s="14"/>
+      <c r="EB19" s="14"/>
+      <c r="EC19" s="14"/>
+      <c r="ED19" s="14"/>
+      <c r="EE19" s="14"/>
+      <c r="EF19" s="14"/>
+      <c r="EG19" s="14"/>
+      <c r="EH19" s="14"/>
+      <c r="EI19" s="14"/>
+      <c r="EJ19" s="14"/>
+      <c r="EK19" s="14"/>
+      <c r="EL19" s="14"/>
+      <c r="EM19" s="14"/>
+      <c r="EN19" s="14"/>
+      <c r="EO19" s="14"/>
+      <c r="EP19" s="14"/>
+      <c r="EQ19" s="14"/>
+      <c r="ER19" s="14"/>
+      <c r="ES19" s="14"/>
+      <c r="ET19" s="14"/>
+      <c r="EU19" s="14"/>
+      <c r="EV19" s="14"/>
+      <c r="EW19" s="14"/>
+      <c r="EX19" s="14"/>
+      <c r="EY19" s="14"/>
+      <c r="EZ19" s="14"/>
+      <c r="FA19" s="14"/>
+      <c r="FB19" s="14"/>
+      <c r="FC19" s="14"/>
+      <c r="FD19" s="14"/>
+      <c r="FE19" s="14"/>
+      <c r="FF19" s="14"/>
+      <c r="FG19" s="14"/>
+      <c r="FH19" s="14"/>
+      <c r="FI19" s="14"/>
+      <c r="FJ19" s="14"/>
+      <c r="FK19" s="14"/>
+      <c r="FL19" s="14"/>
+      <c r="FM19" s="14"/>
+      <c r="FN19" s="14"/>
+      <c r="FO19" s="14"/>
+      <c r="FP19" s="14"/>
+      <c r="FQ19" s="14"/>
+      <c r="FR19" s="14"/>
+      <c r="FS19" s="14"/>
+      <c r="FT19" s="14"/>
+      <c r="FU19" s="14"/>
+      <c r="FV19" s="14"/>
+      <c r="FW19" s="14"/>
+      <c r="FX19" s="14"/>
+      <c r="FY19" s="14"/>
+      <c r="FZ19" s="14"/>
+      <c r="GA19" s="14"/>
+      <c r="GB19" s="14"/>
+      <c r="GC19" s="14"/>
+      <c r="GD19" s="14"/>
+      <c r="GE19" s="14"/>
+      <c r="GF19" s="14"/>
+      <c r="GG19" s="14"/>
+      <c r="GH19" s="14"/>
+      <c r="GI19" s="14"/>
+      <c r="GJ19" s="14"/>
+      <c r="GK19" s="14"/>
+      <c r="GL19" s="14"/>
+      <c r="GM19" s="14"/>
+      <c r="GN19" s="14"/>
+      <c r="GO19" s="14"/>
+      <c r="GP19" s="14"/>
+      <c r="GQ19" s="14"/>
+      <c r="GR19" s="14"/>
+      <c r="GS19" s="14"/>
+      <c r="GT19" s="14"/>
+      <c r="GU19" s="14"/>
+      <c r="GV19" s="14"/>
+      <c r="GW19" s="14"/>
+      <c r="GX19" s="14"/>
+      <c r="GY19" s="14"/>
+      <c r="GZ19" s="14"/>
+      <c r="HA19" s="14"/>
+      <c r="HB19" s="14"/>
+      <c r="HC19" s="14"/>
+      <c r="HD19" s="14"/>
+      <c r="HE19" s="14"/>
+      <c r="HF19" s="14"/>
+      <c r="HG19" s="14"/>
+      <c r="HH19" s="14"/>
+      <c r="HI19" s="14"/>
+      <c r="HJ19" s="14"/>
+      <c r="HK19" s="14"/>
+      <c r="HL19" s="14"/>
+      <c r="HM19" s="14"/>
+      <c r="HN19" s="14"/>
+      <c r="HO19" s="14"/>
+      <c r="HP19" s="14"/>
+      <c r="HQ19" s="14"/>
+      <c r="HR19" s="14"/>
+      <c r="HS19" s="14"/>
+      <c r="HT19" s="14"/>
+      <c r="HU19" s="14"/>
+      <c r="HV19" s="14"/>
+      <c r="HW19" s="14"/>
+      <c r="HX19" s="14"/>
+      <c r="HY19" s="14"/>
+      <c r="HZ19" s="14"/>
+      <c r="IA19" s="14"/>
+      <c r="IB19" s="14"/>
+      <c r="IC19" s="14"/>
+      <c r="ID19" s="14"/>
+      <c r="IE19" s="14"/>
+      <c r="IF19" s="14"/>
+      <c r="IG19" s="14"/>
+      <c r="IH19" s="14"/>
+      <c r="II19" s="14"/>
+      <c r="IJ19" s="14"/>
+      <c r="IK19" s="14"/>
+      <c r="IL19" s="14"/>
+      <c r="IM19" s="14"/>
+      <c r="IN19" s="14"/>
+      <c r="IO19" s="14"/>
+      <c r="IP19" s="14"/>
+      <c r="IQ19" s="14"/>
+      <c r="IR19" s="14"/>
+      <c r="IS19" s="14"/>
+      <c r="IT19" s="14"/>
+      <c r="IU19" s="14"/>
+      <c r="IV19" s="14"/>
+      <c r="IW19" s="14"/>
     </row>
-    <row r="20" spans="1:257" ht="75.25" customHeight="1">
+    <row r="20" spans="1:257" ht="42" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>127</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:257" ht="60.25" customHeight="1">
+    <row r="21" spans="1:257" ht="75.25" customHeight="1">
       <c r="A21" s="29" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="7"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:257" ht="64" customHeight="1">
+    <row r="22" spans="1:257" ht="60.25" customHeight="1">
       <c r="A22" s="29" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:257" ht="42" customHeight="1">
+    <row r="23" spans="1:257" ht="64" customHeight="1">
       <c r="A23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:257" ht="42" customHeight="1">
+      <c r="A24" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="68" t="s">
+      <c r="F24" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="14"/>
-      <c r="AL23" s="14"/>
-      <c r="AM23" s="14"/>
-      <c r="AN23" s="14"/>
-      <c r="AO23" s="14"/>
-      <c r="AP23" s="14"/>
-      <c r="AQ23" s="14"/>
-      <c r="AR23" s="14"/>
-      <c r="AS23" s="14"/>
-      <c r="AT23" s="14"/>
-      <c r="AU23" s="14"/>
-      <c r="AV23" s="14"/>
-      <c r="AW23" s="14"/>
-      <c r="AX23" s="14"/>
-      <c r="AY23" s="14"/>
-      <c r="AZ23" s="14"/>
-      <c r="BA23" s="14"/>
-      <c r="BB23" s="14"/>
-      <c r="BC23" s="14"/>
-      <c r="BD23" s="14"/>
-      <c r="BE23" s="14"/>
-      <c r="BF23" s="14"/>
-      <c r="BG23" s="14"/>
-      <c r="BH23" s="14"/>
-      <c r="BI23" s="14"/>
-      <c r="BJ23" s="14"/>
-      <c r="BK23" s="14"/>
-      <c r="BL23" s="14"/>
-      <c r="BM23" s="14"/>
-      <c r="BN23" s="14"/>
-      <c r="BO23" s="14"/>
-      <c r="BP23" s="14"/>
-      <c r="BQ23" s="14"/>
-      <c r="BR23" s="14"/>
-      <c r="BS23" s="14"/>
-      <c r="BT23" s="14"/>
-      <c r="BU23" s="14"/>
-      <c r="BV23" s="14"/>
-      <c r="BW23" s="14"/>
-      <c r="BX23" s="14"/>
-      <c r="BY23" s="14"/>
-      <c r="BZ23" s="14"/>
-      <c r="CA23" s="14"/>
-      <c r="CB23" s="14"/>
-      <c r="CC23" s="14"/>
-      <c r="CD23" s="14"/>
-      <c r="CE23" s="14"/>
-      <c r="CF23" s="14"/>
-      <c r="CG23" s="14"/>
-      <c r="CH23" s="14"/>
-      <c r="CI23" s="14"/>
-      <c r="CJ23" s="14"/>
-      <c r="CK23" s="14"/>
-      <c r="CL23" s="14"/>
-      <c r="CM23" s="14"/>
-      <c r="CN23" s="14"/>
-      <c r="CO23" s="14"/>
-      <c r="CP23" s="14"/>
-      <c r="CQ23" s="14"/>
-      <c r="CR23" s="14"/>
-      <c r="CS23" s="14"/>
-      <c r="CT23" s="14"/>
-      <c r="CU23" s="14"/>
-      <c r="CV23" s="14"/>
-      <c r="CW23" s="14"/>
-      <c r="CX23" s="14"/>
-      <c r="CY23" s="14"/>
-      <c r="CZ23" s="14"/>
-      <c r="DA23" s="14"/>
-      <c r="DB23" s="14"/>
-      <c r="DC23" s="14"/>
-      <c r="DD23" s="14"/>
-      <c r="DE23" s="14"/>
-      <c r="DF23" s="14"/>
-      <c r="DG23" s="14"/>
-      <c r="DH23" s="14"/>
-      <c r="DI23" s="14"/>
-      <c r="DJ23" s="14"/>
-      <c r="DK23" s="14"/>
-      <c r="DL23" s="14"/>
-      <c r="DM23" s="14"/>
-      <c r="DN23" s="14"/>
-      <c r="DO23" s="14"/>
-      <c r="DP23" s="14"/>
-      <c r="DQ23" s="14"/>
-      <c r="DR23" s="14"/>
-      <c r="DS23" s="14"/>
-      <c r="DT23" s="14"/>
-      <c r="DU23" s="14"/>
-      <c r="DV23" s="14"/>
-      <c r="DW23" s="14"/>
-      <c r="DX23" s="14"/>
-      <c r="DY23" s="14"/>
-      <c r="DZ23" s="14"/>
-      <c r="EA23" s="14"/>
-      <c r="EB23" s="14"/>
-      <c r="EC23" s="14"/>
-      <c r="ED23" s="14"/>
-      <c r="EE23" s="14"/>
-      <c r="EF23" s="14"/>
-      <c r="EG23" s="14"/>
-      <c r="EH23" s="14"/>
-      <c r="EI23" s="14"/>
-      <c r="EJ23" s="14"/>
-      <c r="EK23" s="14"/>
-      <c r="EL23" s="14"/>
-      <c r="EM23" s="14"/>
-      <c r="EN23" s="14"/>
-      <c r="EO23" s="14"/>
-      <c r="EP23" s="14"/>
-      <c r="EQ23" s="14"/>
-      <c r="ER23" s="14"/>
-      <c r="ES23" s="14"/>
-      <c r="ET23" s="14"/>
-      <c r="EU23" s="14"/>
-      <c r="EV23" s="14"/>
-      <c r="EW23" s="14"/>
-      <c r="EX23" s="14"/>
-      <c r="EY23" s="14"/>
-      <c r="EZ23" s="14"/>
-      <c r="FA23" s="14"/>
-      <c r="FB23" s="14"/>
-      <c r="FC23" s="14"/>
-      <c r="FD23" s="14"/>
-      <c r="FE23" s="14"/>
-      <c r="FF23" s="14"/>
-      <c r="FG23" s="14"/>
-      <c r="FH23" s="14"/>
-      <c r="FI23" s="14"/>
-      <c r="FJ23" s="14"/>
-      <c r="FK23" s="14"/>
-      <c r="FL23" s="14"/>
-      <c r="FM23" s="14"/>
-      <c r="FN23" s="14"/>
-      <c r="FO23" s="14"/>
-      <c r="FP23" s="14"/>
-      <c r="FQ23" s="14"/>
-      <c r="FR23" s="14"/>
-      <c r="FS23" s="14"/>
-      <c r="FT23" s="14"/>
-      <c r="FU23" s="14"/>
-      <c r="FV23" s="14"/>
-      <c r="FW23" s="14"/>
-      <c r="FX23" s="14"/>
-      <c r="FY23" s="14"/>
-      <c r="FZ23" s="14"/>
-      <c r="GA23" s="14"/>
-      <c r="GB23" s="14"/>
-      <c r="GC23" s="14"/>
-      <c r="GD23" s="14"/>
-      <c r="GE23" s="14"/>
-      <c r="GF23" s="14"/>
-      <c r="GG23" s="14"/>
-      <c r="GH23" s="14"/>
-      <c r="GI23" s="14"/>
-      <c r="GJ23" s="14"/>
-      <c r="GK23" s="14"/>
-      <c r="GL23" s="14"/>
-      <c r="GM23" s="14"/>
-      <c r="GN23" s="14"/>
-      <c r="GO23" s="14"/>
-      <c r="GP23" s="14"/>
-      <c r="GQ23" s="14"/>
-      <c r="GR23" s="14"/>
-      <c r="GS23" s="14"/>
-      <c r="GT23" s="14"/>
-      <c r="GU23" s="14"/>
-      <c r="GV23" s="14"/>
-      <c r="GW23" s="14"/>
-      <c r="GX23" s="14"/>
-      <c r="GY23" s="14"/>
-      <c r="GZ23" s="14"/>
-      <c r="HA23" s="14"/>
-      <c r="HB23" s="14"/>
-      <c r="HC23" s="14"/>
-      <c r="HD23" s="14"/>
-      <c r="HE23" s="14"/>
-      <c r="HF23" s="14"/>
-      <c r="HG23" s="14"/>
-      <c r="HH23" s="14"/>
-      <c r="HI23" s="14"/>
-      <c r="HJ23" s="14"/>
-      <c r="HK23" s="14"/>
-      <c r="HL23" s="14"/>
-      <c r="HM23" s="14"/>
-      <c r="HN23" s="14"/>
-      <c r="HO23" s="14"/>
-      <c r="HP23" s="14"/>
-      <c r="HQ23" s="14"/>
-      <c r="HR23" s="14"/>
-      <c r="HS23" s="14"/>
-      <c r="HT23" s="14"/>
-      <c r="HU23" s="14"/>
-      <c r="HV23" s="14"/>
-      <c r="HW23" s="14"/>
-      <c r="HX23" s="14"/>
-      <c r="HY23" s="14"/>
-      <c r="HZ23" s="14"/>
-      <c r="IA23" s="14"/>
-      <c r="IB23" s="14"/>
-      <c r="IC23" s="14"/>
-      <c r="ID23" s="14"/>
-      <c r="IE23" s="14"/>
-      <c r="IF23" s="14"/>
-      <c r="IG23" s="14"/>
-      <c r="IH23" s="14"/>
-      <c r="II23" s="14"/>
-      <c r="IJ23" s="14"/>
-      <c r="IK23" s="14"/>
-      <c r="IL23" s="14"/>
-      <c r="IM23" s="14"/>
-      <c r="IN23" s="14"/>
-      <c r="IO23" s="14"/>
-      <c r="IP23" s="14"/>
-      <c r="IQ23" s="14"/>
-      <c r="IR23" s="14"/>
-      <c r="IS23" s="14"/>
-      <c r="IT23" s="14"/>
-      <c r="IU23" s="14"/>
-      <c r="IV23" s="14"/>
-      <c r="IW23" s="14"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="14"/>
+      <c r="BB24" s="14"/>
+      <c r="BC24" s="14"/>
+      <c r="BD24" s="14"/>
+      <c r="BE24" s="14"/>
+      <c r="BF24" s="14"/>
+      <c r="BG24" s="14"/>
+      <c r="BH24" s="14"/>
+      <c r="BI24" s="14"/>
+      <c r="BJ24" s="14"/>
+      <c r="BK24" s="14"/>
+      <c r="BL24" s="14"/>
+      <c r="BM24" s="14"/>
+      <c r="BN24" s="14"/>
+      <c r="BO24" s="14"/>
+      <c r="BP24" s="14"/>
+      <c r="BQ24" s="14"/>
+      <c r="BR24" s="14"/>
+      <c r="BS24" s="14"/>
+      <c r="BT24" s="14"/>
+      <c r="BU24" s="14"/>
+      <c r="BV24" s="14"/>
+      <c r="BW24" s="14"/>
+      <c r="BX24" s="14"/>
+      <c r="BY24" s="14"/>
+      <c r="BZ24" s="14"/>
+      <c r="CA24" s="14"/>
+      <c r="CB24" s="14"/>
+      <c r="CC24" s="14"/>
+      <c r="CD24" s="14"/>
+      <c r="CE24" s="14"/>
+      <c r="CF24" s="14"/>
+      <c r="CG24" s="14"/>
+      <c r="CH24" s="14"/>
+      <c r="CI24" s="14"/>
+      <c r="CJ24" s="14"/>
+      <c r="CK24" s="14"/>
+      <c r="CL24" s="14"/>
+      <c r="CM24" s="14"/>
+      <c r="CN24" s="14"/>
+      <c r="CO24" s="14"/>
+      <c r="CP24" s="14"/>
+      <c r="CQ24" s="14"/>
+      <c r="CR24" s="14"/>
+      <c r="CS24" s="14"/>
+      <c r="CT24" s="14"/>
+      <c r="CU24" s="14"/>
+      <c r="CV24" s="14"/>
+      <c r="CW24" s="14"/>
+      <c r="CX24" s="14"/>
+      <c r="CY24" s="14"/>
+      <c r="CZ24" s="14"/>
+      <c r="DA24" s="14"/>
+      <c r="DB24" s="14"/>
+      <c r="DC24" s="14"/>
+      <c r="DD24" s="14"/>
+      <c r="DE24" s="14"/>
+      <c r="DF24" s="14"/>
+      <c r="DG24" s="14"/>
+      <c r="DH24" s="14"/>
+      <c r="DI24" s="14"/>
+      <c r="DJ24" s="14"/>
+      <c r="DK24" s="14"/>
+      <c r="DL24" s="14"/>
+      <c r="DM24" s="14"/>
+      <c r="DN24" s="14"/>
+      <c r="DO24" s="14"/>
+      <c r="DP24" s="14"/>
+      <c r="DQ24" s="14"/>
+      <c r="DR24" s="14"/>
+      <c r="DS24" s="14"/>
+      <c r="DT24" s="14"/>
+      <c r="DU24" s="14"/>
+      <c r="DV24" s="14"/>
+      <c r="DW24" s="14"/>
+      <c r="DX24" s="14"/>
+      <c r="DY24" s="14"/>
+      <c r="DZ24" s="14"/>
+      <c r="EA24" s="14"/>
+      <c r="EB24" s="14"/>
+      <c r="EC24" s="14"/>
+      <c r="ED24" s="14"/>
+      <c r="EE24" s="14"/>
+      <c r="EF24" s="14"/>
+      <c r="EG24" s="14"/>
+      <c r="EH24" s="14"/>
+      <c r="EI24" s="14"/>
+      <c r="EJ24" s="14"/>
+      <c r="EK24" s="14"/>
+      <c r="EL24" s="14"/>
+      <c r="EM24" s="14"/>
+      <c r="EN24" s="14"/>
+      <c r="EO24" s="14"/>
+      <c r="EP24" s="14"/>
+      <c r="EQ24" s="14"/>
+      <c r="ER24" s="14"/>
+      <c r="ES24" s="14"/>
+      <c r="ET24" s="14"/>
+      <c r="EU24" s="14"/>
+      <c r="EV24" s="14"/>
+      <c r="EW24" s="14"/>
+      <c r="EX24" s="14"/>
+      <c r="EY24" s="14"/>
+      <c r="EZ24" s="14"/>
+      <c r="FA24" s="14"/>
+      <c r="FB24" s="14"/>
+      <c r="FC24" s="14"/>
+      <c r="FD24" s="14"/>
+      <c r="FE24" s="14"/>
+      <c r="FF24" s="14"/>
+      <c r="FG24" s="14"/>
+      <c r="FH24" s="14"/>
+      <c r="FI24" s="14"/>
+      <c r="FJ24" s="14"/>
+      <c r="FK24" s="14"/>
+      <c r="FL24" s="14"/>
+      <c r="FM24" s="14"/>
+      <c r="FN24" s="14"/>
+      <c r="FO24" s="14"/>
+      <c r="FP24" s="14"/>
+      <c r="FQ24" s="14"/>
+      <c r="FR24" s="14"/>
+      <c r="FS24" s="14"/>
+      <c r="FT24" s="14"/>
+      <c r="FU24" s="14"/>
+      <c r="FV24" s="14"/>
+      <c r="FW24" s="14"/>
+      <c r="FX24" s="14"/>
+      <c r="FY24" s="14"/>
+      <c r="FZ24" s="14"/>
+      <c r="GA24" s="14"/>
+      <c r="GB24" s="14"/>
+      <c r="GC24" s="14"/>
+      <c r="GD24" s="14"/>
+      <c r="GE24" s="14"/>
+      <c r="GF24" s="14"/>
+      <c r="GG24" s="14"/>
+      <c r="GH24" s="14"/>
+      <c r="GI24" s="14"/>
+      <c r="GJ24" s="14"/>
+      <c r="GK24" s="14"/>
+      <c r="GL24" s="14"/>
+      <c r="GM24" s="14"/>
+      <c r="GN24" s="14"/>
+      <c r="GO24" s="14"/>
+      <c r="GP24" s="14"/>
+      <c r="GQ24" s="14"/>
+      <c r="GR24" s="14"/>
+      <c r="GS24" s="14"/>
+      <c r="GT24" s="14"/>
+      <c r="GU24" s="14"/>
+      <c r="GV24" s="14"/>
+      <c r="GW24" s="14"/>
+      <c r="GX24" s="14"/>
+      <c r="GY24" s="14"/>
+      <c r="GZ24" s="14"/>
+      <c r="HA24" s="14"/>
+      <c r="HB24" s="14"/>
+      <c r="HC24" s="14"/>
+      <c r="HD24" s="14"/>
+      <c r="HE24" s="14"/>
+      <c r="HF24" s="14"/>
+      <c r="HG24" s="14"/>
+      <c r="HH24" s="14"/>
+      <c r="HI24" s="14"/>
+      <c r="HJ24" s="14"/>
+      <c r="HK24" s="14"/>
+      <c r="HL24" s="14"/>
+      <c r="HM24" s="14"/>
+      <c r="HN24" s="14"/>
+      <c r="HO24" s="14"/>
+      <c r="HP24" s="14"/>
+      <c r="HQ24" s="14"/>
+      <c r="HR24" s="14"/>
+      <c r="HS24" s="14"/>
+      <c r="HT24" s="14"/>
+      <c r="HU24" s="14"/>
+      <c r="HV24" s="14"/>
+      <c r="HW24" s="14"/>
+      <c r="HX24" s="14"/>
+      <c r="HY24" s="14"/>
+      <c r="HZ24" s="14"/>
+      <c r="IA24" s="14"/>
+      <c r="IB24" s="14"/>
+      <c r="IC24" s="14"/>
+      <c r="ID24" s="14"/>
+      <c r="IE24" s="14"/>
+      <c r="IF24" s="14"/>
+      <c r="IG24" s="14"/>
+      <c r="IH24" s="14"/>
+      <c r="II24" s="14"/>
+      <c r="IJ24" s="14"/>
+      <c r="IK24" s="14"/>
+      <c r="IL24" s="14"/>
+      <c r="IM24" s="14"/>
+      <c r="IN24" s="14"/>
+      <c r="IO24" s="14"/>
+      <c r="IP24" s="14"/>
+      <c r="IQ24" s="14"/>
+      <c r="IR24" s="14"/>
+      <c r="IS24" s="14"/>
+      <c r="IT24" s="14"/>
+      <c r="IU24" s="14"/>
+      <c r="IV24" s="14"/>
+      <c r="IW24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5772,10 +6074,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV41"/>
+  <dimension ref="A1:IV42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13" customHeight="1"/>
@@ -5785,39 +6087,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.75" customHeight="1">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:7" ht="15.5" customHeight="1">
-      <c r="A2" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="A2" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:7" ht="15.5" customHeight="1">
-      <c r="A3" s="46"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="32" t="s">
         <v>52</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A4" s="47" t="s">
-        <v>54</v>
+      <c r="A4" s="46" t="s">
+        <v>53</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5825,66 +6127,66 @@
       <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="C5" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A6" s="48" t="s">
-        <v>105</v>
+      <c r="A6" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>57</v>
-      </c>
       <c r="E6" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="D7" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A8" s="46"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
     </row>
     <row r="9" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A9" s="47" t="s">
-        <v>60</v>
+      <c r="A9" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -5892,94 +6194,94 @@
       <c r="E9" s="33"/>
     </row>
     <row r="10" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A10" s="49" t="s">
-        <v>61</v>
+      <c r="A10" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>57</v>
-      </c>
       <c r="E10" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A11" s="48" t="s">
-        <v>106</v>
+      <c r="A11" s="47" t="s">
+        <v>105</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>56</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A12" s="49" t="s">
-        <v>62</v>
+      <c r="A12" s="48" t="s">
+        <v>61</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13" customHeight="1">
       <c r="A15" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+        <v>94</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1">
-      <c r="A16" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
+      <c r="A16" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="1:256" ht="33" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
+        <v>106</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -6232,16 +6534,16 @@
     </row>
     <row r="18" spans="1:256" ht="32" customHeight="1">
       <c r="A18" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -8038,378 +8340,418 @@
       <c r="IS24" s="14"/>
       <c r="IT24" s="14"/>
       <c r="IU24" s="14"/>
-      <c r="IV24" s="14"/>
+      <c r="IV24"/>
     </row>
     <row r="25" spans="1:256" ht="13" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="14"/>
-      <c r="AM25" s="14"/>
-      <c r="AN25" s="14"/>
-      <c r="AO25" s="14"/>
-      <c r="AP25" s="14"/>
-      <c r="AQ25" s="14"/>
-      <c r="AR25" s="14"/>
-      <c r="AS25" s="14"/>
-      <c r="AT25" s="14"/>
-      <c r="AU25" s="14"/>
-      <c r="AV25" s="14"/>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="14"/>
-      <c r="AY25" s="14"/>
-      <c r="AZ25" s="14"/>
-      <c r="BA25" s="14"/>
-      <c r="BB25" s="14"/>
-      <c r="BC25" s="14"/>
-      <c r="BD25" s="14"/>
-      <c r="BE25" s="14"/>
-      <c r="BF25" s="14"/>
-      <c r="BG25" s="14"/>
-      <c r="BH25" s="14"/>
-      <c r="BI25" s="14"/>
-      <c r="BJ25" s="14"/>
-      <c r="BK25" s="14"/>
-      <c r="BL25" s="14"/>
-      <c r="BM25" s="14"/>
-      <c r="BN25" s="14"/>
-      <c r="BO25" s="14"/>
-      <c r="BP25" s="14"/>
-      <c r="BQ25" s="14"/>
-      <c r="BR25" s="14"/>
-      <c r="BS25" s="14"/>
-      <c r="BT25" s="14"/>
-      <c r="BU25" s="14"/>
-      <c r="BV25" s="14"/>
-      <c r="BW25" s="14"/>
-      <c r="BX25" s="14"/>
-      <c r="BY25" s="14"/>
-      <c r="BZ25" s="14"/>
-      <c r="CA25" s="14"/>
-      <c r="CB25" s="14"/>
-      <c r="CC25" s="14"/>
-      <c r="CD25" s="14"/>
-      <c r="CE25" s="14"/>
-      <c r="CF25" s="14"/>
-      <c r="CG25" s="14"/>
-      <c r="CH25" s="14"/>
-      <c r="CI25" s="14"/>
-      <c r="CJ25" s="14"/>
-      <c r="CK25" s="14"/>
-      <c r="CL25" s="14"/>
-      <c r="CM25" s="14"/>
-      <c r="CN25" s="14"/>
-      <c r="CO25" s="14"/>
-      <c r="CP25" s="14"/>
-      <c r="CQ25" s="14"/>
-      <c r="CR25" s="14"/>
-      <c r="CS25" s="14"/>
-      <c r="CT25" s="14"/>
-      <c r="CU25" s="14"/>
-      <c r="CV25" s="14"/>
-      <c r="CW25" s="14"/>
-      <c r="CX25" s="14"/>
-      <c r="CY25" s="14"/>
-      <c r="CZ25" s="14"/>
-      <c r="DA25" s="14"/>
-      <c r="DB25" s="14"/>
-      <c r="DC25" s="14"/>
-      <c r="DD25" s="14"/>
-      <c r="DE25" s="14"/>
-      <c r="DF25" s="14"/>
-      <c r="DG25" s="14"/>
-      <c r="DH25" s="14"/>
-      <c r="DI25" s="14"/>
-      <c r="DJ25" s="14"/>
-      <c r="DK25" s="14"/>
-      <c r="DL25" s="14"/>
-      <c r="DM25" s="14"/>
-      <c r="DN25" s="14"/>
-      <c r="DO25" s="14"/>
-      <c r="DP25" s="14"/>
-      <c r="DQ25" s="14"/>
-      <c r="DR25" s="14"/>
-      <c r="DS25" s="14"/>
-      <c r="DT25" s="14"/>
-      <c r="DU25" s="14"/>
-      <c r="DV25" s="14"/>
-      <c r="DW25" s="14"/>
-      <c r="DX25" s="14"/>
-      <c r="DY25" s="14"/>
-      <c r="DZ25" s="14"/>
-      <c r="EA25" s="14"/>
-      <c r="EB25" s="14"/>
-      <c r="EC25" s="14"/>
-      <c r="ED25" s="14"/>
-      <c r="EE25" s="14"/>
-      <c r="EF25" s="14"/>
-      <c r="EG25" s="14"/>
-      <c r="EH25" s="14"/>
-      <c r="EI25" s="14"/>
-      <c r="EJ25" s="14"/>
-      <c r="EK25" s="14"/>
-      <c r="EL25" s="14"/>
-      <c r="EM25" s="14"/>
-      <c r="EN25" s="14"/>
-      <c r="EO25" s="14"/>
-      <c r="EP25" s="14"/>
-      <c r="EQ25" s="14"/>
-      <c r="ER25" s="14"/>
-      <c r="ES25" s="14"/>
-      <c r="ET25" s="14"/>
-      <c r="EU25" s="14"/>
-      <c r="EV25" s="14"/>
-      <c r="EW25" s="14"/>
-      <c r="EX25" s="14"/>
-      <c r="EY25" s="14"/>
-      <c r="EZ25" s="14"/>
-      <c r="FA25" s="14"/>
-      <c r="FB25" s="14"/>
-      <c r="FC25" s="14"/>
-      <c r="FD25" s="14"/>
-      <c r="FE25" s="14"/>
-      <c r="FF25" s="14"/>
-      <c r="FG25" s="14"/>
-      <c r="FH25" s="14"/>
-      <c r="FI25" s="14"/>
-      <c r="FJ25" s="14"/>
-      <c r="FK25" s="14"/>
-      <c r="FL25" s="14"/>
-      <c r="FM25" s="14"/>
-      <c r="FN25" s="14"/>
-      <c r="FO25" s="14"/>
-      <c r="FP25" s="14"/>
-      <c r="FQ25" s="14"/>
-      <c r="FR25" s="14"/>
-      <c r="FS25" s="14"/>
-      <c r="FT25" s="14"/>
-      <c r="FU25" s="14"/>
-      <c r="FV25" s="14"/>
-      <c r="FW25" s="14"/>
-      <c r="FX25" s="14"/>
-      <c r="FY25" s="14"/>
-      <c r="FZ25" s="14"/>
-      <c r="GA25" s="14"/>
-      <c r="GB25" s="14"/>
-      <c r="GC25" s="14"/>
-      <c r="GD25" s="14"/>
-      <c r="GE25" s="14"/>
-      <c r="GF25" s="14"/>
-      <c r="GG25" s="14"/>
-      <c r="GH25" s="14"/>
-      <c r="GI25" s="14"/>
-      <c r="GJ25" s="14"/>
-      <c r="GK25" s="14"/>
-      <c r="GL25" s="14"/>
-      <c r="GM25" s="14"/>
-      <c r="GN25" s="14"/>
-      <c r="GO25" s="14"/>
-      <c r="GP25" s="14"/>
-      <c r="GQ25" s="14"/>
-      <c r="GR25" s="14"/>
-      <c r="GS25" s="14"/>
-      <c r="GT25" s="14"/>
-      <c r="GU25" s="14"/>
-      <c r="GV25" s="14"/>
-      <c r="GW25" s="14"/>
-      <c r="GX25" s="14"/>
-      <c r="GY25" s="14"/>
-      <c r="GZ25" s="14"/>
-      <c r="HA25" s="14"/>
-      <c r="HB25" s="14"/>
-      <c r="HC25" s="14"/>
-      <c r="HD25" s="14"/>
-      <c r="HE25" s="14"/>
-      <c r="HF25" s="14"/>
-      <c r="HG25" s="14"/>
-      <c r="HH25" s="14"/>
-      <c r="HI25" s="14"/>
-      <c r="HJ25" s="14"/>
-      <c r="HK25" s="14"/>
-      <c r="HL25" s="14"/>
-      <c r="HM25" s="14"/>
-      <c r="HN25" s="14"/>
-      <c r="HO25" s="14"/>
-      <c r="HP25" s="14"/>
-      <c r="HQ25" s="14"/>
-      <c r="HR25" s="14"/>
-      <c r="HS25" s="14"/>
-      <c r="HT25" s="14"/>
-      <c r="HU25" s="14"/>
-      <c r="HV25" s="14"/>
-      <c r="HW25" s="14"/>
-      <c r="HX25" s="14"/>
-      <c r="HY25" s="14"/>
-      <c r="HZ25" s="14"/>
-      <c r="IA25" s="14"/>
-      <c r="IB25" s="14"/>
-      <c r="IC25" s="14"/>
-      <c r="ID25" s="14"/>
-      <c r="IE25" s="14"/>
-      <c r="IF25" s="14"/>
-      <c r="IG25" s="14"/>
-      <c r="IH25" s="14"/>
-      <c r="II25" s="14"/>
-      <c r="IJ25" s="14"/>
-      <c r="IK25" s="14"/>
-      <c r="IL25" s="14"/>
-      <c r="IM25" s="14"/>
-      <c r="IN25" s="14"/>
-      <c r="IO25" s="14"/>
-      <c r="IP25" s="14"/>
-      <c r="IQ25" s="14"/>
-      <c r="IR25" s="14"/>
-      <c r="IS25" s="14"/>
-      <c r="IT25" s="14"/>
-      <c r="IU25" s="14"/>
-      <c r="IV25" s="14"/>
+      <c r="A25" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="IV25"/>
     </row>
     <row r="26" spans="1:256" ht="13" customHeight="1">
-      <c r="A26" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="IV26"/>
     </row>
     <row r="27" spans="1:256" ht="13" customHeight="1">
-      <c r="A27" s="46"/>
-      <c r="B27" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>52</v>
-      </c>
+      <c r="A27" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="IV27"/>
     </row>
     <row r="28" spans="1:256" ht="13" customHeight="1">
       <c r="A28" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+        <v>108</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="IV28"/>
     </row>
     <row r="29" spans="1:256" ht="13" customHeight="1">
-      <c r="A29" s="48" t="s">
-        <v>109</v>
+      <c r="A29" s="47" t="s">
+        <v>107</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="34" t="s">
         <v>56</v>
       </c>
+      <c r="E29" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="IV29"/>
     </row>
-    <row r="30" spans="1:256" ht="13" customHeight="1">
-      <c r="A30" s="48" t="s">
-        <v>108</v>
+    <row r="30" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A30" s="47" t="s">
+        <v>129</v>
       </c>
       <c r="B30" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>57</v>
-      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="14"/>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="14"/>
+      <c r="AS30" s="14"/>
+      <c r="AT30" s="14"/>
+      <c r="AU30" s="14"/>
+      <c r="AV30" s="14"/>
+      <c r="AW30" s="14"/>
+      <c r="AX30" s="14"/>
+      <c r="AY30" s="14"/>
+      <c r="AZ30" s="14"/>
+      <c r="BA30" s="14"/>
+      <c r="BB30" s="14"/>
+      <c r="BC30" s="14"/>
+      <c r="BD30" s="14"/>
+      <c r="BE30" s="14"/>
+      <c r="BF30" s="14"/>
+      <c r="BG30" s="14"/>
+      <c r="BH30" s="14"/>
+      <c r="BI30" s="14"/>
+      <c r="BJ30" s="14"/>
+      <c r="BK30" s="14"/>
+      <c r="BL30" s="14"/>
+      <c r="BM30" s="14"/>
+      <c r="BN30" s="14"/>
+      <c r="BO30" s="14"/>
+      <c r="BP30" s="14"/>
+      <c r="BQ30" s="14"/>
+      <c r="BR30" s="14"/>
+      <c r="BS30" s="14"/>
+      <c r="BT30" s="14"/>
+      <c r="BU30" s="14"/>
+      <c r="BV30" s="14"/>
+      <c r="BW30" s="14"/>
+      <c r="BX30" s="14"/>
+      <c r="BY30" s="14"/>
+      <c r="BZ30" s="14"/>
+      <c r="CA30" s="14"/>
+      <c r="CB30" s="14"/>
+      <c r="CC30" s="14"/>
+      <c r="CD30" s="14"/>
+      <c r="CE30" s="14"/>
+      <c r="CF30" s="14"/>
+      <c r="CG30" s="14"/>
+      <c r="CH30" s="14"/>
+      <c r="CI30" s="14"/>
+      <c r="CJ30" s="14"/>
+      <c r="CK30" s="14"/>
+      <c r="CL30" s="14"/>
+      <c r="CM30" s="14"/>
+      <c r="CN30" s="14"/>
+      <c r="CO30" s="14"/>
+      <c r="CP30" s="14"/>
+      <c r="CQ30" s="14"/>
+      <c r="CR30" s="14"/>
+      <c r="CS30" s="14"/>
+      <c r="CT30" s="14"/>
+      <c r="CU30" s="14"/>
+      <c r="CV30" s="14"/>
+      <c r="CW30" s="14"/>
+      <c r="CX30" s="14"/>
+      <c r="CY30" s="14"/>
+      <c r="CZ30" s="14"/>
+      <c r="DA30" s="14"/>
+      <c r="DB30" s="14"/>
+      <c r="DC30" s="14"/>
+      <c r="DD30" s="14"/>
+      <c r="DE30" s="14"/>
+      <c r="DF30" s="14"/>
+      <c r="DG30" s="14"/>
+      <c r="DH30" s="14"/>
+      <c r="DI30" s="14"/>
+      <c r="DJ30" s="14"/>
+      <c r="DK30" s="14"/>
+      <c r="DL30" s="14"/>
+      <c r="DM30" s="14"/>
+      <c r="DN30" s="14"/>
+      <c r="DO30" s="14"/>
+      <c r="DP30" s="14"/>
+      <c r="DQ30" s="14"/>
+      <c r="DR30" s="14"/>
+      <c r="DS30" s="14"/>
+      <c r="DT30" s="14"/>
+      <c r="DU30" s="14"/>
+      <c r="DV30" s="14"/>
+      <c r="DW30" s="14"/>
+      <c r="DX30" s="14"/>
+      <c r="DY30" s="14"/>
+      <c r="DZ30" s="14"/>
+      <c r="EA30" s="14"/>
+      <c r="EB30" s="14"/>
+      <c r="EC30" s="14"/>
+      <c r="ED30" s="14"/>
+      <c r="EE30" s="14"/>
+      <c r="EF30" s="14"/>
+      <c r="EG30" s="14"/>
+      <c r="EH30" s="14"/>
+      <c r="EI30" s="14"/>
+      <c r="EJ30" s="14"/>
+      <c r="EK30" s="14"/>
+      <c r="EL30" s="14"/>
+      <c r="EM30" s="14"/>
+      <c r="EN30" s="14"/>
+      <c r="EO30" s="14"/>
+      <c r="EP30" s="14"/>
+      <c r="EQ30" s="14"/>
+      <c r="ER30" s="14"/>
+      <c r="ES30" s="14"/>
+      <c r="ET30" s="14"/>
+      <c r="EU30" s="14"/>
+      <c r="EV30" s="14"/>
+      <c r="EW30" s="14"/>
+      <c r="EX30" s="14"/>
+      <c r="EY30" s="14"/>
+      <c r="EZ30" s="14"/>
+      <c r="FA30" s="14"/>
+      <c r="FB30" s="14"/>
+      <c r="FC30" s="14"/>
+      <c r="FD30" s="14"/>
+      <c r="FE30" s="14"/>
+      <c r="FF30" s="14"/>
+      <c r="FG30" s="14"/>
+      <c r="FH30" s="14"/>
+      <c r="FI30" s="14"/>
+      <c r="FJ30" s="14"/>
+      <c r="FK30" s="14"/>
+      <c r="FL30" s="14"/>
+      <c r="FM30" s="14"/>
+      <c r="FN30" s="14"/>
+      <c r="FO30" s="14"/>
+      <c r="FP30" s="14"/>
+      <c r="FQ30" s="14"/>
+      <c r="FR30" s="14"/>
+      <c r="FS30" s="14"/>
+      <c r="FT30" s="14"/>
+      <c r="FU30" s="14"/>
+      <c r="FV30" s="14"/>
+      <c r="FW30" s="14"/>
+      <c r="FX30" s="14"/>
+      <c r="FY30" s="14"/>
+      <c r="FZ30" s="14"/>
+      <c r="GA30" s="14"/>
+      <c r="GB30" s="14"/>
+      <c r="GC30" s="14"/>
+      <c r="GD30" s="14"/>
+      <c r="GE30" s="14"/>
+      <c r="GF30" s="14"/>
+      <c r="GG30" s="14"/>
+      <c r="GH30" s="14"/>
+      <c r="GI30" s="14"/>
+      <c r="GJ30" s="14"/>
+      <c r="GK30" s="14"/>
+      <c r="GL30" s="14"/>
+      <c r="GM30" s="14"/>
+      <c r="GN30" s="14"/>
+      <c r="GO30" s="14"/>
+      <c r="GP30" s="14"/>
+      <c r="GQ30" s="14"/>
+      <c r="GR30" s="14"/>
+      <c r="GS30" s="14"/>
+      <c r="GT30" s="14"/>
+      <c r="GU30" s="14"/>
+      <c r="GV30" s="14"/>
+      <c r="GW30" s="14"/>
+      <c r="GX30" s="14"/>
+      <c r="GY30" s="14"/>
+      <c r="GZ30" s="14"/>
+      <c r="HA30" s="14"/>
+      <c r="HB30" s="14"/>
+      <c r="HC30" s="14"/>
+      <c r="HD30" s="14"/>
+      <c r="HE30" s="14"/>
+      <c r="HF30" s="14"/>
+      <c r="HG30" s="14"/>
+      <c r="HH30" s="14"/>
+      <c r="HI30" s="14"/>
+      <c r="HJ30" s="14"/>
+      <c r="HK30" s="14"/>
+      <c r="HL30" s="14"/>
+      <c r="HM30" s="14"/>
+      <c r="HN30" s="14"/>
+      <c r="HO30" s="14"/>
+      <c r="HP30" s="14"/>
+      <c r="HQ30" s="14"/>
+      <c r="HR30" s="14"/>
+      <c r="HS30" s="14"/>
+      <c r="HT30" s="14"/>
+      <c r="HU30" s="14"/>
+      <c r="HV30" s="14"/>
+      <c r="HW30" s="14"/>
+      <c r="HX30" s="14"/>
+      <c r="HY30" s="14"/>
+      <c r="HZ30" s="14"/>
+      <c r="IA30" s="14"/>
+      <c r="IB30" s="14"/>
+      <c r="IC30" s="14"/>
+      <c r="ID30" s="14"/>
+      <c r="IE30" s="14"/>
+      <c r="IF30" s="14"/>
+      <c r="IG30" s="14"/>
+      <c r="IH30" s="14"/>
+      <c r="II30" s="14"/>
+      <c r="IJ30" s="14"/>
+      <c r="IK30" s="14"/>
+      <c r="IL30" s="14"/>
+      <c r="IM30" s="14"/>
+      <c r="IN30" s="14"/>
+      <c r="IO30" s="14"/>
+      <c r="IP30" s="14"/>
+      <c r="IQ30" s="14"/>
+      <c r="IR30" s="14"/>
+      <c r="IS30" s="14"/>
+      <c r="IT30" s="14"/>
+      <c r="IU30" s="14"/>
+      <c r="IV30"/>
     </row>
     <row r="31" spans="1:256" ht="13" customHeight="1">
-      <c r="A31" s="46"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="IV31"/>
     </row>
     <row r="32" spans="1:256" ht="13" customHeight="1">
-      <c r="A32" s="47" t="s">
-        <v>60</v>
+      <c r="A32" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="IV32"/>
     </row>
     <row r="33" spans="1:256" ht="13" customHeight="1">
-      <c r="A33" s="49" t="s">
-        <v>64</v>
+      <c r="A33" s="48" t="s">
+        <v>63</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="34" t="s">
-        <v>57</v>
-      </c>
+      <c r="E33" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="IV33"/>
     </row>
     <row r="34" spans="1:256" ht="13" customHeight="1">
-      <c r="A34" s="49" t="s">
-        <v>65</v>
+      <c r="A34" s="48" t="s">
+        <v>64</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="34" t="s">
         <v>56</v>
       </c>
+      <c r="IV34"/>
     </row>
     <row r="35" spans="1:256" ht="13" customHeight="1">
-      <c r="A35" s="49" t="s">
-        <v>96</v>
+      <c r="A35" s="48" t="s">
+        <v>95</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
@@ -8660,315 +9002,583 @@
       <c r="IS35" s="14"/>
       <c r="IT35" s="14"/>
       <c r="IU35" s="14"/>
-      <c r="IV35" s="14"/>
+      <c r="IV35"/>
     </row>
-    <row r="38" spans="1:256" ht="13" customHeight="1">
-      <c r="A38" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
+    <row r="36" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A36" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="14"/>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="14"/>
+      <c r="AR36" s="14"/>
+      <c r="AS36" s="14"/>
+      <c r="AT36" s="14"/>
+      <c r="AU36" s="14"/>
+      <c r="AV36" s="14"/>
+      <c r="AW36" s="14"/>
+      <c r="AX36" s="14"/>
+      <c r="AY36" s="14"/>
+      <c r="AZ36" s="14"/>
+      <c r="BA36" s="14"/>
+      <c r="BB36" s="14"/>
+      <c r="BC36" s="14"/>
+      <c r="BD36" s="14"/>
+      <c r="BE36" s="14"/>
+      <c r="BF36" s="14"/>
+      <c r="BG36" s="14"/>
+      <c r="BH36" s="14"/>
+      <c r="BI36" s="14"/>
+      <c r="BJ36" s="14"/>
+      <c r="BK36" s="14"/>
+      <c r="BL36" s="14"/>
+      <c r="BM36" s="14"/>
+      <c r="BN36" s="14"/>
+      <c r="BO36" s="14"/>
+      <c r="BP36" s="14"/>
+      <c r="BQ36" s="14"/>
+      <c r="BR36" s="14"/>
+      <c r="BS36" s="14"/>
+      <c r="BT36" s="14"/>
+      <c r="BU36" s="14"/>
+      <c r="BV36" s="14"/>
+      <c r="BW36" s="14"/>
+      <c r="BX36" s="14"/>
+      <c r="BY36" s="14"/>
+      <c r="BZ36" s="14"/>
+      <c r="CA36" s="14"/>
+      <c r="CB36" s="14"/>
+      <c r="CC36" s="14"/>
+      <c r="CD36" s="14"/>
+      <c r="CE36" s="14"/>
+      <c r="CF36" s="14"/>
+      <c r="CG36" s="14"/>
+      <c r="CH36" s="14"/>
+      <c r="CI36" s="14"/>
+      <c r="CJ36" s="14"/>
+      <c r="CK36" s="14"/>
+      <c r="CL36" s="14"/>
+      <c r="CM36" s="14"/>
+      <c r="CN36" s="14"/>
+      <c r="CO36" s="14"/>
+      <c r="CP36" s="14"/>
+      <c r="CQ36" s="14"/>
+      <c r="CR36" s="14"/>
+      <c r="CS36" s="14"/>
+      <c r="CT36" s="14"/>
+      <c r="CU36" s="14"/>
+      <c r="CV36" s="14"/>
+      <c r="CW36" s="14"/>
+      <c r="CX36" s="14"/>
+      <c r="CY36" s="14"/>
+      <c r="CZ36" s="14"/>
+      <c r="DA36" s="14"/>
+      <c r="DB36" s="14"/>
+      <c r="DC36" s="14"/>
+      <c r="DD36" s="14"/>
+      <c r="DE36" s="14"/>
+      <c r="DF36" s="14"/>
+      <c r="DG36" s="14"/>
+      <c r="DH36" s="14"/>
+      <c r="DI36" s="14"/>
+      <c r="DJ36" s="14"/>
+      <c r="DK36" s="14"/>
+      <c r="DL36" s="14"/>
+      <c r="DM36" s="14"/>
+      <c r="DN36" s="14"/>
+      <c r="DO36" s="14"/>
+      <c r="DP36" s="14"/>
+      <c r="DQ36" s="14"/>
+      <c r="DR36" s="14"/>
+      <c r="DS36" s="14"/>
+      <c r="DT36" s="14"/>
+      <c r="DU36" s="14"/>
+      <c r="DV36" s="14"/>
+      <c r="DW36" s="14"/>
+      <c r="DX36" s="14"/>
+      <c r="DY36" s="14"/>
+      <c r="DZ36" s="14"/>
+      <c r="EA36" s="14"/>
+      <c r="EB36" s="14"/>
+      <c r="EC36" s="14"/>
+      <c r="ED36" s="14"/>
+      <c r="EE36" s="14"/>
+      <c r="EF36" s="14"/>
+      <c r="EG36" s="14"/>
+      <c r="EH36" s="14"/>
+      <c r="EI36" s="14"/>
+      <c r="EJ36" s="14"/>
+      <c r="EK36" s="14"/>
+      <c r="EL36" s="14"/>
+      <c r="EM36" s="14"/>
+      <c r="EN36" s="14"/>
+      <c r="EO36" s="14"/>
+      <c r="EP36" s="14"/>
+      <c r="EQ36" s="14"/>
+      <c r="ER36" s="14"/>
+      <c r="ES36" s="14"/>
+      <c r="ET36" s="14"/>
+      <c r="EU36" s="14"/>
+      <c r="EV36" s="14"/>
+      <c r="EW36" s="14"/>
+      <c r="EX36" s="14"/>
+      <c r="EY36" s="14"/>
+      <c r="EZ36" s="14"/>
+      <c r="FA36" s="14"/>
+      <c r="FB36" s="14"/>
+      <c r="FC36" s="14"/>
+      <c r="FD36" s="14"/>
+      <c r="FE36" s="14"/>
+      <c r="FF36" s="14"/>
+      <c r="FG36" s="14"/>
+      <c r="FH36" s="14"/>
+      <c r="FI36" s="14"/>
+      <c r="FJ36" s="14"/>
+      <c r="FK36" s="14"/>
+      <c r="FL36" s="14"/>
+      <c r="FM36" s="14"/>
+      <c r="FN36" s="14"/>
+      <c r="FO36" s="14"/>
+      <c r="FP36" s="14"/>
+      <c r="FQ36" s="14"/>
+      <c r="FR36" s="14"/>
+      <c r="FS36" s="14"/>
+      <c r="FT36" s="14"/>
+      <c r="FU36" s="14"/>
+      <c r="FV36" s="14"/>
+      <c r="FW36" s="14"/>
+      <c r="FX36" s="14"/>
+      <c r="FY36" s="14"/>
+      <c r="FZ36" s="14"/>
+      <c r="GA36" s="14"/>
+      <c r="GB36" s="14"/>
+      <c r="GC36" s="14"/>
+      <c r="GD36" s="14"/>
+      <c r="GE36" s="14"/>
+      <c r="GF36" s="14"/>
+      <c r="GG36" s="14"/>
+      <c r="GH36" s="14"/>
+      <c r="GI36" s="14"/>
+      <c r="GJ36" s="14"/>
+      <c r="GK36" s="14"/>
+      <c r="GL36" s="14"/>
+      <c r="GM36" s="14"/>
+      <c r="GN36" s="14"/>
+      <c r="GO36" s="14"/>
+      <c r="GP36" s="14"/>
+      <c r="GQ36" s="14"/>
+      <c r="GR36" s="14"/>
+      <c r="GS36" s="14"/>
+      <c r="GT36" s="14"/>
+      <c r="GU36" s="14"/>
+      <c r="GV36" s="14"/>
+      <c r="GW36" s="14"/>
+      <c r="GX36" s="14"/>
+      <c r="GY36" s="14"/>
+      <c r="GZ36" s="14"/>
+      <c r="HA36" s="14"/>
+      <c r="HB36" s="14"/>
+      <c r="HC36" s="14"/>
+      <c r="HD36" s="14"/>
+      <c r="HE36" s="14"/>
+      <c r="HF36" s="14"/>
+      <c r="HG36" s="14"/>
+      <c r="HH36" s="14"/>
+      <c r="HI36" s="14"/>
+      <c r="HJ36" s="14"/>
+      <c r="HK36" s="14"/>
+      <c r="HL36" s="14"/>
+      <c r="HM36" s="14"/>
+      <c r="HN36" s="14"/>
+      <c r="HO36" s="14"/>
+      <c r="HP36" s="14"/>
+      <c r="HQ36" s="14"/>
+      <c r="HR36" s="14"/>
+      <c r="HS36" s="14"/>
+      <c r="HT36" s="14"/>
+      <c r="HU36" s="14"/>
+      <c r="HV36" s="14"/>
+      <c r="HW36" s="14"/>
+      <c r="HX36" s="14"/>
+      <c r="HY36" s="14"/>
+      <c r="HZ36" s="14"/>
+      <c r="IA36" s="14"/>
+      <c r="IB36" s="14"/>
+      <c r="IC36" s="14"/>
+      <c r="ID36" s="14"/>
+      <c r="IE36" s="14"/>
+      <c r="IF36" s="14"/>
+      <c r="IG36" s="14"/>
+      <c r="IH36" s="14"/>
+      <c r="II36" s="14"/>
+      <c r="IJ36" s="14"/>
+      <c r="IK36" s="14"/>
+      <c r="IL36" s="14"/>
+      <c r="IM36" s="14"/>
+      <c r="IN36" s="14"/>
+      <c r="IO36" s="14"/>
+      <c r="IP36" s="14"/>
+      <c r="IQ36" s="14"/>
+      <c r="IR36" s="14"/>
+      <c r="IS36" s="14"/>
+      <c r="IT36" s="14"/>
+      <c r="IU36" s="14"/>
+      <c r="IV36"/>
     </row>
-    <row r="39" spans="1:256" ht="39" customHeight="1">
-      <c r="A39" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
+    <row r="39" spans="1:256" ht="13" customHeight="1">
+      <c r="A39" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
     </row>
     <row r="40" spans="1:256" ht="39" customHeight="1">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
     </row>
     <row r="41" spans="1:256" ht="39" customHeight="1">
-      <c r="A41" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
-      <c r="AI41" s="14"/>
-      <c r="AJ41" s="14"/>
-      <c r="AK41" s="14"/>
-      <c r="AL41" s="14"/>
-      <c r="AM41" s="14"/>
-      <c r="AN41" s="14"/>
-      <c r="AO41" s="14"/>
-      <c r="AP41" s="14"/>
-      <c r="AQ41" s="14"/>
-      <c r="AR41" s="14"/>
-      <c r="AS41" s="14"/>
-      <c r="AT41" s="14"/>
-      <c r="AU41" s="14"/>
-      <c r="AV41" s="14"/>
-      <c r="AW41" s="14"/>
-      <c r="AX41" s="14"/>
-      <c r="AY41" s="14"/>
-      <c r="AZ41" s="14"/>
-      <c r="BA41" s="14"/>
-      <c r="BB41" s="14"/>
-      <c r="BC41" s="14"/>
-      <c r="BD41" s="14"/>
-      <c r="BE41" s="14"/>
-      <c r="BF41" s="14"/>
-      <c r="BG41" s="14"/>
-      <c r="BH41" s="14"/>
-      <c r="BI41" s="14"/>
-      <c r="BJ41" s="14"/>
-      <c r="BK41" s="14"/>
-      <c r="BL41" s="14"/>
-      <c r="BM41" s="14"/>
-      <c r="BN41" s="14"/>
-      <c r="BO41" s="14"/>
-      <c r="BP41" s="14"/>
-      <c r="BQ41" s="14"/>
-      <c r="BR41" s="14"/>
-      <c r="BS41" s="14"/>
-      <c r="BT41" s="14"/>
-      <c r="BU41" s="14"/>
-      <c r="BV41" s="14"/>
-      <c r="BW41" s="14"/>
-      <c r="BX41" s="14"/>
-      <c r="BY41" s="14"/>
-      <c r="BZ41" s="14"/>
-      <c r="CA41" s="14"/>
-      <c r="CB41" s="14"/>
-      <c r="CC41" s="14"/>
-      <c r="CD41" s="14"/>
-      <c r="CE41" s="14"/>
-      <c r="CF41" s="14"/>
-      <c r="CG41" s="14"/>
-      <c r="CH41" s="14"/>
-      <c r="CI41" s="14"/>
-      <c r="CJ41" s="14"/>
-      <c r="CK41" s="14"/>
-      <c r="CL41" s="14"/>
-      <c r="CM41" s="14"/>
-      <c r="CN41" s="14"/>
-      <c r="CO41" s="14"/>
-      <c r="CP41" s="14"/>
-      <c r="CQ41" s="14"/>
-      <c r="CR41" s="14"/>
-      <c r="CS41" s="14"/>
-      <c r="CT41" s="14"/>
-      <c r="CU41" s="14"/>
-      <c r="CV41" s="14"/>
-      <c r="CW41" s="14"/>
-      <c r="CX41" s="14"/>
-      <c r="CY41" s="14"/>
-      <c r="CZ41" s="14"/>
-      <c r="DA41" s="14"/>
-      <c r="DB41" s="14"/>
-      <c r="DC41" s="14"/>
-      <c r="DD41" s="14"/>
-      <c r="DE41" s="14"/>
-      <c r="DF41" s="14"/>
-      <c r="DG41" s="14"/>
-      <c r="DH41" s="14"/>
-      <c r="DI41" s="14"/>
-      <c r="DJ41" s="14"/>
-      <c r="DK41" s="14"/>
-      <c r="DL41" s="14"/>
-      <c r="DM41" s="14"/>
-      <c r="DN41" s="14"/>
-      <c r="DO41" s="14"/>
-      <c r="DP41" s="14"/>
-      <c r="DQ41" s="14"/>
-      <c r="DR41" s="14"/>
-      <c r="DS41" s="14"/>
-      <c r="DT41" s="14"/>
-      <c r="DU41" s="14"/>
-      <c r="DV41" s="14"/>
-      <c r="DW41" s="14"/>
-      <c r="DX41" s="14"/>
-      <c r="DY41" s="14"/>
-      <c r="DZ41" s="14"/>
-      <c r="EA41" s="14"/>
-      <c r="EB41" s="14"/>
-      <c r="EC41" s="14"/>
-      <c r="ED41" s="14"/>
-      <c r="EE41" s="14"/>
-      <c r="EF41" s="14"/>
-      <c r="EG41" s="14"/>
-      <c r="EH41" s="14"/>
-      <c r="EI41" s="14"/>
-      <c r="EJ41" s="14"/>
-      <c r="EK41" s="14"/>
-      <c r="EL41" s="14"/>
-      <c r="EM41" s="14"/>
-      <c r="EN41" s="14"/>
-      <c r="EO41" s="14"/>
-      <c r="EP41" s="14"/>
-      <c r="EQ41" s="14"/>
-      <c r="ER41" s="14"/>
-      <c r="ES41" s="14"/>
-      <c r="ET41" s="14"/>
-      <c r="EU41" s="14"/>
-      <c r="EV41" s="14"/>
-      <c r="EW41" s="14"/>
-      <c r="EX41" s="14"/>
-      <c r="EY41" s="14"/>
-      <c r="EZ41" s="14"/>
-      <c r="FA41" s="14"/>
-      <c r="FB41" s="14"/>
-      <c r="FC41" s="14"/>
-      <c r="FD41" s="14"/>
-      <c r="FE41" s="14"/>
-      <c r="FF41" s="14"/>
-      <c r="FG41" s="14"/>
-      <c r="FH41" s="14"/>
-      <c r="FI41" s="14"/>
-      <c r="FJ41" s="14"/>
-      <c r="FK41" s="14"/>
-      <c r="FL41" s="14"/>
-      <c r="FM41" s="14"/>
-      <c r="FN41" s="14"/>
-      <c r="FO41" s="14"/>
-      <c r="FP41" s="14"/>
-      <c r="FQ41" s="14"/>
-      <c r="FR41" s="14"/>
-      <c r="FS41" s="14"/>
-      <c r="FT41" s="14"/>
-      <c r="FU41" s="14"/>
-      <c r="FV41" s="14"/>
-      <c r="FW41" s="14"/>
-      <c r="FX41" s="14"/>
-      <c r="FY41" s="14"/>
-      <c r="FZ41" s="14"/>
-      <c r="GA41" s="14"/>
-      <c r="GB41" s="14"/>
-      <c r="GC41" s="14"/>
-      <c r="GD41" s="14"/>
-      <c r="GE41" s="14"/>
-      <c r="GF41" s="14"/>
-      <c r="GG41" s="14"/>
-      <c r="GH41" s="14"/>
-      <c r="GI41" s="14"/>
-      <c r="GJ41" s="14"/>
-      <c r="GK41" s="14"/>
-      <c r="GL41" s="14"/>
-      <c r="GM41" s="14"/>
-      <c r="GN41" s="14"/>
-      <c r="GO41" s="14"/>
-      <c r="GP41" s="14"/>
-      <c r="GQ41" s="14"/>
-      <c r="GR41" s="14"/>
-      <c r="GS41" s="14"/>
-      <c r="GT41" s="14"/>
-      <c r="GU41" s="14"/>
-      <c r="GV41" s="14"/>
-      <c r="GW41" s="14"/>
-      <c r="GX41" s="14"/>
-      <c r="GY41" s="14"/>
-      <c r="GZ41" s="14"/>
-      <c r="HA41" s="14"/>
-      <c r="HB41" s="14"/>
-      <c r="HC41" s="14"/>
-      <c r="HD41" s="14"/>
-      <c r="HE41" s="14"/>
-      <c r="HF41" s="14"/>
-      <c r="HG41" s="14"/>
-      <c r="HH41" s="14"/>
-      <c r="HI41" s="14"/>
-      <c r="HJ41" s="14"/>
-      <c r="HK41" s="14"/>
-      <c r="HL41" s="14"/>
-      <c r="HM41" s="14"/>
-      <c r="HN41" s="14"/>
-      <c r="HO41" s="14"/>
-      <c r="HP41" s="14"/>
-      <c r="HQ41" s="14"/>
-      <c r="HR41" s="14"/>
-      <c r="HS41" s="14"/>
-      <c r="HT41" s="14"/>
-      <c r="HU41" s="14"/>
-      <c r="HV41" s="14"/>
-      <c r="HW41" s="14"/>
-      <c r="HX41" s="14"/>
-      <c r="HY41" s="14"/>
-      <c r="HZ41" s="14"/>
-      <c r="IA41" s="14"/>
-      <c r="IB41" s="14"/>
-      <c r="IC41" s="14"/>
-      <c r="ID41" s="14"/>
-      <c r="IE41" s="14"/>
-      <c r="IF41" s="14"/>
-      <c r="IG41" s="14"/>
-      <c r="IH41" s="14"/>
-      <c r="II41" s="14"/>
-      <c r="IJ41" s="14"/>
-      <c r="IK41" s="14"/>
-      <c r="IL41" s="14"/>
-      <c r="IM41" s="14"/>
-      <c r="IN41" s="14"/>
-      <c r="IO41" s="14"/>
-      <c r="IP41" s="14"/>
-      <c r="IQ41" s="14"/>
-      <c r="IR41" s="14"/>
-      <c r="IS41" s="14"/>
-      <c r="IT41" s="14"/>
-      <c r="IU41" s="14"/>
-      <c r="IV41" s="14"/>
+      <c r="A41" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+    </row>
+    <row r="42" spans="1:256" ht="39" customHeight="1">
+      <c r="A42" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="14"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="14"/>
+      <c r="AM42" s="14"/>
+      <c r="AN42" s="14"/>
+      <c r="AO42" s="14"/>
+      <c r="AP42" s="14"/>
+      <c r="AQ42" s="14"/>
+      <c r="AR42" s="14"/>
+      <c r="AS42" s="14"/>
+      <c r="AT42" s="14"/>
+      <c r="AU42" s="14"/>
+      <c r="AV42" s="14"/>
+      <c r="AW42" s="14"/>
+      <c r="AX42" s="14"/>
+      <c r="AY42" s="14"/>
+      <c r="AZ42" s="14"/>
+      <c r="BA42" s="14"/>
+      <c r="BB42" s="14"/>
+      <c r="BC42" s="14"/>
+      <c r="BD42" s="14"/>
+      <c r="BE42" s="14"/>
+      <c r="BF42" s="14"/>
+      <c r="BG42" s="14"/>
+      <c r="BH42" s="14"/>
+      <c r="BI42" s="14"/>
+      <c r="BJ42" s="14"/>
+      <c r="BK42" s="14"/>
+      <c r="BL42" s="14"/>
+      <c r="BM42" s="14"/>
+      <c r="BN42" s="14"/>
+      <c r="BO42" s="14"/>
+      <c r="BP42" s="14"/>
+      <c r="BQ42" s="14"/>
+      <c r="BR42" s="14"/>
+      <c r="BS42" s="14"/>
+      <c r="BT42" s="14"/>
+      <c r="BU42" s="14"/>
+      <c r="BV42" s="14"/>
+      <c r="BW42" s="14"/>
+      <c r="BX42" s="14"/>
+      <c r="BY42" s="14"/>
+      <c r="BZ42" s="14"/>
+      <c r="CA42" s="14"/>
+      <c r="CB42" s="14"/>
+      <c r="CC42" s="14"/>
+      <c r="CD42" s="14"/>
+      <c r="CE42" s="14"/>
+      <c r="CF42" s="14"/>
+      <c r="CG42" s="14"/>
+      <c r="CH42" s="14"/>
+      <c r="CI42" s="14"/>
+      <c r="CJ42" s="14"/>
+      <c r="CK42" s="14"/>
+      <c r="CL42" s="14"/>
+      <c r="CM42" s="14"/>
+      <c r="CN42" s="14"/>
+      <c r="CO42" s="14"/>
+      <c r="CP42" s="14"/>
+      <c r="CQ42" s="14"/>
+      <c r="CR42" s="14"/>
+      <c r="CS42" s="14"/>
+      <c r="CT42" s="14"/>
+      <c r="CU42" s="14"/>
+      <c r="CV42" s="14"/>
+      <c r="CW42" s="14"/>
+      <c r="CX42" s="14"/>
+      <c r="CY42" s="14"/>
+      <c r="CZ42" s="14"/>
+      <c r="DA42" s="14"/>
+      <c r="DB42" s="14"/>
+      <c r="DC42" s="14"/>
+      <c r="DD42" s="14"/>
+      <c r="DE42" s="14"/>
+      <c r="DF42" s="14"/>
+      <c r="DG42" s="14"/>
+      <c r="DH42" s="14"/>
+      <c r="DI42" s="14"/>
+      <c r="DJ42" s="14"/>
+      <c r="DK42" s="14"/>
+      <c r="DL42" s="14"/>
+      <c r="DM42" s="14"/>
+      <c r="DN42" s="14"/>
+      <c r="DO42" s="14"/>
+      <c r="DP42" s="14"/>
+      <c r="DQ42" s="14"/>
+      <c r="DR42" s="14"/>
+      <c r="DS42" s="14"/>
+      <c r="DT42" s="14"/>
+      <c r="DU42" s="14"/>
+      <c r="DV42" s="14"/>
+      <c r="DW42" s="14"/>
+      <c r="DX42" s="14"/>
+      <c r="DY42" s="14"/>
+      <c r="DZ42" s="14"/>
+      <c r="EA42" s="14"/>
+      <c r="EB42" s="14"/>
+      <c r="EC42" s="14"/>
+      <c r="ED42" s="14"/>
+      <c r="EE42" s="14"/>
+      <c r="EF42" s="14"/>
+      <c r="EG42" s="14"/>
+      <c r="EH42" s="14"/>
+      <c r="EI42" s="14"/>
+      <c r="EJ42" s="14"/>
+      <c r="EK42" s="14"/>
+      <c r="EL42" s="14"/>
+      <c r="EM42" s="14"/>
+      <c r="EN42" s="14"/>
+      <c r="EO42" s="14"/>
+      <c r="EP42" s="14"/>
+      <c r="EQ42" s="14"/>
+      <c r="ER42" s="14"/>
+      <c r="ES42" s="14"/>
+      <c r="ET42" s="14"/>
+      <c r="EU42" s="14"/>
+      <c r="EV42" s="14"/>
+      <c r="EW42" s="14"/>
+      <c r="EX42" s="14"/>
+      <c r="EY42" s="14"/>
+      <c r="EZ42" s="14"/>
+      <c r="FA42" s="14"/>
+      <c r="FB42" s="14"/>
+      <c r="FC42" s="14"/>
+      <c r="FD42" s="14"/>
+      <c r="FE42" s="14"/>
+      <c r="FF42" s="14"/>
+      <c r="FG42" s="14"/>
+      <c r="FH42" s="14"/>
+      <c r="FI42" s="14"/>
+      <c r="FJ42" s="14"/>
+      <c r="FK42" s="14"/>
+      <c r="FL42" s="14"/>
+      <c r="FM42" s="14"/>
+      <c r="FN42" s="14"/>
+      <c r="FO42" s="14"/>
+      <c r="FP42" s="14"/>
+      <c r="FQ42" s="14"/>
+      <c r="FR42" s="14"/>
+      <c r="FS42" s="14"/>
+      <c r="FT42" s="14"/>
+      <c r="FU42" s="14"/>
+      <c r="FV42" s="14"/>
+      <c r="FW42" s="14"/>
+      <c r="FX42" s="14"/>
+      <c r="FY42" s="14"/>
+      <c r="FZ42" s="14"/>
+      <c r="GA42" s="14"/>
+      <c r="GB42" s="14"/>
+      <c r="GC42" s="14"/>
+      <c r="GD42" s="14"/>
+      <c r="GE42" s="14"/>
+      <c r="GF42" s="14"/>
+      <c r="GG42" s="14"/>
+      <c r="GH42" s="14"/>
+      <c r="GI42" s="14"/>
+      <c r="GJ42" s="14"/>
+      <c r="GK42" s="14"/>
+      <c r="GL42" s="14"/>
+      <c r="GM42" s="14"/>
+      <c r="GN42" s="14"/>
+      <c r="GO42" s="14"/>
+      <c r="GP42" s="14"/>
+      <c r="GQ42" s="14"/>
+      <c r="GR42" s="14"/>
+      <c r="GS42" s="14"/>
+      <c r="GT42" s="14"/>
+      <c r="GU42" s="14"/>
+      <c r="GV42" s="14"/>
+      <c r="GW42" s="14"/>
+      <c r="GX42" s="14"/>
+      <c r="GY42" s="14"/>
+      <c r="GZ42" s="14"/>
+      <c r="HA42" s="14"/>
+      <c r="HB42" s="14"/>
+      <c r="HC42" s="14"/>
+      <c r="HD42" s="14"/>
+      <c r="HE42" s="14"/>
+      <c r="HF42" s="14"/>
+      <c r="HG42" s="14"/>
+      <c r="HH42" s="14"/>
+      <c r="HI42" s="14"/>
+      <c r="HJ42" s="14"/>
+      <c r="HK42" s="14"/>
+      <c r="HL42" s="14"/>
+      <c r="HM42" s="14"/>
+      <c r="HN42" s="14"/>
+      <c r="HO42" s="14"/>
+      <c r="HP42" s="14"/>
+      <c r="HQ42" s="14"/>
+      <c r="HR42" s="14"/>
+      <c r="HS42" s="14"/>
+      <c r="HT42" s="14"/>
+      <c r="HU42" s="14"/>
+      <c r="HV42" s="14"/>
+      <c r="HW42" s="14"/>
+      <c r="HX42" s="14"/>
+      <c r="HY42" s="14"/>
+      <c r="HZ42" s="14"/>
+      <c r="IA42" s="14"/>
+      <c r="IB42" s="14"/>
+      <c r="IC42" s="14"/>
+      <c r="ID42" s="14"/>
+      <c r="IE42" s="14"/>
+      <c r="IF42" s="14"/>
+      <c r="IG42" s="14"/>
+      <c r="IH42" s="14"/>
+      <c r="II42" s="14"/>
+      <c r="IJ42" s="14"/>
+      <c r="IK42" s="14"/>
+      <c r="IL42" s="14"/>
+      <c r="IM42" s="14"/>
+      <c r="IN42" s="14"/>
+      <c r="IO42" s="14"/>
+      <c r="IP42" s="14"/>
+      <c r="IQ42" s="14"/>
+      <c r="IR42" s="14"/>
+      <c r="IS42" s="14"/>
+      <c r="IT42" s="14"/>
+      <c r="IU42" s="14"/>
+      <c r="IV42" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B42:G42"/>
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>

--- a/テスト仕様書/掲示板テスト仕様書(サンプル).xlsx
+++ b/テスト仕様書/掲示板テスト仕様書(サンプル).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2021/sample-bbs-springboot2-thymeleaf3/テスト仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2023/sample-bbs/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C25D3D-A8C3-444D-AA4F-42F87063E66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437C05AD-39BE-9448-A6AA-E6DCF34B0D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,13 +19,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -89,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="141">
   <si>
     <t>表1</t>
   </si>
@@ -205,10 +198,6 @@
 （「SQL」シートのSQL1を実行</t>
   </si>
   <si>
-    <t>・投稿されたコメントが対象の記事に表示されること
-・コメントのIDの降順で表示されること</t>
-  </si>
-  <si>
     <t>・2件以上のコメントが投稿されている記事があること
 （「SQL」シートのSQL1を実行）</t>
   </si>
@@ -225,32 +214,10 @@
     <t>記事とコメントを削除する</t>
   </si>
   <si>
-    <t>記事の削除</t>
-  </si>
-  <si>
-    <t>・記事ID1の下部にある削除ボタンを押す</t>
-  </si>
-  <si>
-    <t>・1件の記事及びコメント(article_id=1)が削除されていること</t>
-  </si>
-  <si>
-    <t>・記事ID2の下部にある削除ボタンを押す</t>
-  </si>
-  <si>
-    <t>・1件の記事及びコメント(article_id=2)が削除されていること
-・複数の記事が削除されていないこと</t>
-  </si>
-  <si>
-    <t>コメントのない記事の削除</t>
-  </si>
-  <si>
     <t>・コメントのない1件の記事が投稿されていること
 （「SQL」シートのSQL1,SQL2,SQL4を実行）</t>
   </si>
   <si>
-    <t>・1件の記事が削除されていること</t>
-  </si>
-  <si>
     <t>TC1</t>
   </si>
   <si>
@@ -281,16 +248,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>期待される効果</t>
-  </si>
-  <si>
     <t>投稿者名を入力してください</t>
   </si>
   <si>
     <t>投稿者名は50文字以内で入力してください</t>
-  </si>
-  <si>
-    <t>コメント投稿のデシジョンテーブル</t>
   </si>
   <si>
     <t>名前を入力してください</t>
@@ -343,7 +304,7 @@
     <rPh sb="4" eb="6">
       <t>カンテン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>画面の挙動
@@ -352,12 +313,12 @@
   <si>
     <t>画面の挙動
 正常系</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>画面の挙動
 正常系</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・記事入力フォームが表示されていること
@@ -373,17 +334,17 @@
     <rPh sb="10" eb="19">
       <t>ヒョ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・投稿されている記事が全件表示されているか確認する
 ・「投稿者名」と「投稿内容」が正常に表示されているか確認する</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・記事が1件の状態の表示画面の内容を確認する
 ・「投稿者名」と「投稿内容」が正常に表示されているか確認する</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・ブラウザを起動しており画面に何も表示されていないこと
@@ -402,19 +363,19 @@
     <rPh sb="17" eb="27">
       <t>ヒョ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・ブラウザを起動しており画面に何も表示されていないこと
 ・1件の記事が投稿されていること
 （「SQL」シートのSQL1,SQL4を実行）</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・ブラウザを起動しており画面に何も表示されていないこと
 ・2件の記事が投稿されていること
 （「SQL」シートのSQL1を実行）</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・記事入力フォームが表示されていること
@@ -424,7 +385,7 @@
 　投稿内容： この掲示板について
 ・コメント入力フォームが表示されること
 ・記事削除ボタンが表示されていること</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・投稿されている記事が2件以上表示されること
@@ -437,31 +398,31 @@
 　投稿内容： この掲示板について
 ・コメント入力フォームが表示されること
 ・2件以上の記事が投稿時間の降順で表示されていること</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>入力系画面
 正常系</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・以下の記事が投稿されていること
 　投稿ID： ３
 　投稿名： 佐藤
 　投稿内容： 投稿テストです。</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・以下の記事が最も上に投稿されていること
 　投稿ID： 3
 　投稿名： 佐藤
 　投稿内容： 投稿テストです。</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>入力系画面
 正常系</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>(参考)具体的入力値</t>
@@ -477,14 +438,14 @@
     <rPh sb="14" eb="18">
       <t>デt</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>入力値</t>
   </si>
   <si>
     <t>投稿者名の入力（正常系）</t>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <r>
@@ -498,7 +459,7 @@
       <t>・掲示板システムのトップページを表示させるURLを直書きする
 　http://localhost:8080/joinedbbs</t>
     </r>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -2641,7 +2602,7 @@
       </rPr>
       <t>);</t>
     </r>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・山田さんの記事に以下のコメントがついていること
@@ -2661,71 +2622,71 @@
 　コメント者名：佐藤3
 　コメント内容：
 　伊賀さん書き込みのコメント3</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>投稿者名の入力(異常系：5１字以上)</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>あいうえおかきくけこさしすせそたちつてとなにぬねのはひふへほあいうえおかきくけこさしすせそたちつてとな(←51文字)</t>
     <rPh sb="55" eb="57">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>あいうえおかきくけこさしすせそたちつてとなにぬねのはひふへほあいうえおかきくけこさしすせそたちつてと(←50文字)</t>
     <rPh sb="54" eb="56">
       <t>モジ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>記事内容の入力</t>
     <rPh sb="0" eb="2">
       <t>キジ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>記事内容を入力してください</t>
     <rPh sb="0" eb="2">
       <t>キジ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>記事内容の入力（正常系）</t>
     <rPh sb="0" eb="2">
       <t>キジ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>コメント内容の入力</t>
     <rPh sb="4" eb="6">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>コメント者名の入力</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>コメント内容の入力（正常系）</t>
     <rPh sb="4" eb="6">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>コメント者名の入力（正常系）</t>
     <rPh sb="5" eb="6">
       <t>ナマ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>コメント者名の入力（異常系：５１文字以上）</t>
@@ -2741,7 +2702,7 @@
     <rPh sb="18" eb="20">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="14"/>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>入力系画面
@@ -2749,7 +2710,7 @@
     <rPh sb="6" eb="8">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・デベロッパーツールで記事IDを書き換えられた場合にエラーになるかを確認する</t>
@@ -2765,7 +2726,7 @@
     <rPh sb="34" eb="36">
       <t>カクニn</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・デベロッパーツールで投稿するコメントの記事IDを1000に書き換える。
@@ -2785,22 +2746,22 @@
     <rPh sb="48" eb="50">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・「コメント投稿デシジョンテーブル」シートのTC3の入力を実施する
 ・コメント投稿ボタンを押下する</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・「コメント投稿デシジョンテーブル」シートのTC2の入力を実施する
 ・コメント投稿ボタンを押下する</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・「コメント投稿デシジョンテーブル」シートのTC1の入力を実施する
 ・コメント投稿ボタンを押下する</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・記事ID1に下記のコメントを入力する
@@ -2810,32 +2771,32 @@
     <rPh sb="15" eb="17">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・掲示板システムのトップページを表示させるURLを直書きする
 　http://localhost:8080/joinedbbs</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・「記事投稿デシジョンテーブル」シートのTC4の入力を実施する
 ・記事投稿ボタンを押下する</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・「記事投稿デシジョンテーブル」シートのTC3の入力を実施する
 ・記事投稿ボタンを押下する</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・「記事投稿デシジョンテーブル」シートのTC2の入力を実施する
 ・記事投稿ボタンを押下する</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・「記事投稿デシジョンテーブル」シートのTC1の入力を実施する
 ・記事投稿ボタンを押下する</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・以下の内容で記事を入力する
@@ -2845,7 +2806,7 @@
     <rPh sb="10" eb="12">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>画面の挙動
@@ -2853,7 +2814,7 @@
     <rPh sb="6" eb="8">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・デベロッパーツールで削除する記事の記事IDを1000に書き換える。
@@ -2876,7 +2837,7 @@
     <rPh sb="42" eb="44">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・不正な操作が行われましたというエラー画面に遷移する</t>
@@ -2892,34 +2853,258 @@
     <rPh sb="22" eb="24">
       <t>セn</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>記事投稿のデシジョンテーブル</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>コメント者名の文字列が50文字以内</t>
     <rPh sb="5" eb="6">
       <t xml:space="preserve">メイ </t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>名前は50文字以内で入力してください</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・「コメント投稿デシジョンテーブル」シートのTC4の入力を実施する
 ・コメント投稿ボタンを押下する</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>・「コメント投稿デシジョンテーブル」シートのTC4の期待される効果になること</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>記号の意味　〇:入力　✕:未入力　-:対象外</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>テストケース番号</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>期待される結果</t>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>コメント投稿のデシジョンテーブル</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>投稿者名の文字列が51文字以上</t>
+    <rPh sb="13" eb="15">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>コメント者名の文字列が51文字以上</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">シャ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>記事の１番上に投稿内容が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>キジノ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TC4</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>・投稿されたコメントが対象の記事の一番上に表示されること</t>
+    <rPh sb="17" eb="20">
+      <t>イチバンウエ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>・コメントがない記事を削除したら記事だけが削除されるかを確認する</t>
+    <rPh sb="16" eb="18">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニn</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>・伊賀さんの記事の「記事削除」ボタンを押下する</t>
+    <rPh sb="1" eb="3">
+      <t>イガサn</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>・不正な操作が行われましたというエラー画面に遷移すること</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナワレ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セn</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>・伊賀さんの記事が削除されること
+・記事が１件も表示されないこと</t>
+    <rPh sb="1" eb="3">
+      <t>イガサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ケn</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>・山田さんの記事の「記事削除」ボタンを押下する</t>
+    <rPh sb="1" eb="3">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>・コメントがある記事を削除したらコメントごと削除されるかを確認する
+・記事が１件のパターン</t>
+    <rPh sb="11" eb="13">
+      <t>サクジョス</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニn</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>・コメントがある記事を削除したらコメントごと削除されるかを確認する
+・記事が２件のパターン</t>
+    <rPh sb="11" eb="13">
+      <t>サクジョス</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニn</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>・伊賀さんの記事がコメントごと削除されること
+・記事が１件も表示されないこと</t>
+    <rPh sb="1" eb="3">
+      <t>イガサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ケn</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>・山田さんの記事がコメントごと削除されること
+・伊賀さんの記事が表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イガサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -2929,7 +3114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2960,13 +3145,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="19"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -3043,13 +3221,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3086,8 +3264,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -3402,65 +3586,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="71">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3469,203 +3690,197 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -4854,107 +5069,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14" style="14" customWidth="1"/>
-    <col min="2" max="2" width="95" style="14" customWidth="1"/>
-    <col min="3" max="3" width="31" style="14" customWidth="1"/>
-    <col min="4" max="256" width="14" style="14" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" customWidth="1"/>
+    <col min="4" max="256" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:3" ht="15.5" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="409.5" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="48.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.25" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B6" s="17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="409.5" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="48.5" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.25" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="7" spans="1:3" ht="15.25" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3" ht="15.25" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3" ht="15.25" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" ht="15.25" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="21"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" ht="15.25" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3" ht="15.25" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="21"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -4972,14 +5187,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IW24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" zoomScale="81" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.1640625" style="1" customWidth="1"/>
@@ -4990,33 +5205,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="14" customHeight="1">
@@ -5024,7 +5239,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
@@ -5050,23 +5265,23 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="78.25" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>98</v>
+        <v>75</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="7"/>
@@ -5074,23 +5289,23 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="123" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>84</v>
+      <c r="B5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>98</v>
+        <v>76</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="7"/>
@@ -5098,23 +5313,23 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="164" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>83</v>
+      <c r="B6" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>98</v>
+        <v>77</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="7"/>
@@ -5122,23 +5337,23 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="65" customHeight="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="55" t="s">
-        <v>124</v>
+      <c r="E7" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
@@ -5146,23 +5361,23 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="67.5" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>124</v>
+      <c r="E8" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="7"/>
@@ -5170,20 +5385,20 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="51" customHeight="1">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="55" t="s">
-        <v>123</v>
+      <c r="E9" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
@@ -5194,20 +5409,20 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="51" customHeight="1">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="40" t="s">
         <v>112</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>122</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -5218,20 +5433,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="51" customHeight="1">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="55" t="s">
-        <v>121</v>
+      <c r="E11" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>24</v>
@@ -5242,20 +5457,20 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="55" t="s">
-        <v>120</v>
+      <c r="E12" s="40" t="s">
+        <v>110</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>25</v>
@@ -5266,23 +5481,23 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="251" customHeight="1">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="56" t="s">
-        <v>119</v>
+      <c r="E13" s="41" t="s">
+        <v>109</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="7"/>
@@ -5290,20 +5505,20 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="69" customHeight="1">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="29" t="s">
+      <c r="B14" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="54" t="s">
-        <v>118</v>
+      <c r="E14" s="39" t="s">
+        <v>108</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>32</v>
@@ -5314,23 +5529,23 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="88.25" customHeight="1">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>35</v>
+      <c r="E15" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>131</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="7"/>
@@ -5338,714 +5553,220 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="42" customHeight="1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="7"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:257" ht="42" customHeight="1">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:10" ht="42" customHeight="1">
+      <c r="A17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="29" t="s">
+      <c r="B17" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>116</v>
+      <c r="D17" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:257" ht="42" customHeight="1">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:10" ht="42" customHeight="1">
+      <c r="A18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="29" t="s">
+      <c r="B18" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>115</v>
+      <c r="D18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>105</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:257" ht="42" customHeight="1">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:10" ht="42" customHeight="1">
+      <c r="A19" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="29" t="s">
+      <c r="B19" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="50"/>
+      <c r="D19" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="14"/>
-      <c r="AP19" s="14"/>
-      <c r="AQ19" s="14"/>
-      <c r="AR19" s="14"/>
-      <c r="AS19" s="14"/>
-      <c r="AT19" s="14"/>
-      <c r="AU19" s="14"/>
-      <c r="AV19" s="14"/>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="14"/>
-      <c r="AY19" s="14"/>
-      <c r="AZ19" s="14"/>
-      <c r="BA19" s="14"/>
-      <c r="BB19" s="14"/>
-      <c r="BC19" s="14"/>
-      <c r="BD19" s="14"/>
-      <c r="BE19" s="14"/>
-      <c r="BF19" s="14"/>
-      <c r="BG19" s="14"/>
-      <c r="BH19" s="14"/>
-      <c r="BI19" s="14"/>
-      <c r="BJ19" s="14"/>
-      <c r="BK19" s="14"/>
-      <c r="BL19" s="14"/>
-      <c r="BM19" s="14"/>
-      <c r="BN19" s="14"/>
-      <c r="BO19" s="14"/>
-      <c r="BP19" s="14"/>
-      <c r="BQ19" s="14"/>
-      <c r="BR19" s="14"/>
-      <c r="BS19" s="14"/>
-      <c r="BT19" s="14"/>
-      <c r="BU19" s="14"/>
-      <c r="BV19" s="14"/>
-      <c r="BW19" s="14"/>
-      <c r="BX19" s="14"/>
-      <c r="BY19" s="14"/>
-      <c r="BZ19" s="14"/>
-      <c r="CA19" s="14"/>
-      <c r="CB19" s="14"/>
-      <c r="CC19" s="14"/>
-      <c r="CD19" s="14"/>
-      <c r="CE19" s="14"/>
-      <c r="CF19" s="14"/>
-      <c r="CG19" s="14"/>
-      <c r="CH19" s="14"/>
-      <c r="CI19" s="14"/>
-      <c r="CJ19" s="14"/>
-      <c r="CK19" s="14"/>
-      <c r="CL19" s="14"/>
-      <c r="CM19" s="14"/>
-      <c r="CN19" s="14"/>
-      <c r="CO19" s="14"/>
-      <c r="CP19" s="14"/>
-      <c r="CQ19" s="14"/>
-      <c r="CR19" s="14"/>
-      <c r="CS19" s="14"/>
-      <c r="CT19" s="14"/>
-      <c r="CU19" s="14"/>
-      <c r="CV19" s="14"/>
-      <c r="CW19" s="14"/>
-      <c r="CX19" s="14"/>
-      <c r="CY19" s="14"/>
-      <c r="CZ19" s="14"/>
-      <c r="DA19" s="14"/>
-      <c r="DB19" s="14"/>
-      <c r="DC19" s="14"/>
-      <c r="DD19" s="14"/>
-      <c r="DE19" s="14"/>
-      <c r="DF19" s="14"/>
-      <c r="DG19" s="14"/>
-      <c r="DH19" s="14"/>
-      <c r="DI19" s="14"/>
-      <c r="DJ19" s="14"/>
-      <c r="DK19" s="14"/>
-      <c r="DL19" s="14"/>
-      <c r="DM19" s="14"/>
-      <c r="DN19" s="14"/>
-      <c r="DO19" s="14"/>
-      <c r="DP19" s="14"/>
-      <c r="DQ19" s="14"/>
-      <c r="DR19" s="14"/>
-      <c r="DS19" s="14"/>
-      <c r="DT19" s="14"/>
-      <c r="DU19" s="14"/>
-      <c r="DV19" s="14"/>
-      <c r="DW19" s="14"/>
-      <c r="DX19" s="14"/>
-      <c r="DY19" s="14"/>
-      <c r="DZ19" s="14"/>
-      <c r="EA19" s="14"/>
-      <c r="EB19" s="14"/>
-      <c r="EC19" s="14"/>
-      <c r="ED19" s="14"/>
-      <c r="EE19" s="14"/>
-      <c r="EF19" s="14"/>
-      <c r="EG19" s="14"/>
-      <c r="EH19" s="14"/>
-      <c r="EI19" s="14"/>
-      <c r="EJ19" s="14"/>
-      <c r="EK19" s="14"/>
-      <c r="EL19" s="14"/>
-      <c r="EM19" s="14"/>
-      <c r="EN19" s="14"/>
-      <c r="EO19" s="14"/>
-      <c r="EP19" s="14"/>
-      <c r="EQ19" s="14"/>
-      <c r="ER19" s="14"/>
-      <c r="ES19" s="14"/>
-      <c r="ET19" s="14"/>
-      <c r="EU19" s="14"/>
-      <c r="EV19" s="14"/>
-      <c r="EW19" s="14"/>
-      <c r="EX19" s="14"/>
-      <c r="EY19" s="14"/>
-      <c r="EZ19" s="14"/>
-      <c r="FA19" s="14"/>
-      <c r="FB19" s="14"/>
-      <c r="FC19" s="14"/>
-      <c r="FD19" s="14"/>
-      <c r="FE19" s="14"/>
-      <c r="FF19" s="14"/>
-      <c r="FG19" s="14"/>
-      <c r="FH19" s="14"/>
-      <c r="FI19" s="14"/>
-      <c r="FJ19" s="14"/>
-      <c r="FK19" s="14"/>
-      <c r="FL19" s="14"/>
-      <c r="FM19" s="14"/>
-      <c r="FN19" s="14"/>
-      <c r="FO19" s="14"/>
-      <c r="FP19" s="14"/>
-      <c r="FQ19" s="14"/>
-      <c r="FR19" s="14"/>
-      <c r="FS19" s="14"/>
-      <c r="FT19" s="14"/>
-      <c r="FU19" s="14"/>
-      <c r="FV19" s="14"/>
-      <c r="FW19" s="14"/>
-      <c r="FX19" s="14"/>
-      <c r="FY19" s="14"/>
-      <c r="FZ19" s="14"/>
-      <c r="GA19" s="14"/>
-      <c r="GB19" s="14"/>
-      <c r="GC19" s="14"/>
-      <c r="GD19" s="14"/>
-      <c r="GE19" s="14"/>
-      <c r="GF19" s="14"/>
-      <c r="GG19" s="14"/>
-      <c r="GH19" s="14"/>
-      <c r="GI19" s="14"/>
-      <c r="GJ19" s="14"/>
-      <c r="GK19" s="14"/>
-      <c r="GL19" s="14"/>
-      <c r="GM19" s="14"/>
-      <c r="GN19" s="14"/>
-      <c r="GO19" s="14"/>
-      <c r="GP19" s="14"/>
-      <c r="GQ19" s="14"/>
-      <c r="GR19" s="14"/>
-      <c r="GS19" s="14"/>
-      <c r="GT19" s="14"/>
-      <c r="GU19" s="14"/>
-      <c r="GV19" s="14"/>
-      <c r="GW19" s="14"/>
-      <c r="GX19" s="14"/>
-      <c r="GY19" s="14"/>
-      <c r="GZ19" s="14"/>
-      <c r="HA19" s="14"/>
-      <c r="HB19" s="14"/>
-      <c r="HC19" s="14"/>
-      <c r="HD19" s="14"/>
-      <c r="HE19" s="14"/>
-      <c r="HF19" s="14"/>
-      <c r="HG19" s="14"/>
-      <c r="HH19" s="14"/>
-      <c r="HI19" s="14"/>
-      <c r="HJ19" s="14"/>
-      <c r="HK19" s="14"/>
-      <c r="HL19" s="14"/>
-      <c r="HM19" s="14"/>
-      <c r="HN19" s="14"/>
-      <c r="HO19" s="14"/>
-      <c r="HP19" s="14"/>
-      <c r="HQ19" s="14"/>
-      <c r="HR19" s="14"/>
-      <c r="HS19" s="14"/>
-      <c r="HT19" s="14"/>
-      <c r="HU19" s="14"/>
-      <c r="HV19" s="14"/>
-      <c r="HW19" s="14"/>
-      <c r="HX19" s="14"/>
-      <c r="HY19" s="14"/>
-      <c r="HZ19" s="14"/>
-      <c r="IA19" s="14"/>
-      <c r="IB19" s="14"/>
-      <c r="IC19" s="14"/>
-      <c r="ID19" s="14"/>
-      <c r="IE19" s="14"/>
-      <c r="IF19" s="14"/>
-      <c r="IG19" s="14"/>
-      <c r="IH19" s="14"/>
-      <c r="II19" s="14"/>
-      <c r="IJ19" s="14"/>
-      <c r="IK19" s="14"/>
-      <c r="IL19" s="14"/>
-      <c r="IM19" s="14"/>
-      <c r="IN19" s="14"/>
-      <c r="IO19" s="14"/>
-      <c r="IP19" s="14"/>
-      <c r="IQ19" s="14"/>
-      <c r="IR19" s="14"/>
-      <c r="IS19" s="14"/>
-      <c r="IT19" s="14"/>
-      <c r="IU19" s="14"/>
-      <c r="IV19" s="14"/>
-      <c r="IW19" s="14"/>
-    </row>
-    <row r="20" spans="1:257" ht="42" customHeight="1">
-      <c r="A20" s="29" t="s">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="42" customHeight="1">
+      <c r="A20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>127</v>
+      <c r="B20" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>134</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:257" ht="75.25" customHeight="1">
-      <c r="A21" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>41</v>
+    <row r="21" spans="1:10" ht="75.25" customHeight="1">
+      <c r="A21" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>137</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>43</v>
+      <c r="E21" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>139</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="7"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:257" ht="60.25" customHeight="1">
-      <c r="A22" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>41</v>
+    <row r="22" spans="1:10" ht="60.25" customHeight="1">
+      <c r="A22" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>138</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>45</v>
+      <c r="E22" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>140</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:257" ht="64" customHeight="1">
-      <c r="A23" s="29" t="s">
+    <row r="23" spans="1:10" ht="64" customHeight="1">
+      <c r="A23" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>48</v>
+      <c r="E23" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>135</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="7"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:257" ht="42" customHeight="1">
-      <c r="A24" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="38" t="s">
+    <row r="24" spans="1:10" ht="42" customHeight="1">
+      <c r="A24" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="39"/>
+      <c r="E24" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="14"/>
-      <c r="AM24" s="14"/>
-      <c r="AN24" s="14"/>
-      <c r="AO24" s="14"/>
-      <c r="AP24" s="14"/>
-      <c r="AQ24" s="14"/>
-      <c r="AR24" s="14"/>
-      <c r="AS24" s="14"/>
-      <c r="AT24" s="14"/>
-      <c r="AU24" s="14"/>
-      <c r="AV24" s="14"/>
-      <c r="AW24" s="14"/>
-      <c r="AX24" s="14"/>
-      <c r="AY24" s="14"/>
-      <c r="AZ24" s="14"/>
-      <c r="BA24" s="14"/>
-      <c r="BB24" s="14"/>
-      <c r="BC24" s="14"/>
-      <c r="BD24" s="14"/>
-      <c r="BE24" s="14"/>
-      <c r="BF24" s="14"/>
-      <c r="BG24" s="14"/>
-      <c r="BH24" s="14"/>
-      <c r="BI24" s="14"/>
-      <c r="BJ24" s="14"/>
-      <c r="BK24" s="14"/>
-      <c r="BL24" s="14"/>
-      <c r="BM24" s="14"/>
-      <c r="BN24" s="14"/>
-      <c r="BO24" s="14"/>
-      <c r="BP24" s="14"/>
-      <c r="BQ24" s="14"/>
-      <c r="BR24" s="14"/>
-      <c r="BS24" s="14"/>
-      <c r="BT24" s="14"/>
-      <c r="BU24" s="14"/>
-      <c r="BV24" s="14"/>
-      <c r="BW24" s="14"/>
-      <c r="BX24" s="14"/>
-      <c r="BY24" s="14"/>
-      <c r="BZ24" s="14"/>
-      <c r="CA24" s="14"/>
-      <c r="CB24" s="14"/>
-      <c r="CC24" s="14"/>
-      <c r="CD24" s="14"/>
-      <c r="CE24" s="14"/>
-      <c r="CF24" s="14"/>
-      <c r="CG24" s="14"/>
-      <c r="CH24" s="14"/>
-      <c r="CI24" s="14"/>
-      <c r="CJ24" s="14"/>
-      <c r="CK24" s="14"/>
-      <c r="CL24" s="14"/>
-      <c r="CM24" s="14"/>
-      <c r="CN24" s="14"/>
-      <c r="CO24" s="14"/>
-      <c r="CP24" s="14"/>
-      <c r="CQ24" s="14"/>
-      <c r="CR24" s="14"/>
-      <c r="CS24" s="14"/>
-      <c r="CT24" s="14"/>
-      <c r="CU24" s="14"/>
-      <c r="CV24" s="14"/>
-      <c r="CW24" s="14"/>
-      <c r="CX24" s="14"/>
-      <c r="CY24" s="14"/>
-      <c r="CZ24" s="14"/>
-      <c r="DA24" s="14"/>
-      <c r="DB24" s="14"/>
-      <c r="DC24" s="14"/>
-      <c r="DD24" s="14"/>
-      <c r="DE24" s="14"/>
-      <c r="DF24" s="14"/>
-      <c r="DG24" s="14"/>
-      <c r="DH24" s="14"/>
-      <c r="DI24" s="14"/>
-      <c r="DJ24" s="14"/>
-      <c r="DK24" s="14"/>
-      <c r="DL24" s="14"/>
-      <c r="DM24" s="14"/>
-      <c r="DN24" s="14"/>
-      <c r="DO24" s="14"/>
-      <c r="DP24" s="14"/>
-      <c r="DQ24" s="14"/>
-      <c r="DR24" s="14"/>
-      <c r="DS24" s="14"/>
-      <c r="DT24" s="14"/>
-      <c r="DU24" s="14"/>
-      <c r="DV24" s="14"/>
-      <c r="DW24" s="14"/>
-      <c r="DX24" s="14"/>
-      <c r="DY24" s="14"/>
-      <c r="DZ24" s="14"/>
-      <c r="EA24" s="14"/>
-      <c r="EB24" s="14"/>
-      <c r="EC24" s="14"/>
-      <c r="ED24" s="14"/>
-      <c r="EE24" s="14"/>
-      <c r="EF24" s="14"/>
-      <c r="EG24" s="14"/>
-      <c r="EH24" s="14"/>
-      <c r="EI24" s="14"/>
-      <c r="EJ24" s="14"/>
-      <c r="EK24" s="14"/>
-      <c r="EL24" s="14"/>
-      <c r="EM24" s="14"/>
-      <c r="EN24" s="14"/>
-      <c r="EO24" s="14"/>
-      <c r="EP24" s="14"/>
-      <c r="EQ24" s="14"/>
-      <c r="ER24" s="14"/>
-      <c r="ES24" s="14"/>
-      <c r="ET24" s="14"/>
-      <c r="EU24" s="14"/>
-      <c r="EV24" s="14"/>
-      <c r="EW24" s="14"/>
-      <c r="EX24" s="14"/>
-      <c r="EY24" s="14"/>
-      <c r="EZ24" s="14"/>
-      <c r="FA24" s="14"/>
-      <c r="FB24" s="14"/>
-      <c r="FC24" s="14"/>
-      <c r="FD24" s="14"/>
-      <c r="FE24" s="14"/>
-      <c r="FF24" s="14"/>
-      <c r="FG24" s="14"/>
-      <c r="FH24" s="14"/>
-      <c r="FI24" s="14"/>
-      <c r="FJ24" s="14"/>
-      <c r="FK24" s="14"/>
-      <c r="FL24" s="14"/>
-      <c r="FM24" s="14"/>
-      <c r="FN24" s="14"/>
-      <c r="FO24" s="14"/>
-      <c r="FP24" s="14"/>
-      <c r="FQ24" s="14"/>
-      <c r="FR24" s="14"/>
-      <c r="FS24" s="14"/>
-      <c r="FT24" s="14"/>
-      <c r="FU24" s="14"/>
-      <c r="FV24" s="14"/>
-      <c r="FW24" s="14"/>
-      <c r="FX24" s="14"/>
-      <c r="FY24" s="14"/>
-      <c r="FZ24" s="14"/>
-      <c r="GA24" s="14"/>
-      <c r="GB24" s="14"/>
-      <c r="GC24" s="14"/>
-      <c r="GD24" s="14"/>
-      <c r="GE24" s="14"/>
-      <c r="GF24" s="14"/>
-      <c r="GG24" s="14"/>
-      <c r="GH24" s="14"/>
-      <c r="GI24" s="14"/>
-      <c r="GJ24" s="14"/>
-      <c r="GK24" s="14"/>
-      <c r="GL24" s="14"/>
-      <c r="GM24" s="14"/>
-      <c r="GN24" s="14"/>
-      <c r="GO24" s="14"/>
-      <c r="GP24" s="14"/>
-      <c r="GQ24" s="14"/>
-      <c r="GR24" s="14"/>
-      <c r="GS24" s="14"/>
-      <c r="GT24" s="14"/>
-      <c r="GU24" s="14"/>
-      <c r="GV24" s="14"/>
-      <c r="GW24" s="14"/>
-      <c r="GX24" s="14"/>
-      <c r="GY24" s="14"/>
-      <c r="GZ24" s="14"/>
-      <c r="HA24" s="14"/>
-      <c r="HB24" s="14"/>
-      <c r="HC24" s="14"/>
-      <c r="HD24" s="14"/>
-      <c r="HE24" s="14"/>
-      <c r="HF24" s="14"/>
-      <c r="HG24" s="14"/>
-      <c r="HH24" s="14"/>
-      <c r="HI24" s="14"/>
-      <c r="HJ24" s="14"/>
-      <c r="HK24" s="14"/>
-      <c r="HL24" s="14"/>
-      <c r="HM24" s="14"/>
-      <c r="HN24" s="14"/>
-      <c r="HO24" s="14"/>
-      <c r="HP24" s="14"/>
-      <c r="HQ24" s="14"/>
-      <c r="HR24" s="14"/>
-      <c r="HS24" s="14"/>
-      <c r="HT24" s="14"/>
-      <c r="HU24" s="14"/>
-      <c r="HV24" s="14"/>
-      <c r="HW24" s="14"/>
-      <c r="HX24" s="14"/>
-      <c r="HY24" s="14"/>
-      <c r="HZ24" s="14"/>
-      <c r="IA24" s="14"/>
-      <c r="IB24" s="14"/>
-      <c r="IC24" s="14"/>
-      <c r="ID24" s="14"/>
-      <c r="IE24" s="14"/>
-      <c r="IF24" s="14"/>
-      <c r="IG24" s="14"/>
-      <c r="IH24" s="14"/>
-      <c r="II24" s="14"/>
-      <c r="IJ24" s="14"/>
-      <c r="IK24" s="14"/>
-      <c r="IL24" s="14"/>
-      <c r="IM24" s="14"/>
-      <c r="IN24" s="14"/>
-      <c r="IO24" s="14"/>
-      <c r="IP24" s="14"/>
-      <c r="IQ24" s="14"/>
-      <c r="IR24" s="14"/>
-      <c r="IS24" s="14"/>
-      <c r="IT24" s="14"/>
-      <c r="IU24" s="14"/>
-      <c r="IV24" s="14"/>
-      <c r="IW24" s="14"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6053,7 +5774,7 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.78740200000000005" right="0.78740200000000005" top="0.98425200000000002" bottom="0.98425200000000002" header="0.51181100000000002" footer="0.51181100000000002"/>
   <pageSetup scale="65" orientation="landscape"/>
   <headerFooter>
@@ -6074,3518 +5795,551 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV42"/>
+  <dimension ref="A1:IV44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="8" customWidth="1"/>
-    <col min="2" max="256" width="14" style="8" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" style="1" customWidth="1"/>
+    <col min="2" max="256" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.75" customHeight="1">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.5" customHeight="1">
-      <c r="A2" s="43" t="s">
+    <row r="1" spans="1:256" ht="14.75" customHeight="1">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:256" ht="15.5" customHeight="1">
+      <c r="A2" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+    </row>
+    <row r="3" spans="1:256" ht="15.5" customHeight="1">
+      <c r="A3" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="IV3"/>
+    </row>
+    <row r="4" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A4" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="IV4"/>
+    </row>
+    <row r="5" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="IV5"/>
+    </row>
+    <row r="6" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A6" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="IV6"/>
+    </row>
+    <row r="7" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A7" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="IV7"/>
+    </row>
+    <row r="8" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A8" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="IV8"/>
+    </row>
+    <row r="9" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A9" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="IV9"/>
+    </row>
+    <row r="10" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A10" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="IV10"/>
+    </row>
+    <row r="11" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A11" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="IV11"/>
+    </row>
+    <row r="12" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A12" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="IV12"/>
+    </row>
+    <row r="13" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A13" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="IV13"/>
+    </row>
+    <row r="16" spans="1:256" ht="13" customHeight="1">
+      <c r="A16" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+    </row>
+    <row r="17" spans="1:256" ht="36" customHeight="1">
+      <c r="A17" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" spans="1:256" ht="33" customHeight="1">
+      <c r="A18" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19" spans="1:256" ht="32" customHeight="1">
+      <c r="A19" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+    </row>
+    <row r="25" spans="1:256" ht="13" customHeight="1">
+      <c r="IV25"/>
+    </row>
+    <row r="26" spans="1:256" ht="13" customHeight="1">
+      <c r="A26" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="IV26"/>
+    </row>
+    <row r="27" spans="1:256" ht="13" customHeight="1">
+      <c r="A27" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="IV27"/>
+    </row>
+    <row r="28" spans="1:256" ht="13" customHeight="1">
+      <c r="A28" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="IV28"/>
+    </row>
+    <row r="29" spans="1:256" ht="13" customHeight="1">
+      <c r="A29" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="IV29"/>
+    </row>
+    <row r="30" spans="1:256" ht="13" customHeight="1">
+      <c r="A30" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="IV30"/>
+    </row>
+    <row r="31" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A31" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="IV31"/>
+    </row>
+    <row r="32" spans="1:256" ht="13" customHeight="1">
+      <c r="A32" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.5" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="B32" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="C32" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="IV32"/>
+    </row>
+    <row r="33" spans="1:256" ht="13" customHeight="1">
+      <c r="A33" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="70"/>
+      <c r="IV33"/>
+    </row>
+    <row r="34" spans="1:256" ht="13" customHeight="1">
+      <c r="A34" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A5" s="48" t="s">
+      <c r="B34" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="IV34"/>
+    </row>
+    <row r="35" spans="1:256" ht="13" customHeight="1">
+      <c r="A35" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A6" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A7" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A9" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A10" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A11" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A12" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13" customHeight="1">
-      <c r="A15" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-    </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1">
-      <c r="A16" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-    </row>
-    <row r="17" spans="1:256" ht="33" customHeight="1">
-      <c r="A17" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="14"/>
-      <c r="AP17" s="14"/>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="14"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="14"/>
-      <c r="BC17" s="14"/>
-      <c r="BD17" s="14"/>
-      <c r="BE17" s="14"/>
-      <c r="BF17" s="14"/>
-      <c r="BG17" s="14"/>
-      <c r="BH17" s="14"/>
-      <c r="BI17" s="14"/>
-      <c r="BJ17" s="14"/>
-      <c r="BK17" s="14"/>
-      <c r="BL17" s="14"/>
-      <c r="BM17" s="14"/>
-      <c r="BN17" s="14"/>
-      <c r="BO17" s="14"/>
-      <c r="BP17" s="14"/>
-      <c r="BQ17" s="14"/>
-      <c r="BR17" s="14"/>
-      <c r="BS17" s="14"/>
-      <c r="BT17" s="14"/>
-      <c r="BU17" s="14"/>
-      <c r="BV17" s="14"/>
-      <c r="BW17" s="14"/>
-      <c r="BX17" s="14"/>
-      <c r="BY17" s="14"/>
-      <c r="BZ17" s="14"/>
-      <c r="CA17" s="14"/>
-      <c r="CB17" s="14"/>
-      <c r="CC17" s="14"/>
-      <c r="CD17" s="14"/>
-      <c r="CE17" s="14"/>
-      <c r="CF17" s="14"/>
-      <c r="CG17" s="14"/>
-      <c r="CH17" s="14"/>
-      <c r="CI17" s="14"/>
-      <c r="CJ17" s="14"/>
-      <c r="CK17" s="14"/>
-      <c r="CL17" s="14"/>
-      <c r="CM17" s="14"/>
-      <c r="CN17" s="14"/>
-      <c r="CO17" s="14"/>
-      <c r="CP17" s="14"/>
-      <c r="CQ17" s="14"/>
-      <c r="CR17" s="14"/>
-      <c r="CS17" s="14"/>
-      <c r="CT17" s="14"/>
-      <c r="CU17" s="14"/>
-      <c r="CV17" s="14"/>
-      <c r="CW17" s="14"/>
-      <c r="CX17" s="14"/>
-      <c r="CY17" s="14"/>
-      <c r="CZ17" s="14"/>
-      <c r="DA17" s="14"/>
-      <c r="DB17" s="14"/>
-      <c r="DC17" s="14"/>
-      <c r="DD17" s="14"/>
-      <c r="DE17" s="14"/>
-      <c r="DF17" s="14"/>
-      <c r="DG17" s="14"/>
-      <c r="DH17" s="14"/>
-      <c r="DI17" s="14"/>
-      <c r="DJ17" s="14"/>
-      <c r="DK17" s="14"/>
-      <c r="DL17" s="14"/>
-      <c r="DM17" s="14"/>
-      <c r="DN17" s="14"/>
-      <c r="DO17" s="14"/>
-      <c r="DP17" s="14"/>
-      <c r="DQ17" s="14"/>
-      <c r="DR17" s="14"/>
-      <c r="DS17" s="14"/>
-      <c r="DT17" s="14"/>
-      <c r="DU17" s="14"/>
-      <c r="DV17" s="14"/>
-      <c r="DW17" s="14"/>
-      <c r="DX17" s="14"/>
-      <c r="DY17" s="14"/>
-      <c r="DZ17" s="14"/>
-      <c r="EA17" s="14"/>
-      <c r="EB17" s="14"/>
-      <c r="EC17" s="14"/>
-      <c r="ED17" s="14"/>
-      <c r="EE17" s="14"/>
-      <c r="EF17" s="14"/>
-      <c r="EG17" s="14"/>
-      <c r="EH17" s="14"/>
-      <c r="EI17" s="14"/>
-      <c r="EJ17" s="14"/>
-      <c r="EK17" s="14"/>
-      <c r="EL17" s="14"/>
-      <c r="EM17" s="14"/>
-      <c r="EN17" s="14"/>
-      <c r="EO17" s="14"/>
-      <c r="EP17" s="14"/>
-      <c r="EQ17" s="14"/>
-      <c r="ER17" s="14"/>
-      <c r="ES17" s="14"/>
-      <c r="ET17" s="14"/>
-      <c r="EU17" s="14"/>
-      <c r="EV17" s="14"/>
-      <c r="EW17" s="14"/>
-      <c r="EX17" s="14"/>
-      <c r="EY17" s="14"/>
-      <c r="EZ17" s="14"/>
-      <c r="FA17" s="14"/>
-      <c r="FB17" s="14"/>
-      <c r="FC17" s="14"/>
-      <c r="FD17" s="14"/>
-      <c r="FE17" s="14"/>
-      <c r="FF17" s="14"/>
-      <c r="FG17" s="14"/>
-      <c r="FH17" s="14"/>
-      <c r="FI17" s="14"/>
-      <c r="FJ17" s="14"/>
-      <c r="FK17" s="14"/>
-      <c r="FL17" s="14"/>
-      <c r="FM17" s="14"/>
-      <c r="FN17" s="14"/>
-      <c r="FO17" s="14"/>
-      <c r="FP17" s="14"/>
-      <c r="FQ17" s="14"/>
-      <c r="FR17" s="14"/>
-      <c r="FS17" s="14"/>
-      <c r="FT17" s="14"/>
-      <c r="FU17" s="14"/>
-      <c r="FV17" s="14"/>
-      <c r="FW17" s="14"/>
-      <c r="FX17" s="14"/>
-      <c r="FY17" s="14"/>
-      <c r="FZ17" s="14"/>
-      <c r="GA17" s="14"/>
-      <c r="GB17" s="14"/>
-      <c r="GC17" s="14"/>
-      <c r="GD17" s="14"/>
-      <c r="GE17" s="14"/>
-      <c r="GF17" s="14"/>
-      <c r="GG17" s="14"/>
-      <c r="GH17" s="14"/>
-      <c r="GI17" s="14"/>
-      <c r="GJ17" s="14"/>
-      <c r="GK17" s="14"/>
-      <c r="GL17" s="14"/>
-      <c r="GM17" s="14"/>
-      <c r="GN17" s="14"/>
-      <c r="GO17" s="14"/>
-      <c r="GP17" s="14"/>
-      <c r="GQ17" s="14"/>
-      <c r="GR17" s="14"/>
-      <c r="GS17" s="14"/>
-      <c r="GT17" s="14"/>
-      <c r="GU17" s="14"/>
-      <c r="GV17" s="14"/>
-      <c r="GW17" s="14"/>
-      <c r="GX17" s="14"/>
-      <c r="GY17" s="14"/>
-      <c r="GZ17" s="14"/>
-      <c r="HA17" s="14"/>
-      <c r="HB17" s="14"/>
-      <c r="HC17" s="14"/>
-      <c r="HD17" s="14"/>
-      <c r="HE17" s="14"/>
-      <c r="HF17" s="14"/>
-      <c r="HG17" s="14"/>
-      <c r="HH17" s="14"/>
-      <c r="HI17" s="14"/>
-      <c r="HJ17" s="14"/>
-      <c r="HK17" s="14"/>
-      <c r="HL17" s="14"/>
-      <c r="HM17" s="14"/>
-      <c r="HN17" s="14"/>
-      <c r="HO17" s="14"/>
-      <c r="HP17" s="14"/>
-      <c r="HQ17" s="14"/>
-      <c r="HR17" s="14"/>
-      <c r="HS17" s="14"/>
-      <c r="HT17" s="14"/>
-      <c r="HU17" s="14"/>
-      <c r="HV17" s="14"/>
-      <c r="HW17" s="14"/>
-      <c r="HX17" s="14"/>
-      <c r="HY17" s="14"/>
-      <c r="HZ17" s="14"/>
-      <c r="IA17" s="14"/>
-      <c r="IB17" s="14"/>
-      <c r="IC17" s="14"/>
-      <c r="ID17" s="14"/>
-      <c r="IE17" s="14"/>
-      <c r="IF17" s="14"/>
-      <c r="IG17" s="14"/>
-      <c r="IH17" s="14"/>
-      <c r="II17" s="14"/>
-      <c r="IJ17" s="14"/>
-      <c r="IK17" s="14"/>
-      <c r="IL17" s="14"/>
-      <c r="IM17" s="14"/>
-      <c r="IN17" s="14"/>
-      <c r="IO17" s="14"/>
-      <c r="IP17" s="14"/>
-      <c r="IQ17" s="14"/>
-      <c r="IR17" s="14"/>
-      <c r="IS17" s="14"/>
-      <c r="IT17" s="14"/>
-      <c r="IU17" s="14"/>
-      <c r="IV17" s="14"/>
-    </row>
-    <row r="18" spans="1:256" ht="32" customHeight="1">
-      <c r="A18" s="42" t="s">
+      <c r="B35" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="IV35"/>
+    </row>
+    <row r="36" spans="1:256" ht="13" customHeight="1">
+      <c r="A36" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="IV36"/>
+    </row>
+    <row r="37" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A37" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="IV37"/>
+    </row>
+    <row r="38" spans="1:256" ht="13" customHeight="1">
+      <c r="A38" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:256" ht="13" customHeight="1">
+      <c r="A41" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+    </row>
+    <row r="42" spans="1:256" ht="39" customHeight="1">
+      <c r="A42" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+    </row>
+    <row r="43" spans="1:256" ht="39" customHeight="1">
+      <c r="A43" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+    </row>
+    <row r="44" spans="1:256" ht="39" customHeight="1">
+      <c r="A44" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="14"/>
-      <c r="AO18" s="14"/>
-      <c r="AP18" s="14"/>
-      <c r="AQ18" s="14"/>
-      <c r="AR18" s="14"/>
-      <c r="AS18" s="14"/>
-      <c r="AT18" s="14"/>
-      <c r="AU18" s="14"/>
-      <c r="AV18" s="14"/>
-      <c r="AW18" s="14"/>
-      <c r="AX18" s="14"/>
-      <c r="AY18" s="14"/>
-      <c r="AZ18" s="14"/>
-      <c r="BA18" s="14"/>
-      <c r="BB18" s="14"/>
-      <c r="BC18" s="14"/>
-      <c r="BD18" s="14"/>
-      <c r="BE18" s="14"/>
-      <c r="BF18" s="14"/>
-      <c r="BG18" s="14"/>
-      <c r="BH18" s="14"/>
-      <c r="BI18" s="14"/>
-      <c r="BJ18" s="14"/>
-      <c r="BK18" s="14"/>
-      <c r="BL18" s="14"/>
-      <c r="BM18" s="14"/>
-      <c r="BN18" s="14"/>
-      <c r="BO18" s="14"/>
-      <c r="BP18" s="14"/>
-      <c r="BQ18" s="14"/>
-      <c r="BR18" s="14"/>
-      <c r="BS18" s="14"/>
-      <c r="BT18" s="14"/>
-      <c r="BU18" s="14"/>
-      <c r="BV18" s="14"/>
-      <c r="BW18" s="14"/>
-      <c r="BX18" s="14"/>
-      <c r="BY18" s="14"/>
-      <c r="BZ18" s="14"/>
-      <c r="CA18" s="14"/>
-      <c r="CB18" s="14"/>
-      <c r="CC18" s="14"/>
-      <c r="CD18" s="14"/>
-      <c r="CE18" s="14"/>
-      <c r="CF18" s="14"/>
-      <c r="CG18" s="14"/>
-      <c r="CH18" s="14"/>
-      <c r="CI18" s="14"/>
-      <c r="CJ18" s="14"/>
-      <c r="CK18" s="14"/>
-      <c r="CL18" s="14"/>
-      <c r="CM18" s="14"/>
-      <c r="CN18" s="14"/>
-      <c r="CO18" s="14"/>
-      <c r="CP18" s="14"/>
-      <c r="CQ18" s="14"/>
-      <c r="CR18" s="14"/>
-      <c r="CS18" s="14"/>
-      <c r="CT18" s="14"/>
-      <c r="CU18" s="14"/>
-      <c r="CV18" s="14"/>
-      <c r="CW18" s="14"/>
-      <c r="CX18" s="14"/>
-      <c r="CY18" s="14"/>
-      <c r="CZ18" s="14"/>
-      <c r="DA18" s="14"/>
-      <c r="DB18" s="14"/>
-      <c r="DC18" s="14"/>
-      <c r="DD18" s="14"/>
-      <c r="DE18" s="14"/>
-      <c r="DF18" s="14"/>
-      <c r="DG18" s="14"/>
-      <c r="DH18" s="14"/>
-      <c r="DI18" s="14"/>
-      <c r="DJ18" s="14"/>
-      <c r="DK18" s="14"/>
-      <c r="DL18" s="14"/>
-      <c r="DM18" s="14"/>
-      <c r="DN18" s="14"/>
-      <c r="DO18" s="14"/>
-      <c r="DP18" s="14"/>
-      <c r="DQ18" s="14"/>
-      <c r="DR18" s="14"/>
-      <c r="DS18" s="14"/>
-      <c r="DT18" s="14"/>
-      <c r="DU18" s="14"/>
-      <c r="DV18" s="14"/>
-      <c r="DW18" s="14"/>
-      <c r="DX18" s="14"/>
-      <c r="DY18" s="14"/>
-      <c r="DZ18" s="14"/>
-      <c r="EA18" s="14"/>
-      <c r="EB18" s="14"/>
-      <c r="EC18" s="14"/>
-      <c r="ED18" s="14"/>
-      <c r="EE18" s="14"/>
-      <c r="EF18" s="14"/>
-      <c r="EG18" s="14"/>
-      <c r="EH18" s="14"/>
-      <c r="EI18" s="14"/>
-      <c r="EJ18" s="14"/>
-      <c r="EK18" s="14"/>
-      <c r="EL18" s="14"/>
-      <c r="EM18" s="14"/>
-      <c r="EN18" s="14"/>
-      <c r="EO18" s="14"/>
-      <c r="EP18" s="14"/>
-      <c r="EQ18" s="14"/>
-      <c r="ER18" s="14"/>
-      <c r="ES18" s="14"/>
-      <c r="ET18" s="14"/>
-      <c r="EU18" s="14"/>
-      <c r="EV18" s="14"/>
-      <c r="EW18" s="14"/>
-      <c r="EX18" s="14"/>
-      <c r="EY18" s="14"/>
-      <c r="EZ18" s="14"/>
-      <c r="FA18" s="14"/>
-      <c r="FB18" s="14"/>
-      <c r="FC18" s="14"/>
-      <c r="FD18" s="14"/>
-      <c r="FE18" s="14"/>
-      <c r="FF18" s="14"/>
-      <c r="FG18" s="14"/>
-      <c r="FH18" s="14"/>
-      <c r="FI18" s="14"/>
-      <c r="FJ18" s="14"/>
-      <c r="FK18" s="14"/>
-      <c r="FL18" s="14"/>
-      <c r="FM18" s="14"/>
-      <c r="FN18" s="14"/>
-      <c r="FO18" s="14"/>
-      <c r="FP18" s="14"/>
-      <c r="FQ18" s="14"/>
-      <c r="FR18" s="14"/>
-      <c r="FS18" s="14"/>
-      <c r="FT18" s="14"/>
-      <c r="FU18" s="14"/>
-      <c r="FV18" s="14"/>
-      <c r="FW18" s="14"/>
-      <c r="FX18" s="14"/>
-      <c r="FY18" s="14"/>
-      <c r="FZ18" s="14"/>
-      <c r="GA18" s="14"/>
-      <c r="GB18" s="14"/>
-      <c r="GC18" s="14"/>
-      <c r="GD18" s="14"/>
-      <c r="GE18" s="14"/>
-      <c r="GF18" s="14"/>
-      <c r="GG18" s="14"/>
-      <c r="GH18" s="14"/>
-      <c r="GI18" s="14"/>
-      <c r="GJ18" s="14"/>
-      <c r="GK18" s="14"/>
-      <c r="GL18" s="14"/>
-      <c r="GM18" s="14"/>
-      <c r="GN18" s="14"/>
-      <c r="GO18" s="14"/>
-      <c r="GP18" s="14"/>
-      <c r="GQ18" s="14"/>
-      <c r="GR18" s="14"/>
-      <c r="GS18" s="14"/>
-      <c r="GT18" s="14"/>
-      <c r="GU18" s="14"/>
-      <c r="GV18" s="14"/>
-      <c r="GW18" s="14"/>
-      <c r="GX18" s="14"/>
-      <c r="GY18" s="14"/>
-      <c r="GZ18" s="14"/>
-      <c r="HA18" s="14"/>
-      <c r="HB18" s="14"/>
-      <c r="HC18" s="14"/>
-      <c r="HD18" s="14"/>
-      <c r="HE18" s="14"/>
-      <c r="HF18" s="14"/>
-      <c r="HG18" s="14"/>
-      <c r="HH18" s="14"/>
-      <c r="HI18" s="14"/>
-      <c r="HJ18" s="14"/>
-      <c r="HK18" s="14"/>
-      <c r="HL18" s="14"/>
-      <c r="HM18" s="14"/>
-      <c r="HN18" s="14"/>
-      <c r="HO18" s="14"/>
-      <c r="HP18" s="14"/>
-      <c r="HQ18" s="14"/>
-      <c r="HR18" s="14"/>
-      <c r="HS18" s="14"/>
-      <c r="HT18" s="14"/>
-      <c r="HU18" s="14"/>
-      <c r="HV18" s="14"/>
-      <c r="HW18" s="14"/>
-      <c r="HX18" s="14"/>
-      <c r="HY18" s="14"/>
-      <c r="HZ18" s="14"/>
-      <c r="IA18" s="14"/>
-      <c r="IB18" s="14"/>
-      <c r="IC18" s="14"/>
-      <c r="ID18" s="14"/>
-      <c r="IE18" s="14"/>
-      <c r="IF18" s="14"/>
-      <c r="IG18" s="14"/>
-      <c r="IH18" s="14"/>
-      <c r="II18" s="14"/>
-      <c r="IJ18" s="14"/>
-      <c r="IK18" s="14"/>
-      <c r="IL18" s="14"/>
-      <c r="IM18" s="14"/>
-      <c r="IN18" s="14"/>
-      <c r="IO18" s="14"/>
-      <c r="IP18" s="14"/>
-      <c r="IQ18" s="14"/>
-      <c r="IR18" s="14"/>
-      <c r="IS18" s="14"/>
-      <c r="IT18" s="14"/>
-      <c r="IU18" s="14"/>
-      <c r="IV18" s="14"/>
-    </row>
-    <row r="19" spans="1:256" ht="13" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="14"/>
-      <c r="AP19" s="14"/>
-      <c r="AQ19" s="14"/>
-      <c r="AR19" s="14"/>
-      <c r="AS19" s="14"/>
-      <c r="AT19" s="14"/>
-      <c r="AU19" s="14"/>
-      <c r="AV19" s="14"/>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="14"/>
-      <c r="AY19" s="14"/>
-      <c r="AZ19" s="14"/>
-      <c r="BA19" s="14"/>
-      <c r="BB19" s="14"/>
-      <c r="BC19" s="14"/>
-      <c r="BD19" s="14"/>
-      <c r="BE19" s="14"/>
-      <c r="BF19" s="14"/>
-      <c r="BG19" s="14"/>
-      <c r="BH19" s="14"/>
-      <c r="BI19" s="14"/>
-      <c r="BJ19" s="14"/>
-      <c r="BK19" s="14"/>
-      <c r="BL19" s="14"/>
-      <c r="BM19" s="14"/>
-      <c r="BN19" s="14"/>
-      <c r="BO19" s="14"/>
-      <c r="BP19" s="14"/>
-      <c r="BQ19" s="14"/>
-      <c r="BR19" s="14"/>
-      <c r="BS19" s="14"/>
-      <c r="BT19" s="14"/>
-      <c r="BU19" s="14"/>
-      <c r="BV19" s="14"/>
-      <c r="BW19" s="14"/>
-      <c r="BX19" s="14"/>
-      <c r="BY19" s="14"/>
-      <c r="BZ19" s="14"/>
-      <c r="CA19" s="14"/>
-      <c r="CB19" s="14"/>
-      <c r="CC19" s="14"/>
-      <c r="CD19" s="14"/>
-      <c r="CE19" s="14"/>
-      <c r="CF19" s="14"/>
-      <c r="CG19" s="14"/>
-      <c r="CH19" s="14"/>
-      <c r="CI19" s="14"/>
-      <c r="CJ19" s="14"/>
-      <c r="CK19" s="14"/>
-      <c r="CL19" s="14"/>
-      <c r="CM19" s="14"/>
-      <c r="CN19" s="14"/>
-      <c r="CO19" s="14"/>
-      <c r="CP19" s="14"/>
-      <c r="CQ19" s="14"/>
-      <c r="CR19" s="14"/>
-      <c r="CS19" s="14"/>
-      <c r="CT19" s="14"/>
-      <c r="CU19" s="14"/>
-      <c r="CV19" s="14"/>
-      <c r="CW19" s="14"/>
-      <c r="CX19" s="14"/>
-      <c r="CY19" s="14"/>
-      <c r="CZ19" s="14"/>
-      <c r="DA19" s="14"/>
-      <c r="DB19" s="14"/>
-      <c r="DC19" s="14"/>
-      <c r="DD19" s="14"/>
-      <c r="DE19" s="14"/>
-      <c r="DF19" s="14"/>
-      <c r="DG19" s="14"/>
-      <c r="DH19" s="14"/>
-      <c r="DI19" s="14"/>
-      <c r="DJ19" s="14"/>
-      <c r="DK19" s="14"/>
-      <c r="DL19" s="14"/>
-      <c r="DM19" s="14"/>
-      <c r="DN19" s="14"/>
-      <c r="DO19" s="14"/>
-      <c r="DP19" s="14"/>
-      <c r="DQ19" s="14"/>
-      <c r="DR19" s="14"/>
-      <c r="DS19" s="14"/>
-      <c r="DT19" s="14"/>
-      <c r="DU19" s="14"/>
-      <c r="DV19" s="14"/>
-      <c r="DW19" s="14"/>
-      <c r="DX19" s="14"/>
-      <c r="DY19" s="14"/>
-      <c r="DZ19" s="14"/>
-      <c r="EA19" s="14"/>
-      <c r="EB19" s="14"/>
-      <c r="EC19" s="14"/>
-      <c r="ED19" s="14"/>
-      <c r="EE19" s="14"/>
-      <c r="EF19" s="14"/>
-      <c r="EG19" s="14"/>
-      <c r="EH19" s="14"/>
-      <c r="EI19" s="14"/>
-      <c r="EJ19" s="14"/>
-      <c r="EK19" s="14"/>
-      <c r="EL19" s="14"/>
-      <c r="EM19" s="14"/>
-      <c r="EN19" s="14"/>
-      <c r="EO19" s="14"/>
-      <c r="EP19" s="14"/>
-      <c r="EQ19" s="14"/>
-      <c r="ER19" s="14"/>
-      <c r="ES19" s="14"/>
-      <c r="ET19" s="14"/>
-      <c r="EU19" s="14"/>
-      <c r="EV19" s="14"/>
-      <c r="EW19" s="14"/>
-      <c r="EX19" s="14"/>
-      <c r="EY19" s="14"/>
-      <c r="EZ19" s="14"/>
-      <c r="FA19" s="14"/>
-      <c r="FB19" s="14"/>
-      <c r="FC19" s="14"/>
-      <c r="FD19" s="14"/>
-      <c r="FE19" s="14"/>
-      <c r="FF19" s="14"/>
-      <c r="FG19" s="14"/>
-      <c r="FH19" s="14"/>
-      <c r="FI19" s="14"/>
-      <c r="FJ19" s="14"/>
-      <c r="FK19" s="14"/>
-      <c r="FL19" s="14"/>
-      <c r="FM19" s="14"/>
-      <c r="FN19" s="14"/>
-      <c r="FO19" s="14"/>
-      <c r="FP19" s="14"/>
-      <c r="FQ19" s="14"/>
-      <c r="FR19" s="14"/>
-      <c r="FS19" s="14"/>
-      <c r="FT19" s="14"/>
-      <c r="FU19" s="14"/>
-      <c r="FV19" s="14"/>
-      <c r="FW19" s="14"/>
-      <c r="FX19" s="14"/>
-      <c r="FY19" s="14"/>
-      <c r="FZ19" s="14"/>
-      <c r="GA19" s="14"/>
-      <c r="GB19" s="14"/>
-      <c r="GC19" s="14"/>
-      <c r="GD19" s="14"/>
-      <c r="GE19" s="14"/>
-      <c r="GF19" s="14"/>
-      <c r="GG19" s="14"/>
-      <c r="GH19" s="14"/>
-      <c r="GI19" s="14"/>
-      <c r="GJ19" s="14"/>
-      <c r="GK19" s="14"/>
-      <c r="GL19" s="14"/>
-      <c r="GM19" s="14"/>
-      <c r="GN19" s="14"/>
-      <c r="GO19" s="14"/>
-      <c r="GP19" s="14"/>
-      <c r="GQ19" s="14"/>
-      <c r="GR19" s="14"/>
-      <c r="GS19" s="14"/>
-      <c r="GT19" s="14"/>
-      <c r="GU19" s="14"/>
-      <c r="GV19" s="14"/>
-      <c r="GW19" s="14"/>
-      <c r="GX19" s="14"/>
-      <c r="GY19" s="14"/>
-      <c r="GZ19" s="14"/>
-      <c r="HA19" s="14"/>
-      <c r="HB19" s="14"/>
-      <c r="HC19" s="14"/>
-      <c r="HD19" s="14"/>
-      <c r="HE19" s="14"/>
-      <c r="HF19" s="14"/>
-      <c r="HG19" s="14"/>
-      <c r="HH19" s="14"/>
-      <c r="HI19" s="14"/>
-      <c r="HJ19" s="14"/>
-      <c r="HK19" s="14"/>
-      <c r="HL19" s="14"/>
-      <c r="HM19" s="14"/>
-      <c r="HN19" s="14"/>
-      <c r="HO19" s="14"/>
-      <c r="HP19" s="14"/>
-      <c r="HQ19" s="14"/>
-      <c r="HR19" s="14"/>
-      <c r="HS19" s="14"/>
-      <c r="HT19" s="14"/>
-      <c r="HU19" s="14"/>
-      <c r="HV19" s="14"/>
-      <c r="HW19" s="14"/>
-      <c r="HX19" s="14"/>
-      <c r="HY19" s="14"/>
-      <c r="HZ19" s="14"/>
-      <c r="IA19" s="14"/>
-      <c r="IB19" s="14"/>
-      <c r="IC19" s="14"/>
-      <c r="ID19" s="14"/>
-      <c r="IE19" s="14"/>
-      <c r="IF19" s="14"/>
-      <c r="IG19" s="14"/>
-      <c r="IH19" s="14"/>
-      <c r="II19" s="14"/>
-      <c r="IJ19" s="14"/>
-      <c r="IK19" s="14"/>
-      <c r="IL19" s="14"/>
-      <c r="IM19" s="14"/>
-      <c r="IN19" s="14"/>
-      <c r="IO19" s="14"/>
-      <c r="IP19" s="14"/>
-      <c r="IQ19" s="14"/>
-      <c r="IR19" s="14"/>
-      <c r="IS19" s="14"/>
-      <c r="IT19" s="14"/>
-      <c r="IU19" s="14"/>
-      <c r="IV19" s="14"/>
-    </row>
-    <row r="20" spans="1:256" ht="13" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="14"/>
-      <c r="AR20" s="14"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="14"/>
-      <c r="AU20" s="14"/>
-      <c r="AV20" s="14"/>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="14"/>
-      <c r="AY20" s="14"/>
-      <c r="AZ20" s="14"/>
-      <c r="BA20" s="14"/>
-      <c r="BB20" s="14"/>
-      <c r="BC20" s="14"/>
-      <c r="BD20" s="14"/>
-      <c r="BE20" s="14"/>
-      <c r="BF20" s="14"/>
-      <c r="BG20" s="14"/>
-      <c r="BH20" s="14"/>
-      <c r="BI20" s="14"/>
-      <c r="BJ20" s="14"/>
-      <c r="BK20" s="14"/>
-      <c r="BL20" s="14"/>
-      <c r="BM20" s="14"/>
-      <c r="BN20" s="14"/>
-      <c r="BO20" s="14"/>
-      <c r="BP20" s="14"/>
-      <c r="BQ20" s="14"/>
-      <c r="BR20" s="14"/>
-      <c r="BS20" s="14"/>
-      <c r="BT20" s="14"/>
-      <c r="BU20" s="14"/>
-      <c r="BV20" s="14"/>
-      <c r="BW20" s="14"/>
-      <c r="BX20" s="14"/>
-      <c r="BY20" s="14"/>
-      <c r="BZ20" s="14"/>
-      <c r="CA20" s="14"/>
-      <c r="CB20" s="14"/>
-      <c r="CC20" s="14"/>
-      <c r="CD20" s="14"/>
-      <c r="CE20" s="14"/>
-      <c r="CF20" s="14"/>
-      <c r="CG20" s="14"/>
-      <c r="CH20" s="14"/>
-      <c r="CI20" s="14"/>
-      <c r="CJ20" s="14"/>
-      <c r="CK20" s="14"/>
-      <c r="CL20" s="14"/>
-      <c r="CM20" s="14"/>
-      <c r="CN20" s="14"/>
-      <c r="CO20" s="14"/>
-      <c r="CP20" s="14"/>
-      <c r="CQ20" s="14"/>
-      <c r="CR20" s="14"/>
-      <c r="CS20" s="14"/>
-      <c r="CT20" s="14"/>
-      <c r="CU20" s="14"/>
-      <c r="CV20" s="14"/>
-      <c r="CW20" s="14"/>
-      <c r="CX20" s="14"/>
-      <c r="CY20" s="14"/>
-      <c r="CZ20" s="14"/>
-      <c r="DA20" s="14"/>
-      <c r="DB20" s="14"/>
-      <c r="DC20" s="14"/>
-      <c r="DD20" s="14"/>
-      <c r="DE20" s="14"/>
-      <c r="DF20" s="14"/>
-      <c r="DG20" s="14"/>
-      <c r="DH20" s="14"/>
-      <c r="DI20" s="14"/>
-      <c r="DJ20" s="14"/>
-      <c r="DK20" s="14"/>
-      <c r="DL20" s="14"/>
-      <c r="DM20" s="14"/>
-      <c r="DN20" s="14"/>
-      <c r="DO20" s="14"/>
-      <c r="DP20" s="14"/>
-      <c r="DQ20" s="14"/>
-      <c r="DR20" s="14"/>
-      <c r="DS20" s="14"/>
-      <c r="DT20" s="14"/>
-      <c r="DU20" s="14"/>
-      <c r="DV20" s="14"/>
-      <c r="DW20" s="14"/>
-      <c r="DX20" s="14"/>
-      <c r="DY20" s="14"/>
-      <c r="DZ20" s="14"/>
-      <c r="EA20" s="14"/>
-      <c r="EB20" s="14"/>
-      <c r="EC20" s="14"/>
-      <c r="ED20" s="14"/>
-      <c r="EE20" s="14"/>
-      <c r="EF20" s="14"/>
-      <c r="EG20" s="14"/>
-      <c r="EH20" s="14"/>
-      <c r="EI20" s="14"/>
-      <c r="EJ20" s="14"/>
-      <c r="EK20" s="14"/>
-      <c r="EL20" s="14"/>
-      <c r="EM20" s="14"/>
-      <c r="EN20" s="14"/>
-      <c r="EO20" s="14"/>
-      <c r="EP20" s="14"/>
-      <c r="EQ20" s="14"/>
-      <c r="ER20" s="14"/>
-      <c r="ES20" s="14"/>
-      <c r="ET20" s="14"/>
-      <c r="EU20" s="14"/>
-      <c r="EV20" s="14"/>
-      <c r="EW20" s="14"/>
-      <c r="EX20" s="14"/>
-      <c r="EY20" s="14"/>
-      <c r="EZ20" s="14"/>
-      <c r="FA20" s="14"/>
-      <c r="FB20" s="14"/>
-      <c r="FC20" s="14"/>
-      <c r="FD20" s="14"/>
-      <c r="FE20" s="14"/>
-      <c r="FF20" s="14"/>
-      <c r="FG20" s="14"/>
-      <c r="FH20" s="14"/>
-      <c r="FI20" s="14"/>
-      <c r="FJ20" s="14"/>
-      <c r="FK20" s="14"/>
-      <c r="FL20" s="14"/>
-      <c r="FM20" s="14"/>
-      <c r="FN20" s="14"/>
-      <c r="FO20" s="14"/>
-      <c r="FP20" s="14"/>
-      <c r="FQ20" s="14"/>
-      <c r="FR20" s="14"/>
-      <c r="FS20" s="14"/>
-      <c r="FT20" s="14"/>
-      <c r="FU20" s="14"/>
-      <c r="FV20" s="14"/>
-      <c r="FW20" s="14"/>
-      <c r="FX20" s="14"/>
-      <c r="FY20" s="14"/>
-      <c r="FZ20" s="14"/>
-      <c r="GA20" s="14"/>
-      <c r="GB20" s="14"/>
-      <c r="GC20" s="14"/>
-      <c r="GD20" s="14"/>
-      <c r="GE20" s="14"/>
-      <c r="GF20" s="14"/>
-      <c r="GG20" s="14"/>
-      <c r="GH20" s="14"/>
-      <c r="GI20" s="14"/>
-      <c r="GJ20" s="14"/>
-      <c r="GK20" s="14"/>
-      <c r="GL20" s="14"/>
-      <c r="GM20" s="14"/>
-      <c r="GN20" s="14"/>
-      <c r="GO20" s="14"/>
-      <c r="GP20" s="14"/>
-      <c r="GQ20" s="14"/>
-      <c r="GR20" s="14"/>
-      <c r="GS20" s="14"/>
-      <c r="GT20" s="14"/>
-      <c r="GU20" s="14"/>
-      <c r="GV20" s="14"/>
-      <c r="GW20" s="14"/>
-      <c r="GX20" s="14"/>
-      <c r="GY20" s="14"/>
-      <c r="GZ20" s="14"/>
-      <c r="HA20" s="14"/>
-      <c r="HB20" s="14"/>
-      <c r="HC20" s="14"/>
-      <c r="HD20" s="14"/>
-      <c r="HE20" s="14"/>
-      <c r="HF20" s="14"/>
-      <c r="HG20" s="14"/>
-      <c r="HH20" s="14"/>
-      <c r="HI20" s="14"/>
-      <c r="HJ20" s="14"/>
-      <c r="HK20" s="14"/>
-      <c r="HL20" s="14"/>
-      <c r="HM20" s="14"/>
-      <c r="HN20" s="14"/>
-      <c r="HO20" s="14"/>
-      <c r="HP20" s="14"/>
-      <c r="HQ20" s="14"/>
-      <c r="HR20" s="14"/>
-      <c r="HS20" s="14"/>
-      <c r="HT20" s="14"/>
-      <c r="HU20" s="14"/>
-      <c r="HV20" s="14"/>
-      <c r="HW20" s="14"/>
-      <c r="HX20" s="14"/>
-      <c r="HY20" s="14"/>
-      <c r="HZ20" s="14"/>
-      <c r="IA20" s="14"/>
-      <c r="IB20" s="14"/>
-      <c r="IC20" s="14"/>
-      <c r="ID20" s="14"/>
-      <c r="IE20" s="14"/>
-      <c r="IF20" s="14"/>
-      <c r="IG20" s="14"/>
-      <c r="IH20" s="14"/>
-      <c r="II20" s="14"/>
-      <c r="IJ20" s="14"/>
-      <c r="IK20" s="14"/>
-      <c r="IL20" s="14"/>
-      <c r="IM20" s="14"/>
-      <c r="IN20" s="14"/>
-      <c r="IO20" s="14"/>
-      <c r="IP20" s="14"/>
-      <c r="IQ20" s="14"/>
-      <c r="IR20" s="14"/>
-      <c r="IS20" s="14"/>
-      <c r="IT20" s="14"/>
-      <c r="IU20" s="14"/>
-      <c r="IV20" s="14"/>
-    </row>
-    <row r="21" spans="1:256" ht="13" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="14"/>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="14"/>
-      <c r="AO21" s="14"/>
-      <c r="AP21" s="14"/>
-      <c r="AQ21" s="14"/>
-      <c r="AR21" s="14"/>
-      <c r="AS21" s="14"/>
-      <c r="AT21" s="14"/>
-      <c r="AU21" s="14"/>
-      <c r="AV21" s="14"/>
-      <c r="AW21" s="14"/>
-      <c r="AX21" s="14"/>
-      <c r="AY21" s="14"/>
-      <c r="AZ21" s="14"/>
-      <c r="BA21" s="14"/>
-      <c r="BB21" s="14"/>
-      <c r="BC21" s="14"/>
-      <c r="BD21" s="14"/>
-      <c r="BE21" s="14"/>
-      <c r="BF21" s="14"/>
-      <c r="BG21" s="14"/>
-      <c r="BH21" s="14"/>
-      <c r="BI21" s="14"/>
-      <c r="BJ21" s="14"/>
-      <c r="BK21" s="14"/>
-      <c r="BL21" s="14"/>
-      <c r="BM21" s="14"/>
-      <c r="BN21" s="14"/>
-      <c r="BO21" s="14"/>
-      <c r="BP21" s="14"/>
-      <c r="BQ21" s="14"/>
-      <c r="BR21" s="14"/>
-      <c r="BS21" s="14"/>
-      <c r="BT21" s="14"/>
-      <c r="BU21" s="14"/>
-      <c r="BV21" s="14"/>
-      <c r="BW21" s="14"/>
-      <c r="BX21" s="14"/>
-      <c r="BY21" s="14"/>
-      <c r="BZ21" s="14"/>
-      <c r="CA21" s="14"/>
-      <c r="CB21" s="14"/>
-      <c r="CC21" s="14"/>
-      <c r="CD21" s="14"/>
-      <c r="CE21" s="14"/>
-      <c r="CF21" s="14"/>
-      <c r="CG21" s="14"/>
-      <c r="CH21" s="14"/>
-      <c r="CI21" s="14"/>
-      <c r="CJ21" s="14"/>
-      <c r="CK21" s="14"/>
-      <c r="CL21" s="14"/>
-      <c r="CM21" s="14"/>
-      <c r="CN21" s="14"/>
-      <c r="CO21" s="14"/>
-      <c r="CP21" s="14"/>
-      <c r="CQ21" s="14"/>
-      <c r="CR21" s="14"/>
-      <c r="CS21" s="14"/>
-      <c r="CT21" s="14"/>
-      <c r="CU21" s="14"/>
-      <c r="CV21" s="14"/>
-      <c r="CW21" s="14"/>
-      <c r="CX21" s="14"/>
-      <c r="CY21" s="14"/>
-      <c r="CZ21" s="14"/>
-      <c r="DA21" s="14"/>
-      <c r="DB21" s="14"/>
-      <c r="DC21" s="14"/>
-      <c r="DD21" s="14"/>
-      <c r="DE21" s="14"/>
-      <c r="DF21" s="14"/>
-      <c r="DG21" s="14"/>
-      <c r="DH21" s="14"/>
-      <c r="DI21" s="14"/>
-      <c r="DJ21" s="14"/>
-      <c r="DK21" s="14"/>
-      <c r="DL21" s="14"/>
-      <c r="DM21" s="14"/>
-      <c r="DN21" s="14"/>
-      <c r="DO21" s="14"/>
-      <c r="DP21" s="14"/>
-      <c r="DQ21" s="14"/>
-      <c r="DR21" s="14"/>
-      <c r="DS21" s="14"/>
-      <c r="DT21" s="14"/>
-      <c r="DU21" s="14"/>
-      <c r="DV21" s="14"/>
-      <c r="DW21" s="14"/>
-      <c r="DX21" s="14"/>
-      <c r="DY21" s="14"/>
-      <c r="DZ21" s="14"/>
-      <c r="EA21" s="14"/>
-      <c r="EB21" s="14"/>
-      <c r="EC21" s="14"/>
-      <c r="ED21" s="14"/>
-      <c r="EE21" s="14"/>
-      <c r="EF21" s="14"/>
-      <c r="EG21" s="14"/>
-      <c r="EH21" s="14"/>
-      <c r="EI21" s="14"/>
-      <c r="EJ21" s="14"/>
-      <c r="EK21" s="14"/>
-      <c r="EL21" s="14"/>
-      <c r="EM21" s="14"/>
-      <c r="EN21" s="14"/>
-      <c r="EO21" s="14"/>
-      <c r="EP21" s="14"/>
-      <c r="EQ21" s="14"/>
-      <c r="ER21" s="14"/>
-      <c r="ES21" s="14"/>
-      <c r="ET21" s="14"/>
-      <c r="EU21" s="14"/>
-      <c r="EV21" s="14"/>
-      <c r="EW21" s="14"/>
-      <c r="EX21" s="14"/>
-      <c r="EY21" s="14"/>
-      <c r="EZ21" s="14"/>
-      <c r="FA21" s="14"/>
-      <c r="FB21" s="14"/>
-      <c r="FC21" s="14"/>
-      <c r="FD21" s="14"/>
-      <c r="FE21" s="14"/>
-      <c r="FF21" s="14"/>
-      <c r="FG21" s="14"/>
-      <c r="FH21" s="14"/>
-      <c r="FI21" s="14"/>
-      <c r="FJ21" s="14"/>
-      <c r="FK21" s="14"/>
-      <c r="FL21" s="14"/>
-      <c r="FM21" s="14"/>
-      <c r="FN21" s="14"/>
-      <c r="FO21" s="14"/>
-      <c r="FP21" s="14"/>
-      <c r="FQ21" s="14"/>
-      <c r="FR21" s="14"/>
-      <c r="FS21" s="14"/>
-      <c r="FT21" s="14"/>
-      <c r="FU21" s="14"/>
-      <c r="FV21" s="14"/>
-      <c r="FW21" s="14"/>
-      <c r="FX21" s="14"/>
-      <c r="FY21" s="14"/>
-      <c r="FZ21" s="14"/>
-      <c r="GA21" s="14"/>
-      <c r="GB21" s="14"/>
-      <c r="GC21" s="14"/>
-      <c r="GD21" s="14"/>
-      <c r="GE21" s="14"/>
-      <c r="GF21" s="14"/>
-      <c r="GG21" s="14"/>
-      <c r="GH21" s="14"/>
-      <c r="GI21" s="14"/>
-      <c r="GJ21" s="14"/>
-      <c r="GK21" s="14"/>
-      <c r="GL21" s="14"/>
-      <c r="GM21" s="14"/>
-      <c r="GN21" s="14"/>
-      <c r="GO21" s="14"/>
-      <c r="GP21" s="14"/>
-      <c r="GQ21" s="14"/>
-      <c r="GR21" s="14"/>
-      <c r="GS21" s="14"/>
-      <c r="GT21" s="14"/>
-      <c r="GU21" s="14"/>
-      <c r="GV21" s="14"/>
-      <c r="GW21" s="14"/>
-      <c r="GX21" s="14"/>
-      <c r="GY21" s="14"/>
-      <c r="GZ21" s="14"/>
-      <c r="HA21" s="14"/>
-      <c r="HB21" s="14"/>
-      <c r="HC21" s="14"/>
-      <c r="HD21" s="14"/>
-      <c r="HE21" s="14"/>
-      <c r="HF21" s="14"/>
-      <c r="HG21" s="14"/>
-      <c r="HH21" s="14"/>
-      <c r="HI21" s="14"/>
-      <c r="HJ21" s="14"/>
-      <c r="HK21" s="14"/>
-      <c r="HL21" s="14"/>
-      <c r="HM21" s="14"/>
-      <c r="HN21" s="14"/>
-      <c r="HO21" s="14"/>
-      <c r="HP21" s="14"/>
-      <c r="HQ21" s="14"/>
-      <c r="HR21" s="14"/>
-      <c r="HS21" s="14"/>
-      <c r="HT21" s="14"/>
-      <c r="HU21" s="14"/>
-      <c r="HV21" s="14"/>
-      <c r="HW21" s="14"/>
-      <c r="HX21" s="14"/>
-      <c r="HY21" s="14"/>
-      <c r="HZ21" s="14"/>
-      <c r="IA21" s="14"/>
-      <c r="IB21" s="14"/>
-      <c r="IC21" s="14"/>
-      <c r="ID21" s="14"/>
-      <c r="IE21" s="14"/>
-      <c r="IF21" s="14"/>
-      <c r="IG21" s="14"/>
-      <c r="IH21" s="14"/>
-      <c r="II21" s="14"/>
-      <c r="IJ21" s="14"/>
-      <c r="IK21" s="14"/>
-      <c r="IL21" s="14"/>
-      <c r="IM21" s="14"/>
-      <c r="IN21" s="14"/>
-      <c r="IO21" s="14"/>
-      <c r="IP21" s="14"/>
-      <c r="IQ21" s="14"/>
-      <c r="IR21" s="14"/>
-      <c r="IS21" s="14"/>
-      <c r="IT21" s="14"/>
-      <c r="IU21" s="14"/>
-      <c r="IV21" s="14"/>
-    </row>
-    <row r="22" spans="1:256" ht="13" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="14"/>
-      <c r="AL22" s="14"/>
-      <c r="AM22" s="14"/>
-      <c r="AN22" s="14"/>
-      <c r="AO22" s="14"/>
-      <c r="AP22" s="14"/>
-      <c r="AQ22" s="14"/>
-      <c r="AR22" s="14"/>
-      <c r="AS22" s="14"/>
-      <c r="AT22" s="14"/>
-      <c r="AU22" s="14"/>
-      <c r="AV22" s="14"/>
-      <c r="AW22" s="14"/>
-      <c r="AX22" s="14"/>
-      <c r="AY22" s="14"/>
-      <c r="AZ22" s="14"/>
-      <c r="BA22" s="14"/>
-      <c r="BB22" s="14"/>
-      <c r="BC22" s="14"/>
-      <c r="BD22" s="14"/>
-      <c r="BE22" s="14"/>
-      <c r="BF22" s="14"/>
-      <c r="BG22" s="14"/>
-      <c r="BH22" s="14"/>
-      <c r="BI22" s="14"/>
-      <c r="BJ22" s="14"/>
-      <c r="BK22" s="14"/>
-      <c r="BL22" s="14"/>
-      <c r="BM22" s="14"/>
-      <c r="BN22" s="14"/>
-      <c r="BO22" s="14"/>
-      <c r="BP22" s="14"/>
-      <c r="BQ22" s="14"/>
-      <c r="BR22" s="14"/>
-      <c r="BS22" s="14"/>
-      <c r="BT22" s="14"/>
-      <c r="BU22" s="14"/>
-      <c r="BV22" s="14"/>
-      <c r="BW22" s="14"/>
-      <c r="BX22" s="14"/>
-      <c r="BY22" s="14"/>
-      <c r="BZ22" s="14"/>
-      <c r="CA22" s="14"/>
-      <c r="CB22" s="14"/>
-      <c r="CC22" s="14"/>
-      <c r="CD22" s="14"/>
-      <c r="CE22" s="14"/>
-      <c r="CF22" s="14"/>
-      <c r="CG22" s="14"/>
-      <c r="CH22" s="14"/>
-      <c r="CI22" s="14"/>
-      <c r="CJ22" s="14"/>
-      <c r="CK22" s="14"/>
-      <c r="CL22" s="14"/>
-      <c r="CM22" s="14"/>
-      <c r="CN22" s="14"/>
-      <c r="CO22" s="14"/>
-      <c r="CP22" s="14"/>
-      <c r="CQ22" s="14"/>
-      <c r="CR22" s="14"/>
-      <c r="CS22" s="14"/>
-      <c r="CT22" s="14"/>
-      <c r="CU22" s="14"/>
-      <c r="CV22" s="14"/>
-      <c r="CW22" s="14"/>
-      <c r="CX22" s="14"/>
-      <c r="CY22" s="14"/>
-      <c r="CZ22" s="14"/>
-      <c r="DA22" s="14"/>
-      <c r="DB22" s="14"/>
-      <c r="DC22" s="14"/>
-      <c r="DD22" s="14"/>
-      <c r="DE22" s="14"/>
-      <c r="DF22" s="14"/>
-      <c r="DG22" s="14"/>
-      <c r="DH22" s="14"/>
-      <c r="DI22" s="14"/>
-      <c r="DJ22" s="14"/>
-      <c r="DK22" s="14"/>
-      <c r="DL22" s="14"/>
-      <c r="DM22" s="14"/>
-      <c r="DN22" s="14"/>
-      <c r="DO22" s="14"/>
-      <c r="DP22" s="14"/>
-      <c r="DQ22" s="14"/>
-      <c r="DR22" s="14"/>
-      <c r="DS22" s="14"/>
-      <c r="DT22" s="14"/>
-      <c r="DU22" s="14"/>
-      <c r="DV22" s="14"/>
-      <c r="DW22" s="14"/>
-      <c r="DX22" s="14"/>
-      <c r="DY22" s="14"/>
-      <c r="DZ22" s="14"/>
-      <c r="EA22" s="14"/>
-      <c r="EB22" s="14"/>
-      <c r="EC22" s="14"/>
-      <c r="ED22" s="14"/>
-      <c r="EE22" s="14"/>
-      <c r="EF22" s="14"/>
-      <c r="EG22" s="14"/>
-      <c r="EH22" s="14"/>
-      <c r="EI22" s="14"/>
-      <c r="EJ22" s="14"/>
-      <c r="EK22" s="14"/>
-      <c r="EL22" s="14"/>
-      <c r="EM22" s="14"/>
-      <c r="EN22" s="14"/>
-      <c r="EO22" s="14"/>
-      <c r="EP22" s="14"/>
-      <c r="EQ22" s="14"/>
-      <c r="ER22" s="14"/>
-      <c r="ES22" s="14"/>
-      <c r="ET22" s="14"/>
-      <c r="EU22" s="14"/>
-      <c r="EV22" s="14"/>
-      <c r="EW22" s="14"/>
-      <c r="EX22" s="14"/>
-      <c r="EY22" s="14"/>
-      <c r="EZ22" s="14"/>
-      <c r="FA22" s="14"/>
-      <c r="FB22" s="14"/>
-      <c r="FC22" s="14"/>
-      <c r="FD22" s="14"/>
-      <c r="FE22" s="14"/>
-      <c r="FF22" s="14"/>
-      <c r="FG22" s="14"/>
-      <c r="FH22" s="14"/>
-      <c r="FI22" s="14"/>
-      <c r="FJ22" s="14"/>
-      <c r="FK22" s="14"/>
-      <c r="FL22" s="14"/>
-      <c r="FM22" s="14"/>
-      <c r="FN22" s="14"/>
-      <c r="FO22" s="14"/>
-      <c r="FP22" s="14"/>
-      <c r="FQ22" s="14"/>
-      <c r="FR22" s="14"/>
-      <c r="FS22" s="14"/>
-      <c r="FT22" s="14"/>
-      <c r="FU22" s="14"/>
-      <c r="FV22" s="14"/>
-      <c r="FW22" s="14"/>
-      <c r="FX22" s="14"/>
-      <c r="FY22" s="14"/>
-      <c r="FZ22" s="14"/>
-      <c r="GA22" s="14"/>
-      <c r="GB22" s="14"/>
-      <c r="GC22" s="14"/>
-      <c r="GD22" s="14"/>
-      <c r="GE22" s="14"/>
-      <c r="GF22" s="14"/>
-      <c r="GG22" s="14"/>
-      <c r="GH22" s="14"/>
-      <c r="GI22" s="14"/>
-      <c r="GJ22" s="14"/>
-      <c r="GK22" s="14"/>
-      <c r="GL22" s="14"/>
-      <c r="GM22" s="14"/>
-      <c r="GN22" s="14"/>
-      <c r="GO22" s="14"/>
-      <c r="GP22" s="14"/>
-      <c r="GQ22" s="14"/>
-      <c r="GR22" s="14"/>
-      <c r="GS22" s="14"/>
-      <c r="GT22" s="14"/>
-      <c r="GU22" s="14"/>
-      <c r="GV22" s="14"/>
-      <c r="GW22" s="14"/>
-      <c r="GX22" s="14"/>
-      <c r="GY22" s="14"/>
-      <c r="GZ22" s="14"/>
-      <c r="HA22" s="14"/>
-      <c r="HB22" s="14"/>
-      <c r="HC22" s="14"/>
-      <c r="HD22" s="14"/>
-      <c r="HE22" s="14"/>
-      <c r="HF22" s="14"/>
-      <c r="HG22" s="14"/>
-      <c r="HH22" s="14"/>
-      <c r="HI22" s="14"/>
-      <c r="HJ22" s="14"/>
-      <c r="HK22" s="14"/>
-      <c r="HL22" s="14"/>
-      <c r="HM22" s="14"/>
-      <c r="HN22" s="14"/>
-      <c r="HO22" s="14"/>
-      <c r="HP22" s="14"/>
-      <c r="HQ22" s="14"/>
-      <c r="HR22" s="14"/>
-      <c r="HS22" s="14"/>
-      <c r="HT22" s="14"/>
-      <c r="HU22" s="14"/>
-      <c r="HV22" s="14"/>
-      <c r="HW22" s="14"/>
-      <c r="HX22" s="14"/>
-      <c r="HY22" s="14"/>
-      <c r="HZ22" s="14"/>
-      <c r="IA22" s="14"/>
-      <c r="IB22" s="14"/>
-      <c r="IC22" s="14"/>
-      <c r="ID22" s="14"/>
-      <c r="IE22" s="14"/>
-      <c r="IF22" s="14"/>
-      <c r="IG22" s="14"/>
-      <c r="IH22" s="14"/>
-      <c r="II22" s="14"/>
-      <c r="IJ22" s="14"/>
-      <c r="IK22" s="14"/>
-      <c r="IL22" s="14"/>
-      <c r="IM22" s="14"/>
-      <c r="IN22" s="14"/>
-      <c r="IO22" s="14"/>
-      <c r="IP22" s="14"/>
-      <c r="IQ22" s="14"/>
-      <c r="IR22" s="14"/>
-      <c r="IS22" s="14"/>
-      <c r="IT22" s="14"/>
-      <c r="IU22" s="14"/>
-      <c r="IV22" s="14"/>
-    </row>
-    <row r="23" spans="1:256" ht="13" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="14"/>
-      <c r="AL23" s="14"/>
-      <c r="AM23" s="14"/>
-      <c r="AN23" s="14"/>
-      <c r="AO23" s="14"/>
-      <c r="AP23" s="14"/>
-      <c r="AQ23" s="14"/>
-      <c r="AR23" s="14"/>
-      <c r="AS23" s="14"/>
-      <c r="AT23" s="14"/>
-      <c r="AU23" s="14"/>
-      <c r="AV23" s="14"/>
-      <c r="AW23" s="14"/>
-      <c r="AX23" s="14"/>
-      <c r="AY23" s="14"/>
-      <c r="AZ23" s="14"/>
-      <c r="BA23" s="14"/>
-      <c r="BB23" s="14"/>
-      <c r="BC23" s="14"/>
-      <c r="BD23" s="14"/>
-      <c r="BE23" s="14"/>
-      <c r="BF23" s="14"/>
-      <c r="BG23" s="14"/>
-      <c r="BH23" s="14"/>
-      <c r="BI23" s="14"/>
-      <c r="BJ23" s="14"/>
-      <c r="BK23" s="14"/>
-      <c r="BL23" s="14"/>
-      <c r="BM23" s="14"/>
-      <c r="BN23" s="14"/>
-      <c r="BO23" s="14"/>
-      <c r="BP23" s="14"/>
-      <c r="BQ23" s="14"/>
-      <c r="BR23" s="14"/>
-      <c r="BS23" s="14"/>
-      <c r="BT23" s="14"/>
-      <c r="BU23" s="14"/>
-      <c r="BV23" s="14"/>
-      <c r="BW23" s="14"/>
-      <c r="BX23" s="14"/>
-      <c r="BY23" s="14"/>
-      <c r="BZ23" s="14"/>
-      <c r="CA23" s="14"/>
-      <c r="CB23" s="14"/>
-      <c r="CC23" s="14"/>
-      <c r="CD23" s="14"/>
-      <c r="CE23" s="14"/>
-      <c r="CF23" s="14"/>
-      <c r="CG23" s="14"/>
-      <c r="CH23" s="14"/>
-      <c r="CI23" s="14"/>
-      <c r="CJ23" s="14"/>
-      <c r="CK23" s="14"/>
-      <c r="CL23" s="14"/>
-      <c r="CM23" s="14"/>
-      <c r="CN23" s="14"/>
-      <c r="CO23" s="14"/>
-      <c r="CP23" s="14"/>
-      <c r="CQ23" s="14"/>
-      <c r="CR23" s="14"/>
-      <c r="CS23" s="14"/>
-      <c r="CT23" s="14"/>
-      <c r="CU23" s="14"/>
-      <c r="CV23" s="14"/>
-      <c r="CW23" s="14"/>
-      <c r="CX23" s="14"/>
-      <c r="CY23" s="14"/>
-      <c r="CZ23" s="14"/>
-      <c r="DA23" s="14"/>
-      <c r="DB23" s="14"/>
-      <c r="DC23" s="14"/>
-      <c r="DD23" s="14"/>
-      <c r="DE23" s="14"/>
-      <c r="DF23" s="14"/>
-      <c r="DG23" s="14"/>
-      <c r="DH23" s="14"/>
-      <c r="DI23" s="14"/>
-      <c r="DJ23" s="14"/>
-      <c r="DK23" s="14"/>
-      <c r="DL23" s="14"/>
-      <c r="DM23" s="14"/>
-      <c r="DN23" s="14"/>
-      <c r="DO23" s="14"/>
-      <c r="DP23" s="14"/>
-      <c r="DQ23" s="14"/>
-      <c r="DR23" s="14"/>
-      <c r="DS23" s="14"/>
-      <c r="DT23" s="14"/>
-      <c r="DU23" s="14"/>
-      <c r="DV23" s="14"/>
-      <c r="DW23" s="14"/>
-      <c r="DX23" s="14"/>
-      <c r="DY23" s="14"/>
-      <c r="DZ23" s="14"/>
-      <c r="EA23" s="14"/>
-      <c r="EB23" s="14"/>
-      <c r="EC23" s="14"/>
-      <c r="ED23" s="14"/>
-      <c r="EE23" s="14"/>
-      <c r="EF23" s="14"/>
-      <c r="EG23" s="14"/>
-      <c r="EH23" s="14"/>
-      <c r="EI23" s="14"/>
-      <c r="EJ23" s="14"/>
-      <c r="EK23" s="14"/>
-      <c r="EL23" s="14"/>
-      <c r="EM23" s="14"/>
-      <c r="EN23" s="14"/>
-      <c r="EO23" s="14"/>
-      <c r="EP23" s="14"/>
-      <c r="EQ23" s="14"/>
-      <c r="ER23" s="14"/>
-      <c r="ES23" s="14"/>
-      <c r="ET23" s="14"/>
-      <c r="EU23" s="14"/>
-      <c r="EV23" s="14"/>
-      <c r="EW23" s="14"/>
-      <c r="EX23" s="14"/>
-      <c r="EY23" s="14"/>
-      <c r="EZ23" s="14"/>
-      <c r="FA23" s="14"/>
-      <c r="FB23" s="14"/>
-      <c r="FC23" s="14"/>
-      <c r="FD23" s="14"/>
-      <c r="FE23" s="14"/>
-      <c r="FF23" s="14"/>
-      <c r="FG23" s="14"/>
-      <c r="FH23" s="14"/>
-      <c r="FI23" s="14"/>
-      <c r="FJ23" s="14"/>
-      <c r="FK23" s="14"/>
-      <c r="FL23" s="14"/>
-      <c r="FM23" s="14"/>
-      <c r="FN23" s="14"/>
-      <c r="FO23" s="14"/>
-      <c r="FP23" s="14"/>
-      <c r="FQ23" s="14"/>
-      <c r="FR23" s="14"/>
-      <c r="FS23" s="14"/>
-      <c r="FT23" s="14"/>
-      <c r="FU23" s="14"/>
-      <c r="FV23" s="14"/>
-      <c r="FW23" s="14"/>
-      <c r="FX23" s="14"/>
-      <c r="FY23" s="14"/>
-      <c r="FZ23" s="14"/>
-      <c r="GA23" s="14"/>
-      <c r="GB23" s="14"/>
-      <c r="GC23" s="14"/>
-      <c r="GD23" s="14"/>
-      <c r="GE23" s="14"/>
-      <c r="GF23" s="14"/>
-      <c r="GG23" s="14"/>
-      <c r="GH23" s="14"/>
-      <c r="GI23" s="14"/>
-      <c r="GJ23" s="14"/>
-      <c r="GK23" s="14"/>
-      <c r="GL23" s="14"/>
-      <c r="GM23" s="14"/>
-      <c r="GN23" s="14"/>
-      <c r="GO23" s="14"/>
-      <c r="GP23" s="14"/>
-      <c r="GQ23" s="14"/>
-      <c r="GR23" s="14"/>
-      <c r="GS23" s="14"/>
-      <c r="GT23" s="14"/>
-      <c r="GU23" s="14"/>
-      <c r="GV23" s="14"/>
-      <c r="GW23" s="14"/>
-      <c r="GX23" s="14"/>
-      <c r="GY23" s="14"/>
-      <c r="GZ23" s="14"/>
-      <c r="HA23" s="14"/>
-      <c r="HB23" s="14"/>
-      <c r="HC23" s="14"/>
-      <c r="HD23" s="14"/>
-      <c r="HE23" s="14"/>
-      <c r="HF23" s="14"/>
-      <c r="HG23" s="14"/>
-      <c r="HH23" s="14"/>
-      <c r="HI23" s="14"/>
-      <c r="HJ23" s="14"/>
-      <c r="HK23" s="14"/>
-      <c r="HL23" s="14"/>
-      <c r="HM23" s="14"/>
-      <c r="HN23" s="14"/>
-      <c r="HO23" s="14"/>
-      <c r="HP23" s="14"/>
-      <c r="HQ23" s="14"/>
-      <c r="HR23" s="14"/>
-      <c r="HS23" s="14"/>
-      <c r="HT23" s="14"/>
-      <c r="HU23" s="14"/>
-      <c r="HV23" s="14"/>
-      <c r="HW23" s="14"/>
-      <c r="HX23" s="14"/>
-      <c r="HY23" s="14"/>
-      <c r="HZ23" s="14"/>
-      <c r="IA23" s="14"/>
-      <c r="IB23" s="14"/>
-      <c r="IC23" s="14"/>
-      <c r="ID23" s="14"/>
-      <c r="IE23" s="14"/>
-      <c r="IF23" s="14"/>
-      <c r="IG23" s="14"/>
-      <c r="IH23" s="14"/>
-      <c r="II23" s="14"/>
-      <c r="IJ23" s="14"/>
-      <c r="IK23" s="14"/>
-      <c r="IL23" s="14"/>
-      <c r="IM23" s="14"/>
-      <c r="IN23" s="14"/>
-      <c r="IO23" s="14"/>
-      <c r="IP23" s="14"/>
-      <c r="IQ23" s="14"/>
-      <c r="IR23" s="14"/>
-      <c r="IS23" s="14"/>
-      <c r="IT23" s="14"/>
-      <c r="IU23" s="14"/>
-      <c r="IV23" s="14"/>
-    </row>
-    <row r="24" spans="1:256" ht="13" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="14"/>
-      <c r="AM24" s="14"/>
-      <c r="AN24" s="14"/>
-      <c r="AO24" s="14"/>
-      <c r="AP24" s="14"/>
-      <c r="AQ24" s="14"/>
-      <c r="AR24" s="14"/>
-      <c r="AS24" s="14"/>
-      <c r="AT24" s="14"/>
-      <c r="AU24" s="14"/>
-      <c r="AV24" s="14"/>
-      <c r="AW24" s="14"/>
-      <c r="AX24" s="14"/>
-      <c r="AY24" s="14"/>
-      <c r="AZ24" s="14"/>
-      <c r="BA24" s="14"/>
-      <c r="BB24" s="14"/>
-      <c r="BC24" s="14"/>
-      <c r="BD24" s="14"/>
-      <c r="BE24" s="14"/>
-      <c r="BF24" s="14"/>
-      <c r="BG24" s="14"/>
-      <c r="BH24" s="14"/>
-      <c r="BI24" s="14"/>
-      <c r="BJ24" s="14"/>
-      <c r="BK24" s="14"/>
-      <c r="BL24" s="14"/>
-      <c r="BM24" s="14"/>
-      <c r="BN24" s="14"/>
-      <c r="BO24" s="14"/>
-      <c r="BP24" s="14"/>
-      <c r="BQ24" s="14"/>
-      <c r="BR24" s="14"/>
-      <c r="BS24" s="14"/>
-      <c r="BT24" s="14"/>
-      <c r="BU24" s="14"/>
-      <c r="BV24" s="14"/>
-      <c r="BW24" s="14"/>
-      <c r="BX24" s="14"/>
-      <c r="BY24" s="14"/>
-      <c r="BZ24" s="14"/>
-      <c r="CA24" s="14"/>
-      <c r="CB24" s="14"/>
-      <c r="CC24" s="14"/>
-      <c r="CD24" s="14"/>
-      <c r="CE24" s="14"/>
-      <c r="CF24" s="14"/>
-      <c r="CG24" s="14"/>
-      <c r="CH24" s="14"/>
-      <c r="CI24" s="14"/>
-      <c r="CJ24" s="14"/>
-      <c r="CK24" s="14"/>
-      <c r="CL24" s="14"/>
-      <c r="CM24" s="14"/>
-      <c r="CN24" s="14"/>
-      <c r="CO24" s="14"/>
-      <c r="CP24" s="14"/>
-      <c r="CQ24" s="14"/>
-      <c r="CR24" s="14"/>
-      <c r="CS24" s="14"/>
-      <c r="CT24" s="14"/>
-      <c r="CU24" s="14"/>
-      <c r="CV24" s="14"/>
-      <c r="CW24" s="14"/>
-      <c r="CX24" s="14"/>
-      <c r="CY24" s="14"/>
-      <c r="CZ24" s="14"/>
-      <c r="DA24" s="14"/>
-      <c r="DB24" s="14"/>
-      <c r="DC24" s="14"/>
-      <c r="DD24" s="14"/>
-      <c r="DE24" s="14"/>
-      <c r="DF24" s="14"/>
-      <c r="DG24" s="14"/>
-      <c r="DH24" s="14"/>
-      <c r="DI24" s="14"/>
-      <c r="DJ24" s="14"/>
-      <c r="DK24" s="14"/>
-      <c r="DL24" s="14"/>
-      <c r="DM24" s="14"/>
-      <c r="DN24" s="14"/>
-      <c r="DO24" s="14"/>
-      <c r="DP24" s="14"/>
-      <c r="DQ24" s="14"/>
-      <c r="DR24" s="14"/>
-      <c r="DS24" s="14"/>
-      <c r="DT24" s="14"/>
-      <c r="DU24" s="14"/>
-      <c r="DV24" s="14"/>
-      <c r="DW24" s="14"/>
-      <c r="DX24" s="14"/>
-      <c r="DY24" s="14"/>
-      <c r="DZ24" s="14"/>
-      <c r="EA24" s="14"/>
-      <c r="EB24" s="14"/>
-      <c r="EC24" s="14"/>
-      <c r="ED24" s="14"/>
-      <c r="EE24" s="14"/>
-      <c r="EF24" s="14"/>
-      <c r="EG24" s="14"/>
-      <c r="EH24" s="14"/>
-      <c r="EI24" s="14"/>
-      <c r="EJ24" s="14"/>
-      <c r="EK24" s="14"/>
-      <c r="EL24" s="14"/>
-      <c r="EM24" s="14"/>
-      <c r="EN24" s="14"/>
-      <c r="EO24" s="14"/>
-      <c r="EP24" s="14"/>
-      <c r="EQ24" s="14"/>
-      <c r="ER24" s="14"/>
-      <c r="ES24" s="14"/>
-      <c r="ET24" s="14"/>
-      <c r="EU24" s="14"/>
-      <c r="EV24" s="14"/>
-      <c r="EW24" s="14"/>
-      <c r="EX24" s="14"/>
-      <c r="EY24" s="14"/>
-      <c r="EZ24" s="14"/>
-      <c r="FA24" s="14"/>
-      <c r="FB24" s="14"/>
-      <c r="FC24" s="14"/>
-      <c r="FD24" s="14"/>
-      <c r="FE24" s="14"/>
-      <c r="FF24" s="14"/>
-      <c r="FG24" s="14"/>
-      <c r="FH24" s="14"/>
-      <c r="FI24" s="14"/>
-      <c r="FJ24" s="14"/>
-      <c r="FK24" s="14"/>
-      <c r="FL24" s="14"/>
-      <c r="FM24" s="14"/>
-      <c r="FN24" s="14"/>
-      <c r="FO24" s="14"/>
-      <c r="FP24" s="14"/>
-      <c r="FQ24" s="14"/>
-      <c r="FR24" s="14"/>
-      <c r="FS24" s="14"/>
-      <c r="FT24" s="14"/>
-      <c r="FU24" s="14"/>
-      <c r="FV24" s="14"/>
-      <c r="FW24" s="14"/>
-      <c r="FX24" s="14"/>
-      <c r="FY24" s="14"/>
-      <c r="FZ24" s="14"/>
-      <c r="GA24" s="14"/>
-      <c r="GB24" s="14"/>
-      <c r="GC24" s="14"/>
-      <c r="GD24" s="14"/>
-      <c r="GE24" s="14"/>
-      <c r="GF24" s="14"/>
-      <c r="GG24" s="14"/>
-      <c r="GH24" s="14"/>
-      <c r="GI24" s="14"/>
-      <c r="GJ24" s="14"/>
-      <c r="GK24" s="14"/>
-      <c r="GL24" s="14"/>
-      <c r="GM24" s="14"/>
-      <c r="GN24" s="14"/>
-      <c r="GO24" s="14"/>
-      <c r="GP24" s="14"/>
-      <c r="GQ24" s="14"/>
-      <c r="GR24" s="14"/>
-      <c r="GS24" s="14"/>
-      <c r="GT24" s="14"/>
-      <c r="GU24" s="14"/>
-      <c r="GV24" s="14"/>
-      <c r="GW24" s="14"/>
-      <c r="GX24" s="14"/>
-      <c r="GY24" s="14"/>
-      <c r="GZ24" s="14"/>
-      <c r="HA24" s="14"/>
-      <c r="HB24" s="14"/>
-      <c r="HC24" s="14"/>
-      <c r="HD24" s="14"/>
-      <c r="HE24" s="14"/>
-      <c r="HF24" s="14"/>
-      <c r="HG24" s="14"/>
-      <c r="HH24" s="14"/>
-      <c r="HI24" s="14"/>
-      <c r="HJ24" s="14"/>
-      <c r="HK24" s="14"/>
-      <c r="HL24" s="14"/>
-      <c r="HM24" s="14"/>
-      <c r="HN24" s="14"/>
-      <c r="HO24" s="14"/>
-      <c r="HP24" s="14"/>
-      <c r="HQ24" s="14"/>
-      <c r="HR24" s="14"/>
-      <c r="HS24" s="14"/>
-      <c r="HT24" s="14"/>
-      <c r="HU24" s="14"/>
-      <c r="HV24" s="14"/>
-      <c r="HW24" s="14"/>
-      <c r="HX24" s="14"/>
-      <c r="HY24" s="14"/>
-      <c r="HZ24" s="14"/>
-      <c r="IA24" s="14"/>
-      <c r="IB24" s="14"/>
-      <c r="IC24" s="14"/>
-      <c r="ID24" s="14"/>
-      <c r="IE24" s="14"/>
-      <c r="IF24" s="14"/>
-      <c r="IG24" s="14"/>
-      <c r="IH24" s="14"/>
-      <c r="II24" s="14"/>
-      <c r="IJ24" s="14"/>
-      <c r="IK24" s="14"/>
-      <c r="IL24" s="14"/>
-      <c r="IM24" s="14"/>
-      <c r="IN24" s="14"/>
-      <c r="IO24" s="14"/>
-      <c r="IP24" s="14"/>
-      <c r="IQ24" s="14"/>
-      <c r="IR24" s="14"/>
-      <c r="IS24" s="14"/>
-      <c r="IT24" s="14"/>
-      <c r="IU24" s="14"/>
-      <c r="IV24"/>
-    </row>
-    <row r="25" spans="1:256" ht="13" customHeight="1">
-      <c r="A25" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="IV25"/>
-    </row>
-    <row r="26" spans="1:256" ht="13" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="IV26"/>
-    </row>
-    <row r="27" spans="1:256" ht="13" customHeight="1">
-      <c r="A27" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="IV27"/>
-    </row>
-    <row r="28" spans="1:256" ht="13" customHeight="1">
-      <c r="A28" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="IV28"/>
-    </row>
-    <row r="29" spans="1:256" ht="13" customHeight="1">
-      <c r="A29" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="IV29"/>
-    </row>
-    <row r="30" spans="1:256" ht="15.25" customHeight="1">
-      <c r="A30" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="14"/>
-      <c r="AN30" s="14"/>
-      <c r="AO30" s="14"/>
-      <c r="AP30" s="14"/>
-      <c r="AQ30" s="14"/>
-      <c r="AR30" s="14"/>
-      <c r="AS30" s="14"/>
-      <c r="AT30" s="14"/>
-      <c r="AU30" s="14"/>
-      <c r="AV30" s="14"/>
-      <c r="AW30" s="14"/>
-      <c r="AX30" s="14"/>
-      <c r="AY30" s="14"/>
-      <c r="AZ30" s="14"/>
-      <c r="BA30" s="14"/>
-      <c r="BB30" s="14"/>
-      <c r="BC30" s="14"/>
-      <c r="BD30" s="14"/>
-      <c r="BE30" s="14"/>
-      <c r="BF30" s="14"/>
-      <c r="BG30" s="14"/>
-      <c r="BH30" s="14"/>
-      <c r="BI30" s="14"/>
-      <c r="BJ30" s="14"/>
-      <c r="BK30" s="14"/>
-      <c r="BL30" s="14"/>
-      <c r="BM30" s="14"/>
-      <c r="BN30" s="14"/>
-      <c r="BO30" s="14"/>
-      <c r="BP30" s="14"/>
-      <c r="BQ30" s="14"/>
-      <c r="BR30" s="14"/>
-      <c r="BS30" s="14"/>
-      <c r="BT30" s="14"/>
-      <c r="BU30" s="14"/>
-      <c r="BV30" s="14"/>
-      <c r="BW30" s="14"/>
-      <c r="BX30" s="14"/>
-      <c r="BY30" s="14"/>
-      <c r="BZ30" s="14"/>
-      <c r="CA30" s="14"/>
-      <c r="CB30" s="14"/>
-      <c r="CC30" s="14"/>
-      <c r="CD30" s="14"/>
-      <c r="CE30" s="14"/>
-      <c r="CF30" s="14"/>
-      <c r="CG30" s="14"/>
-      <c r="CH30" s="14"/>
-      <c r="CI30" s="14"/>
-      <c r="CJ30" s="14"/>
-      <c r="CK30" s="14"/>
-      <c r="CL30" s="14"/>
-      <c r="CM30" s="14"/>
-      <c r="CN30" s="14"/>
-      <c r="CO30" s="14"/>
-      <c r="CP30" s="14"/>
-      <c r="CQ30" s="14"/>
-      <c r="CR30" s="14"/>
-      <c r="CS30" s="14"/>
-      <c r="CT30" s="14"/>
-      <c r="CU30" s="14"/>
-      <c r="CV30" s="14"/>
-      <c r="CW30" s="14"/>
-      <c r="CX30" s="14"/>
-      <c r="CY30" s="14"/>
-      <c r="CZ30" s="14"/>
-      <c r="DA30" s="14"/>
-      <c r="DB30" s="14"/>
-      <c r="DC30" s="14"/>
-      <c r="DD30" s="14"/>
-      <c r="DE30" s="14"/>
-      <c r="DF30" s="14"/>
-      <c r="DG30" s="14"/>
-      <c r="DH30" s="14"/>
-      <c r="DI30" s="14"/>
-      <c r="DJ30" s="14"/>
-      <c r="DK30" s="14"/>
-      <c r="DL30" s="14"/>
-      <c r="DM30" s="14"/>
-      <c r="DN30" s="14"/>
-      <c r="DO30" s="14"/>
-      <c r="DP30" s="14"/>
-      <c r="DQ30" s="14"/>
-      <c r="DR30" s="14"/>
-      <c r="DS30" s="14"/>
-      <c r="DT30" s="14"/>
-      <c r="DU30" s="14"/>
-      <c r="DV30" s="14"/>
-      <c r="DW30" s="14"/>
-      <c r="DX30" s="14"/>
-      <c r="DY30" s="14"/>
-      <c r="DZ30" s="14"/>
-      <c r="EA30" s="14"/>
-      <c r="EB30" s="14"/>
-      <c r="EC30" s="14"/>
-      <c r="ED30" s="14"/>
-      <c r="EE30" s="14"/>
-      <c r="EF30" s="14"/>
-      <c r="EG30" s="14"/>
-      <c r="EH30" s="14"/>
-      <c r="EI30" s="14"/>
-      <c r="EJ30" s="14"/>
-      <c r="EK30" s="14"/>
-      <c r="EL30" s="14"/>
-      <c r="EM30" s="14"/>
-      <c r="EN30" s="14"/>
-      <c r="EO30" s="14"/>
-      <c r="EP30" s="14"/>
-      <c r="EQ30" s="14"/>
-      <c r="ER30" s="14"/>
-      <c r="ES30" s="14"/>
-      <c r="ET30" s="14"/>
-      <c r="EU30" s="14"/>
-      <c r="EV30" s="14"/>
-      <c r="EW30" s="14"/>
-      <c r="EX30" s="14"/>
-      <c r="EY30" s="14"/>
-      <c r="EZ30" s="14"/>
-      <c r="FA30" s="14"/>
-      <c r="FB30" s="14"/>
-      <c r="FC30" s="14"/>
-      <c r="FD30" s="14"/>
-      <c r="FE30" s="14"/>
-      <c r="FF30" s="14"/>
-      <c r="FG30" s="14"/>
-      <c r="FH30" s="14"/>
-      <c r="FI30" s="14"/>
-      <c r="FJ30" s="14"/>
-      <c r="FK30" s="14"/>
-      <c r="FL30" s="14"/>
-      <c r="FM30" s="14"/>
-      <c r="FN30" s="14"/>
-      <c r="FO30" s="14"/>
-      <c r="FP30" s="14"/>
-      <c r="FQ30" s="14"/>
-      <c r="FR30" s="14"/>
-      <c r="FS30" s="14"/>
-      <c r="FT30" s="14"/>
-      <c r="FU30" s="14"/>
-      <c r="FV30" s="14"/>
-      <c r="FW30" s="14"/>
-      <c r="FX30" s="14"/>
-      <c r="FY30" s="14"/>
-      <c r="FZ30" s="14"/>
-      <c r="GA30" s="14"/>
-      <c r="GB30" s="14"/>
-      <c r="GC30" s="14"/>
-      <c r="GD30" s="14"/>
-      <c r="GE30" s="14"/>
-      <c r="GF30" s="14"/>
-      <c r="GG30" s="14"/>
-      <c r="GH30" s="14"/>
-      <c r="GI30" s="14"/>
-      <c r="GJ30" s="14"/>
-      <c r="GK30" s="14"/>
-      <c r="GL30" s="14"/>
-      <c r="GM30" s="14"/>
-      <c r="GN30" s="14"/>
-      <c r="GO30" s="14"/>
-      <c r="GP30" s="14"/>
-      <c r="GQ30" s="14"/>
-      <c r="GR30" s="14"/>
-      <c r="GS30" s="14"/>
-      <c r="GT30" s="14"/>
-      <c r="GU30" s="14"/>
-      <c r="GV30" s="14"/>
-      <c r="GW30" s="14"/>
-      <c r="GX30" s="14"/>
-      <c r="GY30" s="14"/>
-      <c r="GZ30" s="14"/>
-      <c r="HA30" s="14"/>
-      <c r="HB30" s="14"/>
-      <c r="HC30" s="14"/>
-      <c r="HD30" s="14"/>
-      <c r="HE30" s="14"/>
-      <c r="HF30" s="14"/>
-      <c r="HG30" s="14"/>
-      <c r="HH30" s="14"/>
-      <c r="HI30" s="14"/>
-      <c r="HJ30" s="14"/>
-      <c r="HK30" s="14"/>
-      <c r="HL30" s="14"/>
-      <c r="HM30" s="14"/>
-      <c r="HN30" s="14"/>
-      <c r="HO30" s="14"/>
-      <c r="HP30" s="14"/>
-      <c r="HQ30" s="14"/>
-      <c r="HR30" s="14"/>
-      <c r="HS30" s="14"/>
-      <c r="HT30" s="14"/>
-      <c r="HU30" s="14"/>
-      <c r="HV30" s="14"/>
-      <c r="HW30" s="14"/>
-      <c r="HX30" s="14"/>
-      <c r="HY30" s="14"/>
-      <c r="HZ30" s="14"/>
-      <c r="IA30" s="14"/>
-      <c r="IB30" s="14"/>
-      <c r="IC30" s="14"/>
-      <c r="ID30" s="14"/>
-      <c r="IE30" s="14"/>
-      <c r="IF30" s="14"/>
-      <c r="IG30" s="14"/>
-      <c r="IH30" s="14"/>
-      <c r="II30" s="14"/>
-      <c r="IJ30" s="14"/>
-      <c r="IK30" s="14"/>
-      <c r="IL30" s="14"/>
-      <c r="IM30" s="14"/>
-      <c r="IN30" s="14"/>
-      <c r="IO30" s="14"/>
-      <c r="IP30" s="14"/>
-      <c r="IQ30" s="14"/>
-      <c r="IR30" s="14"/>
-      <c r="IS30" s="14"/>
-      <c r="IT30" s="14"/>
-      <c r="IU30" s="14"/>
-      <c r="IV30"/>
-    </row>
-    <row r="31" spans="1:256" ht="13" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="IV31"/>
-    </row>
-    <row r="32" spans="1:256" ht="13" customHeight="1">
-      <c r="A32" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="IV32"/>
-    </row>
-    <row r="33" spans="1:256" ht="13" customHeight="1">
-      <c r="A33" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="IV33"/>
-    </row>
-    <row r="34" spans="1:256" ht="13" customHeight="1">
-      <c r="A34" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="IV34"/>
-    </row>
-    <row r="35" spans="1:256" ht="13" customHeight="1">
-      <c r="A35" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="14"/>
-      <c r="AE35" s="14"/>
-      <c r="AF35" s="14"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="14"/>
-      <c r="AK35" s="14"/>
-      <c r="AL35" s="14"/>
-      <c r="AM35" s="14"/>
-      <c r="AN35" s="14"/>
-      <c r="AO35" s="14"/>
-      <c r="AP35" s="14"/>
-      <c r="AQ35" s="14"/>
-      <c r="AR35" s="14"/>
-      <c r="AS35" s="14"/>
-      <c r="AT35" s="14"/>
-      <c r="AU35" s="14"/>
-      <c r="AV35" s="14"/>
-      <c r="AW35" s="14"/>
-      <c r="AX35" s="14"/>
-      <c r="AY35" s="14"/>
-      <c r="AZ35" s="14"/>
-      <c r="BA35" s="14"/>
-      <c r="BB35" s="14"/>
-      <c r="BC35" s="14"/>
-      <c r="BD35" s="14"/>
-      <c r="BE35" s="14"/>
-      <c r="BF35" s="14"/>
-      <c r="BG35" s="14"/>
-      <c r="BH35" s="14"/>
-      <c r="BI35" s="14"/>
-      <c r="BJ35" s="14"/>
-      <c r="BK35" s="14"/>
-      <c r="BL35" s="14"/>
-      <c r="BM35" s="14"/>
-      <c r="BN35" s="14"/>
-      <c r="BO35" s="14"/>
-      <c r="BP35" s="14"/>
-      <c r="BQ35" s="14"/>
-      <c r="BR35" s="14"/>
-      <c r="BS35" s="14"/>
-      <c r="BT35" s="14"/>
-      <c r="BU35" s="14"/>
-      <c r="BV35" s="14"/>
-      <c r="BW35" s="14"/>
-      <c r="BX35" s="14"/>
-      <c r="BY35" s="14"/>
-      <c r="BZ35" s="14"/>
-      <c r="CA35" s="14"/>
-      <c r="CB35" s="14"/>
-      <c r="CC35" s="14"/>
-      <c r="CD35" s="14"/>
-      <c r="CE35" s="14"/>
-      <c r="CF35" s="14"/>
-      <c r="CG35" s="14"/>
-      <c r="CH35" s="14"/>
-      <c r="CI35" s="14"/>
-      <c r="CJ35" s="14"/>
-      <c r="CK35" s="14"/>
-      <c r="CL35" s="14"/>
-      <c r="CM35" s="14"/>
-      <c r="CN35" s="14"/>
-      <c r="CO35" s="14"/>
-      <c r="CP35" s="14"/>
-      <c r="CQ35" s="14"/>
-      <c r="CR35" s="14"/>
-      <c r="CS35" s="14"/>
-      <c r="CT35" s="14"/>
-      <c r="CU35" s="14"/>
-      <c r="CV35" s="14"/>
-      <c r="CW35" s="14"/>
-      <c r="CX35" s="14"/>
-      <c r="CY35" s="14"/>
-      <c r="CZ35" s="14"/>
-      <c r="DA35" s="14"/>
-      <c r="DB35" s="14"/>
-      <c r="DC35" s="14"/>
-      <c r="DD35" s="14"/>
-      <c r="DE35" s="14"/>
-      <c r="DF35" s="14"/>
-      <c r="DG35" s="14"/>
-      <c r="DH35" s="14"/>
-      <c r="DI35" s="14"/>
-      <c r="DJ35" s="14"/>
-      <c r="DK35" s="14"/>
-      <c r="DL35" s="14"/>
-      <c r="DM35" s="14"/>
-      <c r="DN35" s="14"/>
-      <c r="DO35" s="14"/>
-      <c r="DP35" s="14"/>
-      <c r="DQ35" s="14"/>
-      <c r="DR35" s="14"/>
-      <c r="DS35" s="14"/>
-      <c r="DT35" s="14"/>
-      <c r="DU35" s="14"/>
-      <c r="DV35" s="14"/>
-      <c r="DW35" s="14"/>
-      <c r="DX35" s="14"/>
-      <c r="DY35" s="14"/>
-      <c r="DZ35" s="14"/>
-      <c r="EA35" s="14"/>
-      <c r="EB35" s="14"/>
-      <c r="EC35" s="14"/>
-      <c r="ED35" s="14"/>
-      <c r="EE35" s="14"/>
-      <c r="EF35" s="14"/>
-      <c r="EG35" s="14"/>
-      <c r="EH35" s="14"/>
-      <c r="EI35" s="14"/>
-      <c r="EJ35" s="14"/>
-      <c r="EK35" s="14"/>
-      <c r="EL35" s="14"/>
-      <c r="EM35" s="14"/>
-      <c r="EN35" s="14"/>
-      <c r="EO35" s="14"/>
-      <c r="EP35" s="14"/>
-      <c r="EQ35" s="14"/>
-      <c r="ER35" s="14"/>
-      <c r="ES35" s="14"/>
-      <c r="ET35" s="14"/>
-      <c r="EU35" s="14"/>
-      <c r="EV35" s="14"/>
-      <c r="EW35" s="14"/>
-      <c r="EX35" s="14"/>
-      <c r="EY35" s="14"/>
-      <c r="EZ35" s="14"/>
-      <c r="FA35" s="14"/>
-      <c r="FB35" s="14"/>
-      <c r="FC35" s="14"/>
-      <c r="FD35" s="14"/>
-      <c r="FE35" s="14"/>
-      <c r="FF35" s="14"/>
-      <c r="FG35" s="14"/>
-      <c r="FH35" s="14"/>
-      <c r="FI35" s="14"/>
-      <c r="FJ35" s="14"/>
-      <c r="FK35" s="14"/>
-      <c r="FL35" s="14"/>
-      <c r="FM35" s="14"/>
-      <c r="FN35" s="14"/>
-      <c r="FO35" s="14"/>
-      <c r="FP35" s="14"/>
-      <c r="FQ35" s="14"/>
-      <c r="FR35" s="14"/>
-      <c r="FS35" s="14"/>
-      <c r="FT35" s="14"/>
-      <c r="FU35" s="14"/>
-      <c r="FV35" s="14"/>
-      <c r="FW35" s="14"/>
-      <c r="FX35" s="14"/>
-      <c r="FY35" s="14"/>
-      <c r="FZ35" s="14"/>
-      <c r="GA35" s="14"/>
-      <c r="GB35" s="14"/>
-      <c r="GC35" s="14"/>
-      <c r="GD35" s="14"/>
-      <c r="GE35" s="14"/>
-      <c r="GF35" s="14"/>
-      <c r="GG35" s="14"/>
-      <c r="GH35" s="14"/>
-      <c r="GI35" s="14"/>
-      <c r="GJ35" s="14"/>
-      <c r="GK35" s="14"/>
-      <c r="GL35" s="14"/>
-      <c r="GM35" s="14"/>
-      <c r="GN35" s="14"/>
-      <c r="GO35" s="14"/>
-      <c r="GP35" s="14"/>
-      <c r="GQ35" s="14"/>
-      <c r="GR35" s="14"/>
-      <c r="GS35" s="14"/>
-      <c r="GT35" s="14"/>
-      <c r="GU35" s="14"/>
-      <c r="GV35" s="14"/>
-      <c r="GW35" s="14"/>
-      <c r="GX35" s="14"/>
-      <c r="GY35" s="14"/>
-      <c r="GZ35" s="14"/>
-      <c r="HA35" s="14"/>
-      <c r="HB35" s="14"/>
-      <c r="HC35" s="14"/>
-      <c r="HD35" s="14"/>
-      <c r="HE35" s="14"/>
-      <c r="HF35" s="14"/>
-      <c r="HG35" s="14"/>
-      <c r="HH35" s="14"/>
-      <c r="HI35" s="14"/>
-      <c r="HJ35" s="14"/>
-      <c r="HK35" s="14"/>
-      <c r="HL35" s="14"/>
-      <c r="HM35" s="14"/>
-      <c r="HN35" s="14"/>
-      <c r="HO35" s="14"/>
-      <c r="HP35" s="14"/>
-      <c r="HQ35" s="14"/>
-      <c r="HR35" s="14"/>
-      <c r="HS35" s="14"/>
-      <c r="HT35" s="14"/>
-      <c r="HU35" s="14"/>
-      <c r="HV35" s="14"/>
-      <c r="HW35" s="14"/>
-      <c r="HX35" s="14"/>
-      <c r="HY35" s="14"/>
-      <c r="HZ35" s="14"/>
-      <c r="IA35" s="14"/>
-      <c r="IB35" s="14"/>
-      <c r="IC35" s="14"/>
-      <c r="ID35" s="14"/>
-      <c r="IE35" s="14"/>
-      <c r="IF35" s="14"/>
-      <c r="IG35" s="14"/>
-      <c r="IH35" s="14"/>
-      <c r="II35" s="14"/>
-      <c r="IJ35" s="14"/>
-      <c r="IK35" s="14"/>
-      <c r="IL35" s="14"/>
-      <c r="IM35" s="14"/>
-      <c r="IN35" s="14"/>
-      <c r="IO35" s="14"/>
-      <c r="IP35" s="14"/>
-      <c r="IQ35" s="14"/>
-      <c r="IR35" s="14"/>
-      <c r="IS35" s="14"/>
-      <c r="IT35" s="14"/>
-      <c r="IU35" s="14"/>
-      <c r="IV35"/>
-    </row>
-    <row r="36" spans="1:256" ht="15.25" customHeight="1">
-      <c r="A36" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="14"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="14"/>
-      <c r="AE36" s="14"/>
-      <c r="AF36" s="14"/>
-      <c r="AG36" s="14"/>
-      <c r="AH36" s="14"/>
-      <c r="AI36" s="14"/>
-      <c r="AJ36" s="14"/>
-      <c r="AK36" s="14"/>
-      <c r="AL36" s="14"/>
-      <c r="AM36" s="14"/>
-      <c r="AN36" s="14"/>
-      <c r="AO36" s="14"/>
-      <c r="AP36" s="14"/>
-      <c r="AQ36" s="14"/>
-      <c r="AR36" s="14"/>
-      <c r="AS36" s="14"/>
-      <c r="AT36" s="14"/>
-      <c r="AU36" s="14"/>
-      <c r="AV36" s="14"/>
-      <c r="AW36" s="14"/>
-      <c r="AX36" s="14"/>
-      <c r="AY36" s="14"/>
-      <c r="AZ36" s="14"/>
-      <c r="BA36" s="14"/>
-      <c r="BB36" s="14"/>
-      <c r="BC36" s="14"/>
-      <c r="BD36" s="14"/>
-      <c r="BE36" s="14"/>
-      <c r="BF36" s="14"/>
-      <c r="BG36" s="14"/>
-      <c r="BH36" s="14"/>
-      <c r="BI36" s="14"/>
-      <c r="BJ36" s="14"/>
-      <c r="BK36" s="14"/>
-      <c r="BL36" s="14"/>
-      <c r="BM36" s="14"/>
-      <c r="BN36" s="14"/>
-      <c r="BO36" s="14"/>
-      <c r="BP36" s="14"/>
-      <c r="BQ36" s="14"/>
-      <c r="BR36" s="14"/>
-      <c r="BS36" s="14"/>
-      <c r="BT36" s="14"/>
-      <c r="BU36" s="14"/>
-      <c r="BV36" s="14"/>
-      <c r="BW36" s="14"/>
-      <c r="BX36" s="14"/>
-      <c r="BY36" s="14"/>
-      <c r="BZ36" s="14"/>
-      <c r="CA36" s="14"/>
-      <c r="CB36" s="14"/>
-      <c r="CC36" s="14"/>
-      <c r="CD36" s="14"/>
-      <c r="CE36" s="14"/>
-      <c r="CF36" s="14"/>
-      <c r="CG36" s="14"/>
-      <c r="CH36" s="14"/>
-      <c r="CI36" s="14"/>
-      <c r="CJ36" s="14"/>
-      <c r="CK36" s="14"/>
-      <c r="CL36" s="14"/>
-      <c r="CM36" s="14"/>
-      <c r="CN36" s="14"/>
-      <c r="CO36" s="14"/>
-      <c r="CP36" s="14"/>
-      <c r="CQ36" s="14"/>
-      <c r="CR36" s="14"/>
-      <c r="CS36" s="14"/>
-      <c r="CT36" s="14"/>
-      <c r="CU36" s="14"/>
-      <c r="CV36" s="14"/>
-      <c r="CW36" s="14"/>
-      <c r="CX36" s="14"/>
-      <c r="CY36" s="14"/>
-      <c r="CZ36" s="14"/>
-      <c r="DA36" s="14"/>
-      <c r="DB36" s="14"/>
-      <c r="DC36" s="14"/>
-      <c r="DD36" s="14"/>
-      <c r="DE36" s="14"/>
-      <c r="DF36" s="14"/>
-      <c r="DG36" s="14"/>
-      <c r="DH36" s="14"/>
-      <c r="DI36" s="14"/>
-      <c r="DJ36" s="14"/>
-      <c r="DK36" s="14"/>
-      <c r="DL36" s="14"/>
-      <c r="DM36" s="14"/>
-      <c r="DN36" s="14"/>
-      <c r="DO36" s="14"/>
-      <c r="DP36" s="14"/>
-      <c r="DQ36" s="14"/>
-      <c r="DR36" s="14"/>
-      <c r="DS36" s="14"/>
-      <c r="DT36" s="14"/>
-      <c r="DU36" s="14"/>
-      <c r="DV36" s="14"/>
-      <c r="DW36" s="14"/>
-      <c r="DX36" s="14"/>
-      <c r="DY36" s="14"/>
-      <c r="DZ36" s="14"/>
-      <c r="EA36" s="14"/>
-      <c r="EB36" s="14"/>
-      <c r="EC36" s="14"/>
-      <c r="ED36" s="14"/>
-      <c r="EE36" s="14"/>
-      <c r="EF36" s="14"/>
-      <c r="EG36" s="14"/>
-      <c r="EH36" s="14"/>
-      <c r="EI36" s="14"/>
-      <c r="EJ36" s="14"/>
-      <c r="EK36" s="14"/>
-      <c r="EL36" s="14"/>
-      <c r="EM36" s="14"/>
-      <c r="EN36" s="14"/>
-      <c r="EO36" s="14"/>
-      <c r="EP36" s="14"/>
-      <c r="EQ36" s="14"/>
-      <c r="ER36" s="14"/>
-      <c r="ES36" s="14"/>
-      <c r="ET36" s="14"/>
-      <c r="EU36" s="14"/>
-      <c r="EV36" s="14"/>
-      <c r="EW36" s="14"/>
-      <c r="EX36" s="14"/>
-      <c r="EY36" s="14"/>
-      <c r="EZ36" s="14"/>
-      <c r="FA36" s="14"/>
-      <c r="FB36" s="14"/>
-      <c r="FC36" s="14"/>
-      <c r="FD36" s="14"/>
-      <c r="FE36" s="14"/>
-      <c r="FF36" s="14"/>
-      <c r="FG36" s="14"/>
-      <c r="FH36" s="14"/>
-      <c r="FI36" s="14"/>
-      <c r="FJ36" s="14"/>
-      <c r="FK36" s="14"/>
-      <c r="FL36" s="14"/>
-      <c r="FM36" s="14"/>
-      <c r="FN36" s="14"/>
-      <c r="FO36" s="14"/>
-      <c r="FP36" s="14"/>
-      <c r="FQ36" s="14"/>
-      <c r="FR36" s="14"/>
-      <c r="FS36" s="14"/>
-      <c r="FT36" s="14"/>
-      <c r="FU36" s="14"/>
-      <c r="FV36" s="14"/>
-      <c r="FW36" s="14"/>
-      <c r="FX36" s="14"/>
-      <c r="FY36" s="14"/>
-      <c r="FZ36" s="14"/>
-      <c r="GA36" s="14"/>
-      <c r="GB36" s="14"/>
-      <c r="GC36" s="14"/>
-      <c r="GD36" s="14"/>
-      <c r="GE36" s="14"/>
-      <c r="GF36" s="14"/>
-      <c r="GG36" s="14"/>
-      <c r="GH36" s="14"/>
-      <c r="GI36" s="14"/>
-      <c r="GJ36" s="14"/>
-      <c r="GK36" s="14"/>
-      <c r="GL36" s="14"/>
-      <c r="GM36" s="14"/>
-      <c r="GN36" s="14"/>
-      <c r="GO36" s="14"/>
-      <c r="GP36" s="14"/>
-      <c r="GQ36" s="14"/>
-      <c r="GR36" s="14"/>
-      <c r="GS36" s="14"/>
-      <c r="GT36" s="14"/>
-      <c r="GU36" s="14"/>
-      <c r="GV36" s="14"/>
-      <c r="GW36" s="14"/>
-      <c r="GX36" s="14"/>
-      <c r="GY36" s="14"/>
-      <c r="GZ36" s="14"/>
-      <c r="HA36" s="14"/>
-      <c r="HB36" s="14"/>
-      <c r="HC36" s="14"/>
-      <c r="HD36" s="14"/>
-      <c r="HE36" s="14"/>
-      <c r="HF36" s="14"/>
-      <c r="HG36" s="14"/>
-      <c r="HH36" s="14"/>
-      <c r="HI36" s="14"/>
-      <c r="HJ36" s="14"/>
-      <c r="HK36" s="14"/>
-      <c r="HL36" s="14"/>
-      <c r="HM36" s="14"/>
-      <c r="HN36" s="14"/>
-      <c r="HO36" s="14"/>
-      <c r="HP36" s="14"/>
-      <c r="HQ36" s="14"/>
-      <c r="HR36" s="14"/>
-      <c r="HS36" s="14"/>
-      <c r="HT36" s="14"/>
-      <c r="HU36" s="14"/>
-      <c r="HV36" s="14"/>
-      <c r="HW36" s="14"/>
-      <c r="HX36" s="14"/>
-      <c r="HY36" s="14"/>
-      <c r="HZ36" s="14"/>
-      <c r="IA36" s="14"/>
-      <c r="IB36" s="14"/>
-      <c r="IC36" s="14"/>
-      <c r="ID36" s="14"/>
-      <c r="IE36" s="14"/>
-      <c r="IF36" s="14"/>
-      <c r="IG36" s="14"/>
-      <c r="IH36" s="14"/>
-      <c r="II36" s="14"/>
-      <c r="IJ36" s="14"/>
-      <c r="IK36" s="14"/>
-      <c r="IL36" s="14"/>
-      <c r="IM36" s="14"/>
-      <c r="IN36" s="14"/>
-      <c r="IO36" s="14"/>
-      <c r="IP36" s="14"/>
-      <c r="IQ36" s="14"/>
-      <c r="IR36" s="14"/>
-      <c r="IS36" s="14"/>
-      <c r="IT36" s="14"/>
-      <c r="IU36" s="14"/>
-      <c r="IV36"/>
-    </row>
-    <row r="39" spans="1:256" ht="13" customHeight="1">
-      <c r="A39" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-    </row>
-    <row r="40" spans="1:256" ht="39" customHeight="1">
-      <c r="A40" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-    </row>
-    <row r="41" spans="1:256" ht="39" customHeight="1">
-      <c r="A41" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-    </row>
-    <row r="42" spans="1:256" ht="39" customHeight="1">
-      <c r="A42" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="14"/>
-      <c r="AC42" s="14"/>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="14"/>
-      <c r="AG42" s="14"/>
-      <c r="AH42" s="14"/>
-      <c r="AI42" s="14"/>
-      <c r="AJ42" s="14"/>
-      <c r="AK42" s="14"/>
-      <c r="AL42" s="14"/>
-      <c r="AM42" s="14"/>
-      <c r="AN42" s="14"/>
-      <c r="AO42" s="14"/>
-      <c r="AP42" s="14"/>
-      <c r="AQ42" s="14"/>
-      <c r="AR42" s="14"/>
-      <c r="AS42" s="14"/>
-      <c r="AT42" s="14"/>
-      <c r="AU42" s="14"/>
-      <c r="AV42" s="14"/>
-      <c r="AW42" s="14"/>
-      <c r="AX42" s="14"/>
-      <c r="AY42" s="14"/>
-      <c r="AZ42" s="14"/>
-      <c r="BA42" s="14"/>
-      <c r="BB42" s="14"/>
-      <c r="BC42" s="14"/>
-      <c r="BD42" s="14"/>
-      <c r="BE42" s="14"/>
-      <c r="BF42" s="14"/>
-      <c r="BG42" s="14"/>
-      <c r="BH42" s="14"/>
-      <c r="BI42" s="14"/>
-      <c r="BJ42" s="14"/>
-      <c r="BK42" s="14"/>
-      <c r="BL42" s="14"/>
-      <c r="BM42" s="14"/>
-      <c r="BN42" s="14"/>
-      <c r="BO42" s="14"/>
-      <c r="BP42" s="14"/>
-      <c r="BQ42" s="14"/>
-      <c r="BR42" s="14"/>
-      <c r="BS42" s="14"/>
-      <c r="BT42" s="14"/>
-      <c r="BU42" s="14"/>
-      <c r="BV42" s="14"/>
-      <c r="BW42" s="14"/>
-      <c r="BX42" s="14"/>
-      <c r="BY42" s="14"/>
-      <c r="BZ42" s="14"/>
-      <c r="CA42" s="14"/>
-      <c r="CB42" s="14"/>
-      <c r="CC42" s="14"/>
-      <c r="CD42" s="14"/>
-      <c r="CE42" s="14"/>
-      <c r="CF42" s="14"/>
-      <c r="CG42" s="14"/>
-      <c r="CH42" s="14"/>
-      <c r="CI42" s="14"/>
-      <c r="CJ42" s="14"/>
-      <c r="CK42" s="14"/>
-      <c r="CL42" s="14"/>
-      <c r="CM42" s="14"/>
-      <c r="CN42" s="14"/>
-      <c r="CO42" s="14"/>
-      <c r="CP42" s="14"/>
-      <c r="CQ42" s="14"/>
-      <c r="CR42" s="14"/>
-      <c r="CS42" s="14"/>
-      <c r="CT42" s="14"/>
-      <c r="CU42" s="14"/>
-      <c r="CV42" s="14"/>
-      <c r="CW42" s="14"/>
-      <c r="CX42" s="14"/>
-      <c r="CY42" s="14"/>
-      <c r="CZ42" s="14"/>
-      <c r="DA42" s="14"/>
-      <c r="DB42" s="14"/>
-      <c r="DC42" s="14"/>
-      <c r="DD42" s="14"/>
-      <c r="DE42" s="14"/>
-      <c r="DF42" s="14"/>
-      <c r="DG42" s="14"/>
-      <c r="DH42" s="14"/>
-      <c r="DI42" s="14"/>
-      <c r="DJ42" s="14"/>
-      <c r="DK42" s="14"/>
-      <c r="DL42" s="14"/>
-      <c r="DM42" s="14"/>
-      <c r="DN42" s="14"/>
-      <c r="DO42" s="14"/>
-      <c r="DP42" s="14"/>
-      <c r="DQ42" s="14"/>
-      <c r="DR42" s="14"/>
-      <c r="DS42" s="14"/>
-      <c r="DT42" s="14"/>
-      <c r="DU42" s="14"/>
-      <c r="DV42" s="14"/>
-      <c r="DW42" s="14"/>
-      <c r="DX42" s="14"/>
-      <c r="DY42" s="14"/>
-      <c r="DZ42" s="14"/>
-      <c r="EA42" s="14"/>
-      <c r="EB42" s="14"/>
-      <c r="EC42" s="14"/>
-      <c r="ED42" s="14"/>
-      <c r="EE42" s="14"/>
-      <c r="EF42" s="14"/>
-      <c r="EG42" s="14"/>
-      <c r="EH42" s="14"/>
-      <c r="EI42" s="14"/>
-      <c r="EJ42" s="14"/>
-      <c r="EK42" s="14"/>
-      <c r="EL42" s="14"/>
-      <c r="EM42" s="14"/>
-      <c r="EN42" s="14"/>
-      <c r="EO42" s="14"/>
-      <c r="EP42" s="14"/>
-      <c r="EQ42" s="14"/>
-      <c r="ER42" s="14"/>
-      <c r="ES42" s="14"/>
-      <c r="ET42" s="14"/>
-      <c r="EU42" s="14"/>
-      <c r="EV42" s="14"/>
-      <c r="EW42" s="14"/>
-      <c r="EX42" s="14"/>
-      <c r="EY42" s="14"/>
-      <c r="EZ42" s="14"/>
-      <c r="FA42" s="14"/>
-      <c r="FB42" s="14"/>
-      <c r="FC42" s="14"/>
-      <c r="FD42" s="14"/>
-      <c r="FE42" s="14"/>
-      <c r="FF42" s="14"/>
-      <c r="FG42" s="14"/>
-      <c r="FH42" s="14"/>
-      <c r="FI42" s="14"/>
-      <c r="FJ42" s="14"/>
-      <c r="FK42" s="14"/>
-      <c r="FL42" s="14"/>
-      <c r="FM42" s="14"/>
-      <c r="FN42" s="14"/>
-      <c r="FO42" s="14"/>
-      <c r="FP42" s="14"/>
-      <c r="FQ42" s="14"/>
-      <c r="FR42" s="14"/>
-      <c r="FS42" s="14"/>
-      <c r="FT42" s="14"/>
-      <c r="FU42" s="14"/>
-      <c r="FV42" s="14"/>
-      <c r="FW42" s="14"/>
-      <c r="FX42" s="14"/>
-      <c r="FY42" s="14"/>
-      <c r="FZ42" s="14"/>
-      <c r="GA42" s="14"/>
-      <c r="GB42" s="14"/>
-      <c r="GC42" s="14"/>
-      <c r="GD42" s="14"/>
-      <c r="GE42" s="14"/>
-      <c r="GF42" s="14"/>
-      <c r="GG42" s="14"/>
-      <c r="GH42" s="14"/>
-      <c r="GI42" s="14"/>
-      <c r="GJ42" s="14"/>
-      <c r="GK42" s="14"/>
-      <c r="GL42" s="14"/>
-      <c r="GM42" s="14"/>
-      <c r="GN42" s="14"/>
-      <c r="GO42" s="14"/>
-      <c r="GP42" s="14"/>
-      <c r="GQ42" s="14"/>
-      <c r="GR42" s="14"/>
-      <c r="GS42" s="14"/>
-      <c r="GT42" s="14"/>
-      <c r="GU42" s="14"/>
-      <c r="GV42" s="14"/>
-      <c r="GW42" s="14"/>
-      <c r="GX42" s="14"/>
-      <c r="GY42" s="14"/>
-      <c r="GZ42" s="14"/>
-      <c r="HA42" s="14"/>
-      <c r="HB42" s="14"/>
-      <c r="HC42" s="14"/>
-      <c r="HD42" s="14"/>
-      <c r="HE42" s="14"/>
-      <c r="HF42" s="14"/>
-      <c r="HG42" s="14"/>
-      <c r="HH42" s="14"/>
-      <c r="HI42" s="14"/>
-      <c r="HJ42" s="14"/>
-      <c r="HK42" s="14"/>
-      <c r="HL42" s="14"/>
-      <c r="HM42" s="14"/>
-      <c r="HN42" s="14"/>
-      <c r="HO42" s="14"/>
-      <c r="HP42" s="14"/>
-      <c r="HQ42" s="14"/>
-      <c r="HR42" s="14"/>
-      <c r="HS42" s="14"/>
-      <c r="HT42" s="14"/>
-      <c r="HU42" s="14"/>
-      <c r="HV42" s="14"/>
-      <c r="HW42" s="14"/>
-      <c r="HX42" s="14"/>
-      <c r="HY42" s="14"/>
-      <c r="HZ42" s="14"/>
-      <c r="IA42" s="14"/>
-      <c r="IB42" s="14"/>
-      <c r="IC42" s="14"/>
-      <c r="ID42" s="14"/>
-      <c r="IE42" s="14"/>
-      <c r="IF42" s="14"/>
-      <c r="IG42" s="14"/>
-      <c r="IH42" s="14"/>
-      <c r="II42" s="14"/>
-      <c r="IJ42" s="14"/>
-      <c r="IK42" s="14"/>
-      <c r="IL42" s="14"/>
-      <c r="IM42" s="14"/>
-      <c r="IN42" s="14"/>
-      <c r="IO42" s="14"/>
-      <c r="IP42" s="14"/>
-      <c r="IQ42" s="14"/>
-      <c r="IR42" s="14"/>
-      <c r="IS42" s="14"/>
-      <c r="IT42" s="14"/>
-      <c r="IU42" s="14"/>
-      <c r="IV42" s="14"/>
+      <c r="B44" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B41:G41"/>
     <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B43:G43"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
   </mergeCells>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/テスト仕様書/掲示板テスト仕様書(サンプル).xlsx
+++ b/テスト仕様書/掲示板テスト仕様書(サンプル).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2023/sample-bbs/テスト仕様書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/intellij-spring-project/sample-bbs/テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437C05AD-39BE-9448-A6AA-E6DCF34B0D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED10CA65-FB8F-C24E-88B0-235A99E65A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2650,13 +2650,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>記事内容を入力してください</t>
-    <rPh sb="0" eb="2">
-      <t>キジ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>記事内容の入力（正常系）</t>
     <rPh sb="0" eb="2">
       <t>キジ</t>
@@ -3103,6 +3096,13 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>投稿内容を入力してください</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -3798,6 +3798,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3834,6 +3864,15 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3842,45 +3881,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -5076,11 +5076,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3" ht="15.5" customHeight="1">
       <c r="A2" s="9"/>
@@ -5187,7 +5187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IW24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="81" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="81" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -5205,33 +5205,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="53"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="14" customHeight="1">
@@ -5350,7 +5350,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>81</v>
@@ -5374,7 +5374,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>82</v>
@@ -5398,7 +5398,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
@@ -5413,7 +5413,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>21</v>
@@ -5422,7 +5422,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -5437,7 +5437,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>21</v>
@@ -5446,7 +5446,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>24</v>
@@ -5461,7 +5461,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>21</v>
@@ -5470,7 +5470,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>25</v>
@@ -5494,7 +5494,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>90</v>
@@ -5518,7 +5518,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>32</v>
@@ -5542,10 +5542,10 @@
         <v>34</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="7"/>
@@ -5566,7 +5566,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>36</v>
@@ -5581,7 +5581,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>21</v>
@@ -5590,7 +5590,7 @@
         <v>35</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>37</v>
@@ -5605,7 +5605,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>21</v>
@@ -5614,7 +5614,7 @@
         <v>35</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>38</v>
@@ -5629,7 +5629,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>21</v>
@@ -5638,10 +5638,10 @@
         <v>35</v>
       </c>
       <c r="E19" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="40" t="s">
         <v>121</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>122</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="7"/>
@@ -5653,19 +5653,19 @@
         <v>29</v>
       </c>
       <c r="B20" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>102</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>103</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
@@ -5680,16 +5680,16 @@
         <v>70</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="7"/>
@@ -5704,16 +5704,16 @@
         <v>70</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="7"/>
@@ -5728,16 +5728,16 @@
         <v>70</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="7"/>
@@ -5749,19 +5749,19 @@
         <v>39</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="40" t="s">
         <v>116</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>117</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="7"/>
@@ -5798,7 +5798,7 @@
   <dimension ref="A1:IV44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13" customHeight="1"/>
@@ -5808,201 +5808,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" ht="14.75" customHeight="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:256" ht="15.5" customHeight="1">
-      <c r="A2" s="64" t="s">
-        <v>118</v>
+      <c r="A2" s="49" t="s">
+        <v>117</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
       <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:256" ht="15.5" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="IV3"/>
+    </row>
+    <row r="4" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A4" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="IV4"/>
+    </row>
+    <row r="5" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A5" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="IV5"/>
+    </row>
+    <row r="6" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="IV6"/>
+    </row>
+    <row r="7" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A7" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="IV7"/>
+    </row>
+    <row r="8" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A8" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="IV8"/>
+    </row>
+    <row r="9" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A9" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="IV3"/>
-    </row>
-    <row r="4" spans="1:256" ht="15.25" customHeight="1">
-      <c r="A4" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="IV4"/>
-    </row>
-    <row r="5" spans="1:256" ht="15.25" customHeight="1">
-      <c r="A5" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="63" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="IV9"/>
+    </row>
+    <row r="10" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A10" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="D10" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="E10" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="IV10"/>
+    </row>
+    <row r="11" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A11" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E11" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="IV11"/>
+    </row>
+    <row r="12" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A12" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="IV5"/>
-    </row>
-    <row r="6" spans="1:256" ht="15.25" customHeight="1">
-      <c r="A6" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="63" t="s">
+      <c r="IV12"/>
+    </row>
+    <row r="13" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A13" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="63" t="s">
+      <c r="C13" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="IV6"/>
-    </row>
-    <row r="7" spans="1:256" ht="15.25" customHeight="1">
-      <c r="A7" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="IV7"/>
-    </row>
-    <row r="8" spans="1:256" ht="15.25" customHeight="1">
-      <c r="A8" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="IV8"/>
-    </row>
-    <row r="9" spans="1:256" ht="15.25" customHeight="1">
-      <c r="A9" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="IV9"/>
-    </row>
-    <row r="10" spans="1:256" ht="15.25" customHeight="1">
-      <c r="A10" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="63" t="s">
+      <c r="D13" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="IV10"/>
-    </row>
-    <row r="11" spans="1:256" ht="15.25" customHeight="1">
-      <c r="A11" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="IV11"/>
-    </row>
-    <row r="12" spans="1:256" ht="15.25" customHeight="1">
-      <c r="A12" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="IV12"/>
-    </row>
-    <row r="13" spans="1:256" ht="15.25" customHeight="1">
-      <c r="A13" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="48" t="s">
         <v>48</v>
       </c>
       <c r="IV13"/>
@@ -6011,63 +6011,63 @@
       <c r="A16" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
     </row>
     <row r="17" spans="1:256" ht="36" customHeight="1">
       <c r="A17" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
     </row>
     <row r="18" spans="1:256" ht="33" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
     </row>
     <row r="19" spans="1:256" ht="32" customHeight="1">
       <c r="A19" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
     </row>
     <row r="25" spans="1:256" ht="13" customHeight="1">
       <c r="IV25"/>
     </row>
     <row r="26" spans="1:256" ht="13" customHeight="1">
-      <c r="A26" s="64" t="s">
-        <v>126</v>
+      <c r="A26" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" s="66"/>
       <c r="D26" s="66"/>
@@ -6075,201 +6075,201 @@
       <c r="IV26"/>
     </row>
     <row r="27" spans="1:256" ht="13" customHeight="1">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="IV27"/>
+    </row>
+    <row r="28" spans="1:256" ht="13" customHeight="1">
+      <c r="A28" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="IV28"/>
+    </row>
+    <row r="29" spans="1:256" ht="13" customHeight="1">
+      <c r="A29" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="IV29"/>
+    </row>
+    <row r="30" spans="1:256" ht="13" customHeight="1">
+      <c r="A30" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="IV30"/>
+    </row>
+    <row r="31" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A31" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="IV31"/>
+    </row>
+    <row r="32" spans="1:256" ht="13" customHeight="1">
+      <c r="A32" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="IV32"/>
+    </row>
+    <row r="33" spans="1:256" ht="13" customHeight="1">
+      <c r="A33" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="IV27"/>
-    </row>
-    <row r="28" spans="1:256" ht="13" customHeight="1">
-      <c r="A28" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="IV28"/>
-    </row>
-    <row r="29" spans="1:256" ht="13" customHeight="1">
-      <c r="A29" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="63" t="s">
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
+      <c r="IV33"/>
+    </row>
+    <row r="34" spans="1:256" ht="13" customHeight="1">
+      <c r="A34" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="D34" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="E34" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="IV34"/>
+    </row>
+    <row r="35" spans="1:256" ht="13" customHeight="1">
+      <c r="A35" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E35" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="IV35"/>
+    </row>
+    <row r="36" spans="1:256" ht="13" customHeight="1">
+      <c r="A36" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="IV29"/>
-    </row>
-    <row r="30" spans="1:256" ht="13" customHeight="1">
-      <c r="A30" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="63" t="s">
+      <c r="D36" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="E36" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="IV36"/>
+    </row>
+    <row r="37" spans="1:256" ht="15.25" customHeight="1">
+      <c r="A37" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="C37" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="IV30"/>
-    </row>
-    <row r="31" spans="1:256" ht="15.25" customHeight="1">
-      <c r="A31" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" s="63" t="s">
+      <c r="IV37"/>
+    </row>
+    <row r="38" spans="1:256" ht="13" customHeight="1">
+      <c r="A38" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="IV31"/>
-    </row>
-    <row r="32" spans="1:256" ht="13" customHeight="1">
-      <c r="A32" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="IV32"/>
-    </row>
-    <row r="33" spans="1:256" ht="13" customHeight="1">
-      <c r="A33" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="70"/>
-      <c r="IV33"/>
-    </row>
-    <row r="34" spans="1:256" ht="13" customHeight="1">
-      <c r="A34" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="59" t="s">
+      <c r="C38" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="59" t="s">
+      <c r="D38" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="IV34"/>
-    </row>
-    <row r="35" spans="1:256" ht="13" customHeight="1">
-      <c r="A35" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="IV35"/>
-    </row>
-    <row r="36" spans="1:256" ht="13" customHeight="1">
-      <c r="A36" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="IV36"/>
-    </row>
-    <row r="37" spans="1:256" ht="15.25" customHeight="1">
-      <c r="A37" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="IV37"/>
-    </row>
-    <row r="38" spans="1:256" ht="13" customHeight="1">
-      <c r="A38" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="63" t="s">
+      <c r="E38" s="48" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6277,67 +6277,67 @@
       <c r="A41" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
     </row>
     <row r="42" spans="1:256" ht="39" customHeight="1">
       <c r="A42" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
     </row>
     <row r="43" spans="1:256" ht="39" customHeight="1">
       <c r="A43" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
     </row>
     <row r="44" spans="1:256" ht="39" customHeight="1">
       <c r="A44" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B44:G44"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="B43:G43"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
